--- a/配置表/Dialogue.xlsx
+++ b/配置表/Dialogue.xlsx
@@ -33,7 +33,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="K3" authorId="0">
+    <comment ref="L3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -392,45 +392,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="214">
-  <si>
-    <t>物品描述</t>
-  </si>
-  <si>
-    <t>物品图片</t>
-  </si>
-  <si>
-    <t>初始数量</t>
-  </si>
-  <si>
-    <t>typeID</t>
-  </si>
-  <si>
-    <t>typeName</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="285">
+  <si>
+    <t>##var</t>
+  </si>
+  <si>
+    <t>chapter</t>
+  </si>
+  <si>
+    <t>Dialogue</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>Leftcharacter</t>
+  </si>
+  <si>
+    <t>Rightcharacter</t>
+  </si>
+  <si>
+    <t>voice</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>##type</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>int</t>
   </si>
   <si>
     <t>String</t>
   </si>
   <si>
+    <t>String EN</t>
+  </si>
+  <si>
+    <t>String CHN</t>
+  </si>
+  <si>
+    <t>String FR</t>
+  </si>
+  <si>
     <t>Sprite</t>
   </si>
   <si>
-    <t>ItemType</t>
-  </si>
-  <si>
-    <t>float</t>
+    <t>left</t>
+  </si>
+  <si>
+    <t>##group</t>
+  </si>
+  <si>
+    <t>##</t>
   </si>
   <si>
     <t>章节开启对话</t>
   </si>
   <si>
-    <t>主键id int类型</t>
+    <t>主键id</t>
   </si>
   <si>
     <t>说话人名字</t>
   </si>
   <si>
-    <t>说话内容</t>
+    <t>说话内容英语</t>
+  </si>
+  <si>
+    <t>说话内容中文</t>
+  </si>
+  <si>
+    <t>说话内容法语</t>
   </si>
   <si>
     <t>左边角色</t>
@@ -445,18 +484,6 @@
     <t>是否左边角色说话</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>String EN</t>
-  </si>
-  <si>
-    <t>String CHN</t>
-  </si>
-  <si>
-    <t>left</t>
-  </si>
-  <si>
     <t>Chapter01Scene01</t>
   </si>
   <si>
@@ -469,6 +496,9 @@
     <t>詹姆斯，这个就是玫瑰庄园，自从去了爱丁堡后，已经5年没有回来了</t>
   </si>
   <si>
+    <t>C’est donc le Manoir des Roses… Cela fait cinq ans que je ne suis pas revenu depuis Édimbourg.</t>
+  </si>
+  <si>
     <t>James</t>
   </si>
   <si>
@@ -478,30 +508,45 @@
     <t>那真是很久了</t>
   </si>
   <si>
+    <t>C’est vraiment long.</t>
+  </si>
+  <si>
     <t>Coming back here, I feel so many memories flooding back.</t>
   </si>
   <si>
     <t>再次回到这里，我感到许多回忆涌上心头</t>
   </si>
   <si>
+    <t>En revenant ici, tant de souvenirs me reviennent.</t>
+  </si>
+  <si>
     <t>A lot of stories must have happened here before.</t>
   </si>
   <si>
     <t>这里以前应该有很多故事发生</t>
   </si>
   <si>
+    <t>Il devait s’y passer beaucoup d’histoires autrefois.</t>
+  </si>
+  <si>
     <t>Yeah, and my mother's roses are now overgrown everywhere.</t>
   </si>
   <si>
     <t>是啊，还有我妈妈种的玫瑰现在长的到处都是</t>
   </si>
   <si>
+    <t>Oui… Et les roses que ma mère plantait ont poussé partout maintenant.</t>
+  </si>
+  <si>
     <t>Let's go pick some roses.</t>
   </si>
   <si>
     <t>我们去摘些玫瑰吧</t>
   </si>
   <si>
+    <t>Allons en cueillir quelques-unes.</t>
+  </si>
+  <si>
     <t>Chapter01Scene02</t>
   </si>
   <si>
@@ -511,36 +556,54 @@
     <t>房子仍然很整洁</t>
   </si>
   <si>
+    <t>La maison est toujours bien entretenue.</t>
+  </si>
+  <si>
     <t>Yes, it looks no different from before.</t>
   </si>
   <si>
     <t>是的，它看起来和以前没什么不同</t>
   </si>
   <si>
+    <t>Oui, elle n’a presque pas changé.</t>
+  </si>
+  <si>
     <t>There are many rooms in the house.</t>
   </si>
   <si>
     <t>房子里有很多房间</t>
   </si>
   <si>
+    <t>Il y a beaucoup de pièces ici.</t>
+  </si>
+  <si>
     <t>Yes, the dining room is on the left, and the living room is on the right.</t>
   </si>
   <si>
     <t>是的，左边餐厅，右边就是客厅</t>
   </si>
   <si>
+    <t>Oui, la salle à manger est à gauche, et le salon à droite.</t>
+  </si>
+  <si>
     <t>Then that area up ahead must lead to the backyard.</t>
   </si>
   <si>
     <t>那前面那里肯定是通往后院的</t>
   </si>
   <si>
+    <t>Là, devant, ça doit mener au jardin, non ?</t>
+  </si>
+  <si>
     <t>Yes, how did you know?</t>
   </si>
   <si>
     <t>是的 你怎么知道</t>
   </si>
   <si>
+    <t>Oui, comment le sais-tu ?</t>
+  </si>
+  <si>
     <t>Chapter01Scene03</t>
   </si>
   <si>
@@ -550,36 +613,54 @@
     <t>这里客厅，也还是和以前一样</t>
   </si>
   <si>
+    <t>Le salon… toujours pareil.</t>
+  </si>
+  <si>
     <t>We used to chat here with Mom and Dad all the time.</t>
   </si>
   <si>
     <t>我们以前和爸爸妈妈经常在这里聊天</t>
   </si>
   <si>
+    <t>Nous y discutions souvent avec Papa et Maman.</t>
+  </si>
+  <si>
     <t>Dad often listened to the radio and read the newspaper here.</t>
   </si>
   <si>
     <t>爸爸经常在听收音机，看报纸</t>
   </si>
   <si>
+    <t>Ton père écoutait souvent la radio et lisait le journal.</t>
+  </si>
+  <si>
     <t>Mom often knitted sweaters here.</t>
   </si>
   <si>
     <t>妈妈经常在这里织毛衣</t>
   </si>
   <si>
+    <t>Et Maman tricotait ici.</t>
+  </si>
+  <si>
     <t>It really does look very cozy, especially during Christmas.</t>
   </si>
   <si>
     <t>这里看着确实非常温馨，尤其是圣诞节的时候</t>
   </si>
   <si>
+    <t>Ça devait être très chaleureux, surtout à Noël.</t>
+  </si>
+  <si>
     <t>Yes, during Christmas, we'd decorate the Christmas tree next to the fireplace, with lots of gifts.</t>
   </si>
   <si>
     <t>是的，圣诞节的时候会布置圣诞树在壁炉旁边，有很多礼物。</t>
   </si>
   <si>
+    <t>Oui, nous décorions un sapin près de la cheminée, avec plein de cadeaux.</t>
+  </si>
+  <si>
     <t>Chapter01Scene04</t>
   </si>
   <si>
@@ -589,12 +670,18 @@
     <t>这里是我们家的餐厅</t>
   </si>
   <si>
+    <t>Voici notre salle à manger.</t>
+  </si>
+  <si>
     <t>Which one is your designated seat?</t>
   </si>
   <si>
     <t>哪个是你的专属的座椅</t>
   </si>
   <si>
+    <t>Quelle était ta place attitrée ?</t>
+  </si>
+  <si>
     <t>Eilleen</t>
   </si>
   <si>
@@ -604,18 +691,27 @@
     <t>最里面靠窗户那个座位就是我的专属座椅，我喜欢和爸爸坐在一起</t>
   </si>
   <si>
+    <t>Celle près de la fenêtre, au fond. J’aimais m’asseoir à côté de Papa.</t>
+  </si>
+  <si>
     <t>Then your Dad must have been in the innermost seat in the middle.</t>
   </si>
   <si>
     <t>那你的爸爸肯定就是中间最里面的那个座位</t>
   </si>
   <si>
+    <t>Alors ton père devait être au milieu, tout au fond.</t>
+  </si>
+  <si>
     <t>Yes.</t>
   </si>
   <si>
     <t>是的</t>
   </si>
   <si>
+    <t>Exactement.</t>
+  </si>
+  <si>
     <t>Chapter01Scene05</t>
   </si>
   <si>
@@ -625,30 +721,45 @@
     <t>二楼的房间应该就是卧室了</t>
   </si>
   <si>
+    <t> À l’étage, ce doivent être les chambres.</t>
+  </si>
+  <si>
     <t>Yes, and there's also Dad's study—the one in the middle.</t>
   </si>
   <si>
     <t>是的，还有一个是爸爸的书房，就是中间那个</t>
   </si>
   <si>
+    <t>Oui, et il y a aussi le bureau de Papa, celle du milieu.</t>
+  </si>
+  <si>
     <t>Then left and right should be bedrooms.</t>
   </si>
   <si>
     <t>那左边和右边，应该就是卧室，</t>
   </si>
   <si>
+    <t>Donc à gauche et à droite, ce sont les chambres ?</t>
+  </si>
+  <si>
     <t>Yes. Want to guess which one is my bedroom?</t>
   </si>
   <si>
     <t>是的，你可以猜猜哪个是我的卧室</t>
   </si>
   <si>
+    <t>Oui, devine laquelle était la mienne.</t>
+  </si>
+  <si>
     <t>Haha, I’m not really sure. Maybe we should look at the left bedroom first.</t>
   </si>
   <si>
     <t>哈哈，我不是很清楚。我想我们先看看左边的卧室有什么</t>
   </si>
   <si>
+    <t>Haha, je ne suis pas sûr. Commençons par regarder celle de gauche.</t>
+  </si>
+  <si>
     <t>Chapter01Scene06</t>
   </si>
   <si>
@@ -658,18 +769,27 @@
     <t>这个是应该是你爸爸妈妈的卧室</t>
   </si>
   <si>
+    <t>Ça devait être la chambre de tes parents.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Yes, Mom and Dad used to live here. </t>
   </si>
   <si>
     <t>是的，爸爸妈妈以前住在这里</t>
   </si>
   <si>
+    <t>Oui, ils vivaient ici.</t>
+  </si>
+  <si>
     <t>Dad used to come back from Edinburgh every week.</t>
   </si>
   <si>
     <t>爸爸以前每个星期从爱丁堡回来</t>
   </si>
   <si>
+    <t>Ton père revenait chaque semaine d’Édimbourg…</t>
+  </si>
+  <si>
     <t>Chapter01Scene07</t>
   </si>
   <si>
@@ -679,12 +799,18 @@
     <t>这个是应该是你的卧室</t>
   </si>
   <si>
+    <t>Et ça, c’était sûrement ta chambre.</t>
+  </si>
+  <si>
     <t>Yes. This room holds so many memories... and secrets.</t>
   </si>
   <si>
     <t>是的，在这里有太多回忆，和秘密</t>
   </si>
   <si>
+    <t>Oui… Tant de souvenirs et de secrets ici.</t>
+  </si>
+  <si>
     <t>Chapter01Scene08</t>
   </si>
   <si>
@@ -694,18 +820,27 @@
     <t>喔，这个应该就是你爸爸的书房</t>
   </si>
   <si>
+    <t>Oh, ça doit être le bureau de ton père.</t>
+  </si>
+  <si>
     <t>Yes, Dad often studied here late into the night.</t>
   </si>
   <si>
     <t>是的爸爸以前经常在这里看书到很晚，</t>
   </si>
   <si>
+    <t>Oui, il y travaillait souvent tard dans la nuit.</t>
+  </si>
+  <si>
     <t>So this is how hard professors at the University of Edinburgh work.</t>
   </si>
   <si>
     <t>爱丁堡大学的教授原来都是这么辛苦</t>
   </si>
   <si>
+    <t>Les professeurs de l’Université d’Édimbourg étaient vraiment travailleurs…</t>
+  </si>
+  <si>
     <t>Chapter01Scene09</t>
   </si>
   <si>
@@ -718,15 +853,24 @@
     <t>Eillen 你们以前经常在后院做什么</t>
   </si>
   <si>
+    <t>Eillen, que faisiez-vous dans le jardin avant ?</t>
+  </si>
+  <si>
     <t>And of course, afternoon tea—tea.</t>
   </si>
   <si>
     <t>我们夏天的时候经常在后院以前乘凉</t>
   </si>
   <si>
+    <t>En été, nous nous y reposions souvent à l’ombre.</t>
+  </si>
+  <si>
     <t>当然，还有下午茶 tea</t>
   </si>
   <si>
+    <t>Et bien sûr, le thé de l’après-midi.</t>
+  </si>
+  <si>
     <t>Chapter02Scene01</t>
   </si>
   <si>
@@ -736,30 +880,45 @@
     <t>终于到市区了</t>
   </si>
   <si>
+    <t>Enfin arrivés en ville…</t>
+  </si>
+  <si>
     <t>It's been years since we graduated, yet coming back, everything feels so familiar.</t>
   </si>
   <si>
     <t>我们毕业好几年了，再次回来一切还是那么熟悉</t>
   </si>
   <si>
+    <t>Cela fait des années que nous avons obtenu notre diplôme, mais tout est toujours aussi familier.</t>
+  </si>
+  <si>
     <t>Professor Catherine—we should visit her at the university today.</t>
   </si>
   <si>
     <t>凯瑟琳教授，今天在学校里我们应该去看看她</t>
   </si>
   <si>
+    <t>Professeure Katherine, nous devrions lui rendre visite à l’université aujourd’hui.</t>
+  </si>
+  <si>
     <t>Okay. I heard Professor Catherine and your Dad were both professors in the Physics Department?</t>
   </si>
   <si>
     <t>好的，听说凯瑟琳教授，以前和你爸爸都是物理系的教授</t>
   </si>
   <si>
+    <t>Oui, j’ai entendu qu’elle et ton père étaient tous deux professeurs de physique.</t>
+  </si>
+  <si>
     <t>Yes, they collaborated on many research projects together.</t>
   </si>
   <si>
     <t>是的，她们一起参与过很多研究</t>
   </si>
   <si>
+    <t>Oui, ils ont collaboré sur plusieurs recherches.</t>
+  </si>
+  <si>
     <t>Chapter02Scene02</t>
   </si>
   <si>
@@ -769,24 +928,36 @@
     <t>今天凯瑟琳教授也没在</t>
   </si>
   <si>
+    <t>La professeure Katherine n’est pas là non plus aujourd’hui…</t>
+  </si>
+  <si>
     <t xml:space="preserve"> I heard Professor Danny is also missing. All the professors who participated in the Antarctic expedition have disappeared together.</t>
   </si>
   <si>
     <t>听说丹尼教授也没在，一起参与南极科考的教授都集体失踪了</t>
   </si>
   <si>
+    <t>On dit que le professeur Danny est aussi absent. Tous les professeurs ayant participé à l’expédition en Antarctique ont disparu.</t>
+  </si>
+  <si>
     <t>Maybe we should go inside the teaching building to check.</t>
   </si>
   <si>
     <t>或许我们应该进入教学楼内部看看</t>
   </si>
   <si>
+    <t>Peut-être devrions-nous entrer dans le bâtiment pour chercher des indices.</t>
+  </si>
+  <si>
     <t>Alright... I just hope we don't run into anyone familiar.</t>
   </si>
   <si>
     <t>好吧，希望不会碰到熟悉的人</t>
   </si>
   <si>
+    <t>D’accord… J’espère ne croiser personne de connu.</t>
+  </si>
+  <si>
     <t>Chapter02Scene03</t>
   </si>
   <si>
@@ -796,12 +967,18 @@
     <t>这里是还是这么熟悉</t>
   </si>
   <si>
+    <t>Tout est si familier ici.</t>
+  </si>
+  <si>
     <t>Might need to go check the second floor.</t>
   </si>
   <si>
     <t>可能得去二楼看看</t>
   </si>
   <si>
+    <t>Il faudrait peut-être monter au deuxième étage.</t>
+  </si>
+  <si>
     <t>Chapter02Scene04</t>
   </si>
   <si>
@@ -811,12 +988,18 @@
     <t>二楼到了，这里也和以前一样</t>
   </si>
   <si>
+    <t>Nous y voilà… Toujours pareil.</t>
+  </si>
+  <si>
     <t>Let’s see if we can find any clues.</t>
   </si>
   <si>
     <t>看看有什么线索吧</t>
   </si>
   <si>
+    <t>Voyons s’il y a des indices.</t>
+  </si>
+  <si>
     <t>Chapter02Scene05</t>
   </si>
   <si>
@@ -826,12 +1009,18 @@
     <t>想不到这里还有一间图书馆</t>
   </si>
   <si>
+    <t>Je ne savais pas qu’il y avait une bibliothèque ici.</t>
+  </si>
+  <si>
     <t>See if we can find anything useful.</t>
   </si>
   <si>
     <t>看看能不能找到什么有用的</t>
   </si>
   <si>
+    <t>Cherchons quelque chose d’utile.</t>
+  </si>
+  <si>
     <t>Chapter02Scene06</t>
   </si>
   <si>
@@ -844,9 +1033,15 @@
     <t xml:space="preserve">            这应该是教授们开会的地方，第一次来这里，</t>
   </si>
   <si>
+    <t>Ça doit être la salle de réunion des professeurs. Je n’y suis jamais allé.</t>
+  </si>
+  <si>
     <t>应该是，听我爸爸讲起过一个会议室，有个大的椭圆桌子</t>
   </si>
   <si>
+    <t>Oui, mon père en parlait… Une grande table ovale.</t>
+  </si>
+  <si>
     <t>Chapter03Scene01</t>
   </si>
   <si>
@@ -856,24 +1051,36 @@
     <t>终于到伦敦了</t>
   </si>
   <si>
+    <t>Enfin arrivés à Londres…</t>
+  </si>
+  <si>
     <t>That’s Tower Bridge ahead.</t>
   </si>
   <si>
     <t>前面就是伦敦塔桥</t>
   </si>
   <si>
+    <t>Là-bas, c’est le Tower Bridge.</t>
+  </si>
+  <si>
     <t>London’s weather is always rainy—this time is no exception.</t>
   </si>
   <si>
     <t>伦敦的天气总是下雨，这一次也不例外</t>
   </si>
   <si>
+    <t>Il pleut toujours à Londres, cette fois ne fait pas exception.</t>
+  </si>
+  <si>
     <t>Yes. Maybe we should come in winter; it might snow then.</t>
   </si>
   <si>
     <t>是的，或许我们应该冬天来，可能还会下雪</t>
   </si>
   <si>
+    <t>Oui, peut-être aurions-nous dû venir en hiver, il aurait pu neiger.</t>
+  </si>
+  <si>
     <t>Chapter03Scene02</t>
   </si>
   <si>
@@ -883,10 +1090,16 @@
     <t>夜晚的塔桥，没有人，记得以前这里很多游客</t>
   </si>
   <si>
+    <t>Le Tower Bridge, la nuit, est désert. Avant, il y avait tant de touristes.</t>
+  </si>
+  <si>
     <t>Probably because of the rain.</t>
   </si>
   <si>
     <t>可能是由于下雨吧</t>
+  </si>
+  <si>
+    <t>C’est sûrement à cause de la pluie.</t>
   </si>
   <si>
     <t>Chapter04Scene01</t>
@@ -1046,7 +1259,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1069,7 +1282,25 @@
     <font>
       <sz val="12"/>
       <color rgb="FF404040"/>
+      <name val="Microsoft YaHei UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF404040"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Microsoft YaHei UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei UI"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1217,12 +1448,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1606,137 +1837,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1757,41 +1988,47 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1848,17 +2085,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2052,25 +2279,25 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="7"/>
-      <tableStyleElement type="headerRow" dxfId="6"/>
-      <tableStyleElement type="totalRow" dxfId="5"/>
-      <tableStyleElement type="firstColumn" dxfId="4"/>
-      <tableStyleElement type="lastColumn" dxfId="3"/>
-      <tableStyleElement type="firstRowStripe" dxfId="2"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="1"/>
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="17"/>
-      <tableStyleElement type="totalRow" dxfId="16"/>
-      <tableStyleElement type="firstRowStripe" dxfId="15"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="14"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="13"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="11"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="10"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="9"/>
-      <tableStyleElement type="pageFieldValues" dxfId="8"/>
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2331,2117 +2558,2455 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O154"/>
+  <dimension ref="A1:P154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="36.4545454545455" customWidth="1"/>
-    <col min="2" max="2" width="33.1818181818182" customWidth="1"/>
-    <col min="3" max="3" width="31.1818181818182" customWidth="1"/>
-    <col min="4" max="4" width="133.181818181818" customWidth="1"/>
-    <col min="5" max="5" width="75.1818181818182" customWidth="1"/>
-    <col min="6" max="7" width="23.5" customWidth="1"/>
-    <col min="8" max="9" width="30.5363636363636" customWidth="1"/>
-    <col min="10" max="10" width="10"/>
+    <col min="1" max="1" width="18.0909090909091" customWidth="1"/>
+    <col min="2" max="2" width="36.4545454545455" customWidth="1"/>
+    <col min="3" max="3" width="33.1818181818182" customWidth="1"/>
+    <col min="4" max="4" width="62.5454545454545" customWidth="1"/>
+    <col min="5" max="5" width="133.181818181818" customWidth="1"/>
+    <col min="6" max="6" width="75.1818181818182" customWidth="1"/>
+    <col min="7" max="7" width="138.909090909091" customWidth="1"/>
+    <col min="8" max="9" width="23.5" customWidth="1"/>
+    <col min="10" max="11" width="30.5363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="16.5" spans="3:13">
-      <c r="C1" s="12"/>
-      <c r="D1" s="13" t="s">
+    <row r="1" s="9" customFormat="1" ht="16.5" spans="1:14">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="13" t="s">
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="H1" s="13" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="13"/>
-    </row>
-    <row r="2" s="10" customFormat="1" ht="16.5" spans="3:13">
-      <c r="C2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-    </row>
-    <row r="3" s="10" customFormat="1" ht="17.1" customHeight="1" spans="1:14">
-      <c r="A3" s="15" t="s">
+      <c r="L1" s="24"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="24"/>
+    </row>
+    <row r="2" s="10" customFormat="1" ht="16.5" spans="1:14">
+      <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14" t="s">
+      <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="F2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="H2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="15"/>
-    </row>
-    <row r="4" s="10" customFormat="1" ht="16.5" spans="2:15">
-      <c r="B4" s="15" t="s">
+      <c r="I2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>5</v>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+    </row>
+    <row r="3" s="10" customFormat="1" ht="17.1" customHeight="1" spans="1:15">
+      <c r="A3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="12"/>
+    </row>
+    <row r="4" s="10" customFormat="1" ht="16.5" spans="1:16">
+      <c r="A4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>21</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-    </row>
-    <row r="5" s="11" customFormat="1" ht="16.5" spans="1:13">
-      <c r="A5" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="17">
+        <v>22</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="13"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+    </row>
+    <row r="5" s="11" customFormat="1" ht="16.5" spans="2:14">
+      <c r="B5" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="16">
         <v>301011</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="M5" s="18"/>
-    </row>
-    <row r="6" s="11" customFormat="1" ht="16.5" spans="1:13">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="M6" s="18"/>
-    </row>
-    <row r="7" s="11" customFormat="1" ht="16.5" spans="1:13">
-      <c r="A7" s="16"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="M7" s="18"/>
-    </row>
-    <row r="8" s="11" customFormat="1" ht="16.5" spans="1:13">
-      <c r="A8" s="16"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="M8" s="18"/>
-    </row>
-    <row r="9" ht="16.5" spans="1:15">
-      <c r="A9" s="16"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="18" t="s">
+      <c r="D5" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="F5" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-    </row>
-    <row r="10" ht="16.5" spans="1:15">
-      <c r="A10" s="16"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="18" t="s">
+      <c r="G5" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-    </row>
-    <row r="11" ht="16.5" spans="1:15">
-      <c r="A11" s="16" t="s">
+      <c r="H5" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="17"/>
+      <c r="K5" s="25">
+        <v>1</v>
+      </c>
+      <c r="L5" s="17"/>
+      <c r="N5" s="17"/>
+    </row>
+    <row r="6" s="11" customFormat="1" ht="16.5" spans="2:14">
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="17">
+      <c r="F6" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="17"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="17"/>
+      <c r="N6" s="17"/>
+    </row>
+    <row r="7" s="11" customFormat="1" ht="16.5" spans="2:14">
+      <c r="B7" s="15"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="17"/>
+      <c r="K7" s="25">
+        <v>1</v>
+      </c>
+      <c r="L7" s="17"/>
+      <c r="N7" s="17"/>
+    </row>
+    <row r="8" s="11" customFormat="1" ht="16.5" spans="2:14">
+      <c r="B8" s="15"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="17"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="17"/>
+      <c r="N8" s="17"/>
+    </row>
+    <row r="9" ht="16.5" spans="2:16">
+      <c r="B9" s="15"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="17"/>
+      <c r="K9" s="25">
+        <v>1</v>
+      </c>
+      <c r="L9" s="17"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+    </row>
+    <row r="10" ht="16.5" spans="2:16">
+      <c r="B10" s="15"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="17"/>
+      <c r="K10" s="25">
+        <v>1</v>
+      </c>
+      <c r="L10" s="17"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+    </row>
+    <row r="11" ht="16.5" spans="2:16">
+      <c r="B11" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="16">
         <v>3010211</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-    </row>
-    <row r="12" ht="16.5" spans="1:15">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-    </row>
-    <row r="13" ht="16.5" spans="1:15">
-      <c r="A13" s="16"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-    </row>
-    <row r="14" ht="16.5" spans="1:15">
-      <c r="A14" s="16"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18" t="s">
-        <v>22</v>
-      </c>
+      <c r="D11" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="17"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="17"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+    </row>
+    <row r="12" ht="16.5" spans="2:16">
+      <c r="B12" s="15"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="17"/>
+      <c r="K12" s="25">
+        <v>1</v>
+      </c>
+      <c r="L12" s="17"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+    </row>
+    <row r="13" ht="16.5" spans="2:16">
+      <c r="B13" s="15"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" s="17"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="17"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+    </row>
+    <row r="14" ht="16.5" spans="2:16">
+      <c r="B14" s="15"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="18"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="18"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-    </row>
-    <row r="15" ht="16.5" spans="1:15">
-      <c r="A15" s="16"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18" t="s">
-        <v>25</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="17"/>
+      <c r="K14" s="25">
+        <v>1</v>
+      </c>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+    </row>
+    <row r="15" ht="16.5" spans="2:16">
+      <c r="B15" s="15"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="18"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-    </row>
-    <row r="16" ht="16.5" spans="1:15">
-      <c r="A16" s="16"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="18"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-    </row>
-    <row r="17" ht="16.5" spans="1:15">
-      <c r="A17" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="17">
+        <v>35</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" s="17"/>
+      <c r="K15" s="25"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+    </row>
+    <row r="16" ht="16.5" spans="2:16">
+      <c r="B16" s="15"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16" s="17"/>
+      <c r="K16" s="25">
+        <v>1</v>
+      </c>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+    </row>
+    <row r="17" ht="16.5" spans="2:16">
+      <c r="B17" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="16">
         <v>3010311</v>
       </c>
-      <c r="C17" s="18" t="s">
-        <v>22</v>
-      </c>
       <c r="D17" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="18"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-    </row>
-    <row r="18" ht="16.5" spans="1:15">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="18" t="s">
-        <v>22</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17" s="17"/>
+      <c r="K17" s="25">
+        <v>1</v>
+      </c>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+    </row>
+    <row r="18" ht="16.5" spans="2:16">
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
       <c r="D18" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="18"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="18"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-    </row>
-    <row r="19" ht="16.5" spans="1:15">
-      <c r="A19" s="16"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18" t="s">
-        <v>22</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" s="17"/>
+      <c r="K18" s="25">
+        <v>1</v>
+      </c>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+    </row>
+    <row r="19" ht="16.5" spans="2:16">
+      <c r="B19" s="15"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="18"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-    </row>
-    <row r="20" ht="16.5" spans="1:15">
-      <c r="A20" s="16"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18" t="s">
-        <v>22</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J19" s="17"/>
+      <c r="K19" s="25">
+        <v>1</v>
+      </c>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+    </row>
+    <row r="20" ht="16.5" spans="2:16">
+      <c r="B20" s="15"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="18"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="18"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-    </row>
-    <row r="21" ht="16.5" spans="1:15">
-      <c r="A21" s="16"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" s="18"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="18"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-    </row>
-    <row r="22" ht="16.5" spans="1:15">
-      <c r="A22" s="16"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" s="18"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="18"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-    </row>
-    <row r="23" ht="16.5" spans="1:15">
-      <c r="A23" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="17">
+        <v>31</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" s="17"/>
+      <c r="K20" s="25">
+        <v>1</v>
+      </c>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+    </row>
+    <row r="21" ht="16.5" spans="2:16">
+      <c r="B21" s="15"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" s="17"/>
+      <c r="K21" s="25"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+    </row>
+    <row r="22" ht="16.5" spans="2:16">
+      <c r="B22" s="15"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J22" s="17"/>
+      <c r="K22" s="25">
+        <v>1</v>
+      </c>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+    </row>
+    <row r="23" ht="16.5" spans="2:16">
+      <c r="B23" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="16">
         <v>3010411</v>
       </c>
-      <c r="C23" s="18" t="s">
-        <v>22</v>
-      </c>
       <c r="D23" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23" s="18"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="18"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-    </row>
-    <row r="24" ht="16.5" spans="1:15">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" s="18"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="18"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-    </row>
-    <row r="25" ht="16.5" spans="1:15">
-      <c r="A25" s="16"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H25" s="18"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="18"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-    </row>
-    <row r="26" ht="16.5" spans="1:15">
-      <c r="A26" s="16"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18" t="s">
-        <v>25</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J23" s="17"/>
+      <c r="K23" s="25">
+        <v>1</v>
+      </c>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+    </row>
+    <row r="24" ht="16.5" spans="2:16">
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J24" s="17"/>
+      <c r="K24" s="25"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+    </row>
+    <row r="25" ht="16.5" spans="2:16">
+      <c r="B25" s="15"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J25" s="17"/>
+      <c r="K25" s="25">
+        <v>1</v>
+      </c>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+    </row>
+    <row r="26" ht="16.5" spans="2:16">
+      <c r="B26" s="15"/>
+      <c r="C26" s="17"/>
       <c r="D26" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="18"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-    </row>
-    <row r="27" ht="16.5" spans="1:15">
-      <c r="A27" s="16"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18" t="s">
-        <v>67</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J26" s="16"/>
+      <c r="K26" s="25"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+    </row>
+    <row r="27" ht="16.5" spans="2:16">
+      <c r="B27" s="15"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="18"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-    </row>
-    <row r="28" ht="16.5" spans="1:15">
-      <c r="A28" s="16"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
+        <v>96</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J27" s="16"/>
+      <c r="K27" s="25">
+        <v>1</v>
+      </c>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+    </row>
+    <row r="28" ht="16.5" spans="2:16">
+      <c r="B28" s="15"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="17"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="17"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="22"/>
       <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="18"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-    </row>
-    <row r="29" ht="16.5" spans="1:15">
-      <c r="A29" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B29" s="17">
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="25"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+    </row>
+    <row r="29" ht="16.5" spans="2:16">
+      <c r="B29" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="16">
         <v>3010511</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="F29" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="18"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="24"/>
-    </row>
-    <row r="30" ht="16.5" spans="1:15">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18" t="s">
-        <v>67</v>
-      </c>
+      <c r="D29" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J29" s="16"/>
+      <c r="K29" s="25"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+    </row>
+    <row r="30" ht="16.5" spans="2:16">
+      <c r="B30" s="15"/>
+      <c r="C30" s="16"/>
       <c r="D30" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="F30" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="18"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="24"/>
-    </row>
-    <row r="31" ht="16.5" spans="1:15">
-      <c r="A31" s="16"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="F31" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="18"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
-    </row>
-    <row r="32" ht="16.5" spans="1:15">
-      <c r="A32" s="16"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18" t="s">
-        <v>67</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J30" s="16"/>
+      <c r="K30" s="25">
+        <v>1</v>
+      </c>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+    </row>
+    <row r="31" ht="16.5" spans="2:16">
+      <c r="B31" s="15"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J31" s="16"/>
+      <c r="K31" s="25"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+    </row>
+    <row r="32" ht="16.5" spans="2:16">
+      <c r="B32" s="15"/>
+      <c r="C32" s="17"/>
       <c r="D32" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="F32" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="18"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="24"/>
-    </row>
-    <row r="33" ht="16.5" spans="1:15">
-      <c r="A33" s="16"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="F33" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="18"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="24"/>
-    </row>
-    <row r="34" ht="16.5" spans="1:15">
-      <c r="A34" s="16"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
+        <v>96</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J32" s="16"/>
+      <c r="K32" s="25">
+        <v>1</v>
+      </c>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
+    </row>
+    <row r="33" ht="16.5" spans="2:16">
+      <c r="B33" s="15"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="H33" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I33" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J33" s="16"/>
+      <c r="K33" s="25"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
+    </row>
+    <row r="34" ht="16.5" spans="2:16">
+      <c r="B34" s="15"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="17"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="17"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="22"/>
       <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="18"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="24"/>
-    </row>
-    <row r="35" ht="16.5" spans="1:15">
-      <c r="A35" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B35" s="17">
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="25"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="26"/>
+    </row>
+    <row r="35" ht="16.5" spans="2:16">
+      <c r="B35" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" s="16">
         <v>3010611</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="F35" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="18"/>
-      <c r="N35" s="24"/>
-      <c r="O35" s="24"/>
-    </row>
-    <row r="36" ht="16.5" spans="1:15">
-      <c r="A36" s="16"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18" t="s">
-        <v>67</v>
-      </c>
+      <c r="D35" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I35" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J35" s="16"/>
+      <c r="K35" s="25"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="26"/>
+    </row>
+    <row r="36" ht="16.5" spans="2:16">
+      <c r="B36" s="15"/>
+      <c r="C36" s="16"/>
       <c r="D36" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="E36" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="F36" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="18"/>
-      <c r="N36" s="24"/>
-      <c r="O36" s="24"/>
-    </row>
-    <row r="37" ht="16.5" spans="1:15">
-      <c r="A37" s="16"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18" t="s">
-        <v>67</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="H36" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I36" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J36" s="16"/>
+      <c r="K36" s="25">
+        <v>1</v>
+      </c>
+      <c r="O36" s="26"/>
+      <c r="P36" s="26"/>
+    </row>
+    <row r="37" ht="16.5" spans="2:16">
+      <c r="B37" s="15"/>
+      <c r="C37" s="17"/>
       <c r="D37" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="F37" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="18"/>
-      <c r="N37" s="24"/>
-      <c r="O37" s="24"/>
-    </row>
-    <row r="38" ht="16.5" spans="1:15">
-      <c r="A38" s="16"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
+        <v>96</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I37" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J37" s="16"/>
+      <c r="K37" s="25">
+        <v>1</v>
+      </c>
+      <c r="O37" s="26"/>
+      <c r="P37" s="26"/>
+    </row>
+    <row r="38" ht="16.5" spans="2:16">
+      <c r="B38" s="15"/>
+      <c r="C38" s="17"/>
       <c r="D38" s="17"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="17"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="22"/>
       <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="18"/>
-      <c r="N38" s="24"/>
-      <c r="O38" s="24"/>
-    </row>
-    <row r="39" ht="16.5" spans="1:15">
-      <c r="A39" s="16"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="25"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="26"/>
+    </row>
+    <row r="39" ht="16.5" spans="2:16">
+      <c r="B39" s="15"/>
+      <c r="C39" s="17"/>
       <c r="D39" s="17"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="17"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="22"/>
       <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="18"/>
-      <c r="N39" s="24"/>
-      <c r="O39" s="24"/>
-    </row>
-    <row r="40" ht="16.5" spans="1:15">
-      <c r="A40" s="16"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="25"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="26"/>
+    </row>
+    <row r="40" ht="16.5" spans="2:16">
+      <c r="B40" s="15"/>
+      <c r="C40" s="17"/>
       <c r="D40" s="17"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="17"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="22"/>
       <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="18"/>
-      <c r="N40" s="24"/>
-      <c r="O40" s="24"/>
-    </row>
-    <row r="41" ht="16.5" spans="1:15">
-      <c r="A41" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="B41" s="17">
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="25"/>
+      <c r="O40" s="26"/>
+      <c r="P40" s="26"/>
+    </row>
+    <row r="41" ht="16.5" spans="2:16">
+      <c r="B41" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="16">
         <v>3010711</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="E41" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="F41" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="18"/>
-      <c r="N41" s="24"/>
-      <c r="O41" s="24"/>
-    </row>
-    <row r="42" ht="16.5" spans="1:15">
-      <c r="A42" s="16"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="18" t="s">
-        <v>67</v>
-      </c>
+      <c r="D41" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="F41" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="H41" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I41" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J41" s="16"/>
+      <c r="K41" s="25"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="26"/>
+    </row>
+    <row r="42" ht="16.5" spans="2:16">
+      <c r="B42" s="15"/>
+      <c r="C42" s="16"/>
       <c r="D42" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E42" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="F42" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G42" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="18"/>
-      <c r="N42" s="24"/>
-      <c r="O42" s="24"/>
-    </row>
-    <row r="43" ht="16.5" spans="1:15">
-      <c r="A43" s="16"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
+      <c r="E42" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="H42" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I42" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J42" s="16"/>
+      <c r="K42" s="25">
+        <v>1</v>
+      </c>
+      <c r="O42" s="26"/>
+      <c r="P42" s="26"/>
+    </row>
+    <row r="43" ht="16.5" spans="2:16">
+      <c r="B43" s="15"/>
+      <c r="C43" s="17"/>
       <c r="D43" s="17"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="17"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="22"/>
       <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="18"/>
-      <c r="N43" s="24"/>
-      <c r="O43" s="24"/>
-    </row>
-    <row r="44" ht="16.5" spans="1:15">
-      <c r="A44" s="16"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="25"/>
+      <c r="O43" s="26"/>
+      <c r="P43" s="26"/>
+    </row>
+    <row r="44" ht="16.5" spans="2:16">
+      <c r="B44" s="15"/>
+      <c r="C44" s="17"/>
       <c r="D44" s="17"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="17"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="22"/>
       <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="18"/>
-      <c r="N44" s="24"/>
-      <c r="O44" s="24"/>
-    </row>
-    <row r="45" ht="16.5" spans="1:15">
-      <c r="A45" s="16"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="25"/>
+      <c r="O44" s="26"/>
+      <c r="P44" s="26"/>
+    </row>
+    <row r="45" ht="16.5" spans="2:16">
+      <c r="B45" s="15"/>
+      <c r="C45" s="17"/>
       <c r="D45" s="17"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="17"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="22"/>
       <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="18"/>
-      <c r="N45" s="24"/>
-      <c r="O45" s="24"/>
-    </row>
-    <row r="46" ht="16.5" spans="1:15">
-      <c r="A46" s="16"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="25"/>
+      <c r="O45" s="26"/>
+      <c r="P45" s="26"/>
+    </row>
+    <row r="46" ht="16.5" spans="2:16">
+      <c r="B46" s="15"/>
+      <c r="C46" s="17"/>
       <c r="D46" s="17"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="17"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="22"/>
       <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="18"/>
-      <c r="N46" s="24"/>
-      <c r="O46" s="24"/>
-    </row>
-    <row r="47" ht="16.5" spans="1:15">
-      <c r="A47" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B47" s="17">
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="25"/>
+      <c r="O46" s="26"/>
+      <c r="P46" s="26"/>
+    </row>
+    <row r="47" ht="16.5" spans="2:16">
+      <c r="B47" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" s="16">
         <v>3010811</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E47" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="F47" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="N47" s="24"/>
-      <c r="O47" s="24"/>
-    </row>
-    <row r="48" ht="16.5" spans="1:7">
-      <c r="A48" s="16"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D48" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="E48" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="F48" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G48" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" ht="16.5" spans="1:7">
-      <c r="A49" s="16"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D49" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="E49" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="F49" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="50" ht="16.5" spans="1:7">
-      <c r="A50" s="16"/>
-      <c r="B50" s="18"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="17"/>
-    </row>
-    <row r="51" ht="16.5" spans="1:7">
-      <c r="A51" s="16"/>
-      <c r="B51" s="18"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="17"/>
-    </row>
-    <row r="52" ht="16.5" spans="1:7">
-      <c r="A52" s="16"/>
-      <c r="B52" s="18"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="17"/>
-    </row>
-    <row r="53" ht="16.5" spans="1:7">
-      <c r="A53" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B53" s="17">
+      <c r="D47" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="G47" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="H47" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I47" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J47" s="16"/>
+      <c r="K47" s="25"/>
+      <c r="O47" s="26"/>
+      <c r="P47" s="26"/>
+    </row>
+    <row r="48" ht="16.5" spans="2:11">
+      <c r="B48" s="15"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G48" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="H48" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I48" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K48" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" ht="16.5" spans="2:11">
+      <c r="B49" s="15"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="G49" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="H49" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I49" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K49" s="25"/>
+    </row>
+    <row r="50" ht="16.5" spans="2:11">
+      <c r="B50" s="15"/>
+      <c r="C50" s="17"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="16"/>
+      <c r="K50" s="25"/>
+    </row>
+    <row r="51" ht="16.5" spans="2:11">
+      <c r="B51" s="15"/>
+      <c r="C51" s="17"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="16"/>
+      <c r="K51" s="25"/>
+    </row>
+    <row r="52" ht="16.5" spans="2:11">
+      <c r="B52" s="15"/>
+      <c r="C52" s="17"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="16"/>
+      <c r="K52" s="25"/>
+    </row>
+    <row r="53" ht="16.5" spans="2:11">
+      <c r="B53" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C53" s="16">
         <v>3010911</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D53" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="E53" s="17"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="17"/>
-    </row>
-    <row r="54" ht="16.5" spans="1:7">
-      <c r="A54" s="16"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D54" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="E54" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="F54" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G54" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55" ht="16.5" spans="1:7">
-      <c r="A55" s="16"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D55" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="E55" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="F55" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G55" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="56" ht="16.5" spans="1:7">
-      <c r="A56" s="16"/>
-      <c r="B56" s="18"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="F56" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G56" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="57" ht="16.5" spans="1:7">
-      <c r="A57" s="16"/>
-      <c r="B57" s="18"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="17"/>
-    </row>
-    <row r="58" ht="16.5" spans="1:7">
-      <c r="A58" s="16"/>
-      <c r="B58" s="18"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="17"/>
-    </row>
-    <row r="59" ht="16.5" spans="1:7">
-      <c r="A59" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="B59" s="17">
+      <c r="D53" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="F53" s="16"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="16"/>
+      <c r="K53" s="25"/>
+    </row>
+    <row r="54" ht="16.5" spans="2:11">
+      <c r="B54" s="15"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="G54" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="H54" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I54" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K54" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" ht="16.5" spans="2:11">
+      <c r="B55" s="15"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="G55" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="H55" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I55" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K55" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" ht="16.5" spans="2:11">
+      <c r="B56" s="15"/>
+      <c r="C56" s="17"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="G56" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="H56" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I56" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K56" s="25"/>
+    </row>
+    <row r="57" ht="16.5" spans="2:11">
+      <c r="B57" s="15"/>
+      <c r="C57" s="17"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="16"/>
+      <c r="K57" s="25"/>
+    </row>
+    <row r="58" ht="16.5" spans="2:11">
+      <c r="B58" s="15"/>
+      <c r="C58" s="17"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="16"/>
+      <c r="K58" s="25"/>
+    </row>
+    <row r="59" ht="16.5" spans="2:11">
+      <c r="B59" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C59" s="16">
         <v>3020111</v>
       </c>
-      <c r="C59" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D59" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="E59" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="F59" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G59" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="60" ht="16.5" spans="1:7">
-      <c r="A60" s="16"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D60" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="E60" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="F60" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G60" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="61" ht="16.5" spans="1:7">
-      <c r="A61" s="16"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D61" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="E61" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="F61" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G61" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="62" ht="16.5" spans="1:7">
-      <c r="A62" s="16"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D62" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="E62" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="F62" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G62" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="63" ht="16.5" spans="1:7">
-      <c r="A63" s="16"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D63" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="E63" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="F63" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G63" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="64" ht="16.5" spans="1:7">
-      <c r="A64" s="16"/>
-      <c r="B64" s="18"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="17"/>
-    </row>
-    <row r="65" ht="16.5" spans="1:7">
-      <c r="A65" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="B65" s="17">
+      <c r="D59" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="G59" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="H59" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I59" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K59" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" ht="16.5" spans="2:11">
+      <c r="B60" s="15"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="G60" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="H60" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I60" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K60" s="25"/>
+    </row>
+    <row r="61" ht="16.5" spans="2:11">
+      <c r="B61" s="15"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="F61" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="G61" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="H61" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I61" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K61" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" ht="16.5" spans="2:11">
+      <c r="B62" s="15"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="F62" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="G62" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="H62" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I62" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K62" s="25"/>
+    </row>
+    <row r="63" ht="16.5" spans="2:11">
+      <c r="B63" s="15"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="F63" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="G63" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="H63" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I63" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K63" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" ht="16.5" spans="2:11">
+      <c r="B64" s="15"/>
+      <c r="C64" s="17"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="16"/>
+      <c r="K64" s="25"/>
+    </row>
+    <row r="65" ht="16.5" spans="2:11">
+      <c r="B65" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="C65" s="16">
         <v>3020211</v>
       </c>
-      <c r="C65" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D65" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="E65" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="F65" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G65" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="66" ht="16.5" spans="1:7">
-      <c r="A66" s="16"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D66" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="E66" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="F66" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G66" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="67" ht="16.5" spans="1:7">
-      <c r="A67" s="16"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D67" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="E67" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="F67" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G67" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="68" ht="16.5" spans="1:7">
-      <c r="A68" s="16"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D68" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="E68" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="F68" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G68" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="69" ht="16.5" spans="1:7">
-      <c r="A69" s="16"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="23"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="17"/>
-    </row>
-    <row r="70" ht="16.5" spans="1:7">
-      <c r="A70" s="16"/>
-      <c r="B70" s="18"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="23"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="17"/>
-    </row>
-    <row r="71" ht="16.5" spans="1:7">
-      <c r="A71" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B71" s="17">
+      <c r="D65" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="F65" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="G65" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="H65" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I65" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K65" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" ht="16.5" spans="2:11">
+      <c r="B66" s="15"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="G66" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="H66" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I66" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K66" s="25"/>
+    </row>
+    <row r="67" ht="16.5" spans="2:11">
+      <c r="B67" s="15"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="G67" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="H67" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I67" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K67" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" ht="16.5" spans="2:11">
+      <c r="B68" s="15"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="G68" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="H68" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I68" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K68" s="25"/>
+    </row>
+    <row r="69" ht="16.5" spans="2:11">
+      <c r="B69" s="15"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="16"/>
+      <c r="K69" s="25"/>
+    </row>
+    <row r="70" ht="16.5" spans="2:11">
+      <c r="B70" s="15"/>
+      <c r="C70" s="17"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="16"/>
+      <c r="K70" s="25"/>
+    </row>
+    <row r="71" ht="16.5" spans="2:11">
+      <c r="B71" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="C71" s="16">
         <v>3020311</v>
       </c>
-      <c r="C71" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D71" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E71" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="F71" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G71" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="72" ht="16.5" spans="1:7">
-      <c r="A72" s="16"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D72" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="E72" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="F72" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G72" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="73" ht="16.5" spans="1:7">
-      <c r="A73" s="16"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="17"/>
-    </row>
-    <row r="74" ht="16.5" spans="1:7">
-      <c r="A74" s="16"/>
-      <c r="B74" s="18"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="23"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="17"/>
-    </row>
-    <row r="75" ht="16.5" spans="1:7">
-      <c r="A75" s="16"/>
-      <c r="B75" s="18"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="17"/>
-    </row>
-    <row r="76" ht="16.5" spans="1:7">
-      <c r="A76" s="16"/>
-      <c r="B76" s="18"/>
-      <c r="D76" s="22"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="17"/>
-    </row>
-    <row r="77" ht="16.5" spans="1:7">
-      <c r="A77" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="B77" s="17">
+      <c r="D71" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="F71" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="G71" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="H71" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I71" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K71" s="25"/>
+    </row>
+    <row r="72" ht="16.5" spans="2:11">
+      <c r="B72" s="15"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="F72" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="G72" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="H72" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I72" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K72" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" ht="16.5" spans="2:11">
+      <c r="B73" s="15"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="16"/>
+      <c r="K73" s="25"/>
+    </row>
+    <row r="74" ht="16.5" spans="2:11">
+      <c r="B74" s="15"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="16"/>
+      <c r="K74" s="25"/>
+    </row>
+    <row r="75" ht="16.5" spans="2:11">
+      <c r="B75" s="15"/>
+      <c r="C75" s="17"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="16"/>
+      <c r="K75" s="25"/>
+    </row>
+    <row r="76" ht="16.5" spans="2:11">
+      <c r="B76" s="15"/>
+      <c r="C76" s="17"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="16"/>
+      <c r="K76" s="25"/>
+    </row>
+    <row r="77" ht="16.5" spans="2:11">
+      <c r="B77" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="C77" s="16">
         <v>3020411</v>
       </c>
-      <c r="C77" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D77" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="E77" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="F77" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G77" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="78" ht="16.5" spans="1:7">
-      <c r="A78" s="16"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D78" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="E78" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="F78" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G78" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="79" ht="16.5" spans="1:7">
-      <c r="A79" s="16"/>
-      <c r="B79" s="18"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="17"/>
-    </row>
-    <row r="80" ht="16.5" spans="1:7">
-      <c r="A80" s="16"/>
-      <c r="B80" s="18"/>
-      <c r="D80" s="22"/>
-      <c r="E80" s="23"/>
-      <c r="F80" s="18"/>
-      <c r="G80" s="17"/>
-    </row>
-    <row r="81" ht="16.5" spans="1:7">
-      <c r="A81" s="16"/>
-      <c r="B81" s="18"/>
-      <c r="D81" s="22"/>
-      <c r="E81" s="23"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="17"/>
-    </row>
-    <row r="82" ht="16.5" spans="1:7">
-      <c r="A82" s="16"/>
-      <c r="B82" s="18"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="23"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="17"/>
-    </row>
-    <row r="83" ht="16.5" spans="1:7">
-      <c r="A83" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="B83" s="17">
+      <c r="D77" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="F77" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="G77" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="H77" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I77" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K77" s="25"/>
+    </row>
+    <row r="78" ht="16.5" spans="2:11">
+      <c r="B78" s="15"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E78" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="F78" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="G78" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="H78" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I78" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K78" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" ht="16.5" spans="2:11">
+      <c r="B79" s="15"/>
+      <c r="C79" s="17"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="16"/>
+      <c r="K79" s="25"/>
+    </row>
+    <row r="80" ht="16.5" spans="2:11">
+      <c r="B80" s="15"/>
+      <c r="C80" s="17"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="22"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="16"/>
+      <c r="K80" s="25"/>
+    </row>
+    <row r="81" ht="16.5" spans="2:11">
+      <c r="B81" s="15"/>
+      <c r="C81" s="17"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="16"/>
+      <c r="K81" s="25"/>
+    </row>
+    <row r="82" ht="16.5" spans="2:11">
+      <c r="B82" s="15"/>
+      <c r="C82" s="17"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="16"/>
+      <c r="K82" s="25"/>
+    </row>
+    <row r="83" ht="16.5" spans="2:11">
+      <c r="B83" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C83" s="16">
         <v>3020511</v>
       </c>
-      <c r="C83" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D83" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="E83" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="F83" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G83" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="84" ht="16.5" spans="1:7">
-      <c r="A84" s="16"/>
-      <c r="B84" s="17"/>
-      <c r="C84" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D84" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="E84" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="F84" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G84" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="85" ht="16.5" spans="1:7">
-      <c r="A85" s="16"/>
-      <c r="B85" s="18"/>
-      <c r="D85" s="22"/>
-      <c r="E85" s="23"/>
-      <c r="F85" s="18"/>
-      <c r="G85" s="17"/>
-    </row>
-    <row r="86" ht="16.5" spans="1:7">
-      <c r="A86" s="16"/>
-      <c r="B86" s="18"/>
-      <c r="D86" s="22"/>
-      <c r="E86" s="23"/>
-      <c r="F86" s="18"/>
-      <c r="G86" s="17"/>
-    </row>
-    <row r="87" ht="16.5" spans="1:7">
-      <c r="A87" s="16"/>
-      <c r="B87" s="18"/>
-      <c r="D87" s="22"/>
-      <c r="E87" s="23"/>
-      <c r="F87" s="18"/>
-      <c r="G87" s="17"/>
-    </row>
-    <row r="88" ht="16.5" spans="1:7">
-      <c r="A88" s="16"/>
-      <c r="B88" s="18"/>
-      <c r="D88" s="22"/>
-      <c r="E88" s="23"/>
-      <c r="F88" s="18"/>
-      <c r="G88" s="17"/>
-    </row>
-    <row r="89" ht="16.5" spans="1:7">
-      <c r="A89" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="B89" s="17">
+      <c r="D83" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E83" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="F83" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="G83" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="H83" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I83" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K83" s="25"/>
+    </row>
+    <row r="84" ht="16.5" spans="2:11">
+      <c r="B84" s="15"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E84" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="F84" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="G84" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="H84" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I84" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K84" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" ht="16.5" spans="2:11">
+      <c r="B85" s="15"/>
+      <c r="C85" s="17"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="22"/>
+      <c r="H85" s="17"/>
+      <c r="I85" s="16"/>
+      <c r="K85" s="25"/>
+    </row>
+    <row r="86" ht="16.5" spans="2:11">
+      <c r="B86" s="15"/>
+      <c r="C86" s="17"/>
+      <c r="E86" s="16"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="22"/>
+      <c r="H86" s="17"/>
+      <c r="I86" s="16"/>
+      <c r="K86" s="25"/>
+    </row>
+    <row r="87" ht="16.5" spans="2:11">
+      <c r="B87" s="15"/>
+      <c r="C87" s="17"/>
+      <c r="E87" s="16"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="22"/>
+      <c r="H87" s="17"/>
+      <c r="I87" s="16"/>
+      <c r="K87" s="25"/>
+    </row>
+    <row r="88" ht="16.5" spans="2:11">
+      <c r="B88" s="15"/>
+      <c r="C88" s="17"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="16"/>
+      <c r="K88" s="25"/>
+    </row>
+    <row r="89" ht="16.5" spans="2:11">
+      <c r="B89" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="C89" s="16">
         <v>3020611</v>
       </c>
-      <c r="C89" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D89" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="E89" s="23"/>
-      <c r="F89" s="18"/>
-      <c r="G89" s="17"/>
-    </row>
-    <row r="90" ht="16.5" spans="1:7">
-      <c r="A90" s="16"/>
-      <c r="B90" s="17"/>
-      <c r="C90" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D90" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="E90" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="F90" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G90" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="91" ht="16.5" spans="1:7">
-      <c r="A91" s="16"/>
-      <c r="B91" s="18"/>
-      <c r="D91" s="22"/>
-      <c r="E91" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="F91" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G91" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="92" ht="16.5" spans="1:7">
-      <c r="A92" s="16"/>
-      <c r="B92" s="18"/>
-      <c r="D92" s="22"/>
-      <c r="E92" s="17"/>
-      <c r="F92" s="18"/>
-      <c r="G92" s="17"/>
-    </row>
-    <row r="93" ht="16.5" spans="1:7">
-      <c r="A93" s="16"/>
-      <c r="B93" s="18"/>
-      <c r="D93" s="22"/>
-      <c r="E93" s="17"/>
-      <c r="F93" s="18"/>
-      <c r="G93" s="17"/>
-    </row>
-    <row r="94" ht="16.5" spans="1:7">
-      <c r="A94" s="16"/>
-      <c r="B94" s="18"/>
-      <c r="D94" s="22"/>
-      <c r="E94" s="17"/>
-      <c r="F94" s="18"/>
-      <c r="G94" s="17"/>
-    </row>
-    <row r="95" ht="16.5" spans="1:7">
-      <c r="A95" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="B95" s="17">
+      <c r="D89" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E89" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="F89" s="23"/>
+      <c r="G89" s="22"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="16"/>
+      <c r="K89" s="25"/>
+    </row>
+    <row r="90" ht="16.5" spans="2:11">
+      <c r="B90" s="15"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E90" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="F90" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="G90" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="H90" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I90" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K90" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" ht="16.5" spans="2:11">
+      <c r="B91" s="15"/>
+      <c r="C91" s="17"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="G91" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="H91" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I91" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K91" s="25"/>
+    </row>
+    <row r="92" ht="16.5" spans="2:11">
+      <c r="B92" s="15"/>
+      <c r="C92" s="17"/>
+      <c r="E92" s="16"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="17"/>
+      <c r="I92" s="16"/>
+      <c r="K92" s="25"/>
+    </row>
+    <row r="93" ht="16.5" spans="2:11">
+      <c r="B93" s="15"/>
+      <c r="C93" s="17"/>
+      <c r="E93" s="16"/>
+      <c r="F93" s="16"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="17"/>
+      <c r="I93" s="16"/>
+      <c r="K93" s="25"/>
+    </row>
+    <row r="94" ht="16.5" spans="2:11">
+      <c r="B94" s="15"/>
+      <c r="C94" s="17"/>
+      <c r="E94" s="16"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="22"/>
+      <c r="H94" s="17"/>
+      <c r="I94" s="16"/>
+      <c r="K94" s="25"/>
+    </row>
+    <row r="95" ht="16.5" spans="2:11">
+      <c r="B95" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="C95" s="16">
         <v>3030111</v>
       </c>
-      <c r="C95" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D95" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="E95" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="F95" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G95" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="96" ht="16.5" spans="1:7">
-      <c r="A96" s="16"/>
-      <c r="B96" s="17"/>
-      <c r="C96" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D96" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="E96" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="F96" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G96" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="97" ht="16.5" spans="1:7">
-      <c r="A97" s="16"/>
-      <c r="B97" s="18"/>
-      <c r="C97" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D97" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="E97" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="F97" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G97" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="98" ht="16.5" spans="1:7">
-      <c r="A98" s="16"/>
-      <c r="B98" s="18"/>
-      <c r="C98" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D98" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="E98" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="F98" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G98" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="99" ht="16.5" spans="1:7">
-      <c r="A99" s="16"/>
-      <c r="B99" s="18"/>
-      <c r="D99" s="22"/>
-      <c r="E99" s="17"/>
-      <c r="F99" s="18"/>
-      <c r="G99" s="17"/>
-    </row>
-    <row r="100" ht="16.5" spans="1:7">
-      <c r="A100" s="16"/>
-      <c r="B100" s="18"/>
-      <c r="D100" s="22"/>
-      <c r="E100" s="17"/>
-      <c r="F100" s="18"/>
-      <c r="G100" s="17"/>
-    </row>
-    <row r="101" ht="16.5" spans="1:7">
-      <c r="A101" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="B101" s="17">
+      <c r="D95" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E95" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="F95" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="G95" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="H95" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I95" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K95" s="25"/>
+    </row>
+    <row r="96" ht="16.5" spans="2:11">
+      <c r="B96" s="15"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E96" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="F96" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="G96" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="H96" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I96" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K96" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" ht="16.5" spans="2:11">
+      <c r="B97" s="15"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E97" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="F97" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="G97" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="H97" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I97" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K97" s="25"/>
+    </row>
+    <row r="98" ht="16.5" spans="2:11">
+      <c r="B98" s="15"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E98" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="F98" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="G98" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="H98" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I98" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K98" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" ht="16.5" spans="2:11">
+      <c r="B99" s="15"/>
+      <c r="C99" s="17"/>
+      <c r="E99" s="16"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="22"/>
+      <c r="H99" s="17"/>
+      <c r="I99" s="16"/>
+      <c r="K99" s="25"/>
+    </row>
+    <row r="100" ht="16.5" spans="2:11">
+      <c r="B100" s="15"/>
+      <c r="C100" s="17"/>
+      <c r="E100" s="16"/>
+      <c r="F100" s="16"/>
+      <c r="G100" s="22"/>
+      <c r="H100" s="17"/>
+      <c r="I100" s="16"/>
+      <c r="K100" s="25"/>
+    </row>
+    <row r="101" ht="16.5" spans="2:11">
+      <c r="B101" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C101" s="16">
         <v>3030211</v>
       </c>
-      <c r="C101" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D101" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E101" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="F101" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G101" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="102" ht="16.5" spans="1:7">
-      <c r="A102" s="16"/>
-      <c r="B102" s="17"/>
-      <c r="C102" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D102" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="E102" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="F102" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G102" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="103" ht="16.5" spans="1:7">
-      <c r="A103" s="16"/>
-      <c r="B103" s="18"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="22"/>
-      <c r="E103" s="17"/>
-      <c r="F103" s="18"/>
-      <c r="G103" s="17"/>
-    </row>
-    <row r="104" ht="16.5" spans="1:7">
-      <c r="A104" s="16"/>
-      <c r="B104" s="18"/>
-      <c r="C104" s="18"/>
-      <c r="D104" s="22"/>
-      <c r="E104" s="17"/>
-      <c r="F104" s="18"/>
-      <c r="G104" s="17"/>
-    </row>
-    <row r="105" ht="16.5" spans="1:7">
-      <c r="A105" s="16"/>
-      <c r="B105" s="18"/>
-      <c r="D105" s="22"/>
-      <c r="E105" s="17"/>
-      <c r="F105" s="18"/>
-      <c r="G105" s="17"/>
-    </row>
-    <row r="106" ht="16.5" spans="1:7">
-      <c r="A106" s="16"/>
-      <c r="B106" s="18"/>
-      <c r="D106" s="22"/>
-      <c r="E106" s="17"/>
-      <c r="F106" s="18"/>
-      <c r="G106" s="17"/>
-    </row>
-    <row r="107" ht="16.5" spans="1:7">
-      <c r="A107" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="B107" s="17">
+      <c r="D101" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E101" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="F101" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="G101" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="H101" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I101" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K101" s="25"/>
+    </row>
+    <row r="102" ht="16.5" spans="2:11">
+      <c r="B102" s="15"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E102" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="F102" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="G102" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="H102" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I102" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K102" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" ht="16.5" spans="2:9">
+      <c r="B103" s="15"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="16"/>
+      <c r="F103" s="16"/>
+      <c r="G103" s="22"/>
+      <c r="H103" s="17"/>
+      <c r="I103" s="16"/>
+    </row>
+    <row r="104" ht="16.5" spans="2:9">
+      <c r="B104" s="15"/>
+      <c r="C104" s="17"/>
+      <c r="D104" s="17"/>
+      <c r="E104" s="16"/>
+      <c r="F104" s="16"/>
+      <c r="G104" s="21"/>
+      <c r="H104" s="17"/>
+      <c r="I104" s="16"/>
+    </row>
+    <row r="105" ht="16.5" spans="2:9">
+      <c r="B105" s="15"/>
+      <c r="C105" s="17"/>
+      <c r="E105" s="16"/>
+      <c r="F105" s="16"/>
+      <c r="G105" s="21"/>
+      <c r="H105" s="17"/>
+      <c r="I105" s="16"/>
+    </row>
+    <row r="106" ht="16.5" spans="2:9">
+      <c r="B106" s="15"/>
+      <c r="C106" s="17"/>
+      <c r="E106" s="16"/>
+      <c r="F106" s="16"/>
+      <c r="G106" s="21"/>
+      <c r="H106" s="17"/>
+      <c r="I106" s="16"/>
+    </row>
+    <row r="107" ht="16.5" spans="2:9">
+      <c r="B107" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="C107" s="16">
         <v>3040111</v>
       </c>
-      <c r="D107" s="22"/>
-      <c r="E107" s="17"/>
-      <c r="F107" s="18"/>
-      <c r="G107" s="17"/>
-    </row>
-    <row r="108" ht="16.5" spans="1:7">
-      <c r="A108" s="16"/>
-      <c r="B108" s="17"/>
-      <c r="D108" s="22"/>
-      <c r="E108" s="17"/>
-      <c r="F108" s="18"/>
-      <c r="G108" s="17"/>
-    </row>
-    <row r="109" ht="16.5" spans="1:7">
-      <c r="A109" s="16"/>
-      <c r="B109" s="18"/>
-      <c r="E109" s="17"/>
-      <c r="F109" s="18"/>
-      <c r="G109" s="17"/>
-    </row>
-    <row r="110" ht="16.5" spans="1:7">
-      <c r="A110" s="16"/>
-      <c r="B110" s="18"/>
-      <c r="E110" s="17"/>
-      <c r="F110" s="18"/>
-      <c r="G110" s="17"/>
-    </row>
-    <row r="111" ht="16.5" spans="1:7">
-      <c r="A111" s="16"/>
-      <c r="B111" s="18"/>
-      <c r="E111" s="17"/>
-      <c r="F111" s="18"/>
-      <c r="G111" s="17"/>
-    </row>
-    <row r="112" ht="16.5" spans="1:7">
-      <c r="A112" s="16"/>
-      <c r="B112" s="18"/>
-      <c r="E112" s="17"/>
-      <c r="F112" s="18"/>
-      <c r="G112" s="17"/>
-    </row>
-    <row r="113" ht="16.5" spans="5:7">
-      <c r="E113" s="17"/>
-      <c r="F113" s="18"/>
-      <c r="G113" s="17"/>
-    </row>
-    <row r="114" ht="16.5" spans="5:7">
-      <c r="E114" s="17"/>
-      <c r="F114" s="18"/>
-      <c r="G114" s="17"/>
-    </row>
-    <row r="115" ht="16.5" spans="5:5">
-      <c r="E115" s="17"/>
-    </row>
-    <row r="116" spans="5:5">
-      <c r="E116" s="24"/>
-    </row>
-    <row r="117" spans="5:5">
-      <c r="E117" s="24"/>
-    </row>
-    <row r="118" spans="5:5">
-      <c r="E118" s="24"/>
-    </row>
-    <row r="119" spans="5:5">
-      <c r="E119" s="24"/>
-    </row>
-    <row r="120" spans="5:5">
-      <c r="E120" s="24"/>
-    </row>
-    <row r="121" spans="5:5">
-      <c r="E121" s="24"/>
-    </row>
-    <row r="122" spans="5:5">
-      <c r="E122" s="24"/>
-    </row>
-    <row r="123" spans="5:5">
-      <c r="E123" s="24"/>
-    </row>
-    <row r="124" spans="5:5">
-      <c r="E124" s="24"/>
-    </row>
-    <row r="125" spans="5:5">
-      <c r="E125" s="24"/>
-    </row>
-    <row r="126" spans="5:5">
-      <c r="E126" s="24"/>
-    </row>
-    <row r="127" spans="5:5">
-      <c r="E127" s="24"/>
-    </row>
-    <row r="128" spans="5:5">
-      <c r="E128" s="24"/>
-    </row>
-    <row r="129" spans="5:5">
-      <c r="E129" s="24"/>
-    </row>
-    <row r="130" spans="5:5">
-      <c r="E130" s="24"/>
-    </row>
-    <row r="131" spans="5:5">
-      <c r="E131" s="24"/>
-    </row>
-    <row r="132" spans="5:5">
-      <c r="E132" s="24"/>
-    </row>
-    <row r="133" spans="5:5">
-      <c r="E133" s="24"/>
-    </row>
-    <row r="134" spans="5:5">
-      <c r="E134" s="24"/>
-    </row>
-    <row r="135" spans="5:5">
-      <c r="E135" s="24"/>
-    </row>
-    <row r="136" spans="5:5">
-      <c r="E136" s="24"/>
-    </row>
-    <row r="137" spans="5:5">
-      <c r="E137" s="24"/>
-    </row>
-    <row r="138" spans="5:5">
-      <c r="E138" s="24"/>
-    </row>
-    <row r="139" spans="5:5">
-      <c r="E139" s="24"/>
-    </row>
-    <row r="140" spans="5:5">
-      <c r="E140" s="24"/>
-    </row>
-    <row r="141" spans="5:5">
-      <c r="E141" s="24"/>
-    </row>
-    <row r="142" spans="5:5">
-      <c r="E142" s="24"/>
-    </row>
-    <row r="143" spans="5:5">
-      <c r="E143" s="24"/>
-    </row>
-    <row r="144" spans="5:5">
-      <c r="E144" s="24"/>
-    </row>
-    <row r="145" spans="5:5">
-      <c r="E145" s="24"/>
-    </row>
-    <row r="146" spans="5:5">
-      <c r="E146" s="24"/>
-    </row>
-    <row r="147" spans="5:5">
-      <c r="E147" s="24"/>
-    </row>
-    <row r="148" spans="5:5">
-      <c r="E148" s="24"/>
-    </row>
-    <row r="149" spans="5:5">
-      <c r="E149" s="24"/>
-    </row>
-    <row r="150" spans="5:5">
-      <c r="E150" s="24"/>
-    </row>
-    <row r="151" spans="5:5">
-      <c r="E151" s="24"/>
-    </row>
-    <row r="152" spans="5:5">
-      <c r="E152" s="24"/>
-    </row>
-    <row r="153" spans="5:5">
-      <c r="E153" s="24"/>
-    </row>
-    <row r="154" spans="5:5">
-      <c r="E154" s="24"/>
+      <c r="E107" s="16"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="21"/>
+      <c r="H107" s="17"/>
+      <c r="I107" s="16"/>
+    </row>
+    <row r="108" ht="16.5" spans="2:9">
+      <c r="B108" s="15"/>
+      <c r="C108" s="16"/>
+      <c r="E108" s="16"/>
+      <c r="F108" s="16"/>
+      <c r="G108" s="21"/>
+      <c r="H108" s="17"/>
+      <c r="I108" s="16"/>
+    </row>
+    <row r="109" ht="16.5" spans="2:9">
+      <c r="B109" s="15"/>
+      <c r="C109" s="17"/>
+      <c r="F109" s="16"/>
+      <c r="G109" s="21"/>
+      <c r="H109" s="17"/>
+      <c r="I109" s="16"/>
+    </row>
+    <row r="110" ht="16.5" spans="2:9">
+      <c r="B110" s="15"/>
+      <c r="C110" s="17"/>
+      <c r="F110" s="16"/>
+      <c r="G110" s="21"/>
+      <c r="H110" s="17"/>
+      <c r="I110" s="16"/>
+    </row>
+    <row r="111" ht="16.5" spans="2:9">
+      <c r="B111" s="15"/>
+      <c r="C111" s="17"/>
+      <c r="F111" s="16"/>
+      <c r="G111" s="21"/>
+      <c r="H111" s="17"/>
+      <c r="I111" s="16"/>
+    </row>
+    <row r="112" ht="16.5" spans="2:9">
+      <c r="B112" s="15"/>
+      <c r="C112" s="17"/>
+      <c r="F112" s="16"/>
+      <c r="G112" s="21"/>
+      <c r="H112" s="17"/>
+      <c r="I112" s="16"/>
+    </row>
+    <row r="113" ht="16.5" spans="6:9">
+      <c r="F113" s="16"/>
+      <c r="G113" s="21"/>
+      <c r="H113" s="17"/>
+      <c r="I113" s="16"/>
+    </row>
+    <row r="114" ht="16.5" spans="6:9">
+      <c r="F114" s="16"/>
+      <c r="G114" s="21"/>
+      <c r="H114" s="17"/>
+      <c r="I114" s="16"/>
+    </row>
+    <row r="115" ht="16.5" spans="6:6">
+      <c r="F115" s="16"/>
+    </row>
+    <row r="116" spans="6:6">
+      <c r="F116" s="26"/>
+    </row>
+    <row r="117" spans="6:6">
+      <c r="F117" s="26"/>
+    </row>
+    <row r="118" spans="6:6">
+      <c r="F118" s="26"/>
+    </row>
+    <row r="119" spans="6:6">
+      <c r="F119" s="26"/>
+    </row>
+    <row r="120" spans="6:6">
+      <c r="F120" s="26"/>
+    </row>
+    <row r="121" spans="6:6">
+      <c r="F121" s="26"/>
+    </row>
+    <row r="122" spans="6:6">
+      <c r="F122" s="26"/>
+    </row>
+    <row r="123" spans="6:6">
+      <c r="F123" s="26"/>
+    </row>
+    <row r="124" spans="6:6">
+      <c r="F124" s="26"/>
+    </row>
+    <row r="125" spans="6:6">
+      <c r="F125" s="26"/>
+    </row>
+    <row r="126" spans="6:6">
+      <c r="F126" s="26"/>
+    </row>
+    <row r="127" spans="6:6">
+      <c r="F127" s="26"/>
+    </row>
+    <row r="128" spans="6:6">
+      <c r="F128" s="26"/>
+    </row>
+    <row r="129" spans="6:6">
+      <c r="F129" s="26"/>
+    </row>
+    <row r="130" spans="6:6">
+      <c r="F130" s="26"/>
+    </row>
+    <row r="131" spans="6:6">
+      <c r="F131" s="26"/>
+    </row>
+    <row r="132" spans="6:6">
+      <c r="F132" s="26"/>
+    </row>
+    <row r="133" spans="6:6">
+      <c r="F133" s="26"/>
+    </row>
+    <row r="134" spans="6:6">
+      <c r="F134" s="26"/>
+    </row>
+    <row r="135" spans="6:6">
+      <c r="F135" s="26"/>
+    </row>
+    <row r="136" spans="6:6">
+      <c r="F136" s="26"/>
+    </row>
+    <row r="137" spans="6:6">
+      <c r="F137" s="26"/>
+    </row>
+    <row r="138" spans="6:6">
+      <c r="F138" s="26"/>
+    </row>
+    <row r="139" spans="6:6">
+      <c r="F139" s="26"/>
+    </row>
+    <row r="140" spans="6:6">
+      <c r="F140" s="26"/>
+    </row>
+    <row r="141" spans="6:6">
+      <c r="F141" s="26"/>
+    </row>
+    <row r="142" spans="6:6">
+      <c r="F142" s="26"/>
+    </row>
+    <row r="143" spans="6:6">
+      <c r="F143" s="26"/>
+    </row>
+    <row r="144" spans="6:6">
+      <c r="F144" s="26"/>
+    </row>
+    <row r="145" spans="6:6">
+      <c r="F145" s="26"/>
+    </row>
+    <row r="146" spans="6:6">
+      <c r="F146" s="26"/>
+    </row>
+    <row r="147" spans="6:6">
+      <c r="F147" s="26"/>
+    </row>
+    <row r="148" spans="6:6">
+      <c r="F148" s="26"/>
+    </row>
+    <row r="149" spans="6:6">
+      <c r="F149" s="26"/>
+    </row>
+    <row r="150" spans="6:6">
+      <c r="F150" s="26"/>
+    </row>
+    <row r="151" spans="6:6">
+      <c r="F151" s="26"/>
+    </row>
+    <row r="152" spans="6:6">
+      <c r="F152" s="26"/>
+    </row>
+    <row r="153" spans="6:6">
+      <c r="F153" s="26"/>
+    </row>
+    <row r="154" spans="6:6">
+      <c r="F154" s="26"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J7 J10">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
@@ -4461,206 +5026,206 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:22">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>237</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>167</v>
+        <v>238</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>168</v>
+        <v>239</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>169</v>
+        <v>240</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>170</v>
+        <v>241</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>171</v>
+        <v>242</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>172</v>
+        <v>243</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>173</v>
+        <v>244</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>174</v>
+        <v>245</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>175</v>
+        <v>246</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>176</v>
+        <v>247</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>177</v>
+        <v>248</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>178</v>
+        <v>249</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>179</v>
+        <v>250</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>180</v>
+        <v>251</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>181</v>
+        <v>252</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>182</v>
+        <v>253</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>183</v>
+        <v>254</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>184</v>
+        <v>255</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>185</v>
+        <v>256</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>186</v>
+        <v>257</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>187</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:22">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>188</v>
+        <v>259</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>188</v>
+        <v>259</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>187</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:22">
       <c r="A3" s="1" t="s">
-        <v>166</v>
+        <v>237</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>189</v>
+        <v>260</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>190</v>
+        <v>261</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>191</v>
+        <v>262</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>192</v>
+        <v>263</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>193</v>
+        <v>264</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>195</v>
+        <v>266</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>196</v>
+        <v>267</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>197</v>
+        <v>268</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>198</v>
+        <v>269</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>199</v>
+        <v>270</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>200</v>
+        <v>271</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>201</v>
+        <v>272</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>202</v>
+        <v>273</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>203</v>
+        <v>274</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>204</v>
+        <v>275</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>205</v>
+        <v>276</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>206</v>
+        <v>277</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>207</v>
+        <v>278</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>208</v>
+        <v>279</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>187</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="16.5" spans="1:22">
@@ -4728,7 +5293,7 @@
         <v>1</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>187</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16.5" spans="1:22">
@@ -4773,7 +5338,7 @@
         <v>1</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>209</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="16.5" spans="1:22">
@@ -4820,7 +5385,7 @@
         <v>1</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>209</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="16.5" spans="1:22">
@@ -4867,7 +5432,7 @@
         <v>1</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>210</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="16.5" spans="1:22">
@@ -4914,7 +5479,7 @@
         <v>1</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>211</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="16.5" spans="1:22">
@@ -4961,7 +5526,7 @@
         <v>1</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>212</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="16.5" spans="1:22">
@@ -5008,7 +5573,7 @@
         <v>1</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>213</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/配置表/Dialogue.xlsx
+++ b/配置表/Dialogue.xlsx
@@ -33,7 +33,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="L3" authorId="0">
+    <comment ref="M3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -392,7 +392,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="286">
   <si>
     <t>##var</t>
   </si>
@@ -458,6 +458,9 @@
   </si>
   <si>
     <t>主键id</t>
+  </si>
+  <si>
+    <t>string id</t>
   </si>
   <si>
     <t>说话人名字</t>
@@ -1967,7 +1970,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1991,18 +1994,27 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2015,9 +2027,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2031,6 +2040,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2558,10 +2570,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P154"/>
+  <dimension ref="A1:Q154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>
@@ -2569,15 +2581,15 @@
     <col min="1" max="1" width="18.0909090909091" customWidth="1"/>
     <col min="2" max="2" width="36.4545454545455" customWidth="1"/>
     <col min="3" max="3" width="33.1818181818182" customWidth="1"/>
-    <col min="4" max="4" width="62.5454545454545" customWidth="1"/>
-    <col min="5" max="5" width="133.181818181818" customWidth="1"/>
-    <col min="6" max="6" width="75.1818181818182" customWidth="1"/>
-    <col min="7" max="7" width="138.909090909091" customWidth="1"/>
-    <col min="8" max="9" width="23.5" customWidth="1"/>
-    <col min="10" max="11" width="30.5363636363636" customWidth="1"/>
+    <col min="4" max="5" width="62.5454545454545" customWidth="1"/>
+    <col min="6" max="6" width="133.181818181818" customWidth="1"/>
+    <col min="7" max="7" width="75.1818181818182" customWidth="1"/>
+    <col min="8" max="8" width="138.909090909091" customWidth="1"/>
+    <col min="9" max="10" width="23.5" customWidth="1"/>
+    <col min="11" max="12" width="30.5363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="16.5" spans="1:14">
+    <row r="1" s="9" customFormat="1" ht="16.5" spans="1:15">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2587,11 +2599,9 @@
       <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>4</v>
@@ -2599,23 +2609,26 @@
       <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="24"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="24"/>
-    </row>
-    <row r="2" s="10" customFormat="1" ht="16.5" spans="1:14">
+      <c r="M1" s="26"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="26"/>
+    </row>
+    <row r="2" s="10" customFormat="1" ht="16.5" spans="1:15">
       <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
@@ -2625,54 +2638,56 @@
       <c r="C2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="I2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="J2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="L2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-    </row>
-    <row r="3" s="10" customFormat="1" ht="17.1" customHeight="1" spans="1:15">
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+    </row>
+    <row r="3" s="10" customFormat="1" ht="17.1" customHeight="1" spans="1:16">
       <c r="A3" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="14"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="12"/>
-    </row>
-    <row r="4" s="10" customFormat="1" ht="16.5" spans="1:16">
+      <c r="D3" s="15"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="12"/>
+    </row>
+    <row r="4" s="10" customFormat="1" ht="16.5" spans="1:17">
       <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
@@ -2682,2329 +2697,2532 @@
       <c r="C4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="12"/>
+      <c r="L4" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="16"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="16"/>
       <c r="P4" s="12"/>
-    </row>
-    <row r="5" s="11" customFormat="1" ht="16.5" spans="2:14">
-      <c r="B5" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="16">
-        <v>301011</v>
-      </c>
-      <c r="D5" s="17" t="s">
+      <c r="Q4" s="12"/>
+    </row>
+    <row r="5" s="11" customFormat="1" ht="16.5" spans="2:15">
+      <c r="B5" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="17" t="s">
+      <c r="C5" s="18">
+        <v>201011</v>
+      </c>
+      <c r="D5" s="19">
+        <v>2000000</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="16" t="s">
+      <c r="H5" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="25">
-        <v>1</v>
-      </c>
-      <c r="L5" s="17"/>
-      <c r="N5" s="17"/>
-    </row>
-    <row r="6" s="11" customFormat="1" ht="16.5" spans="2:14">
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="17" t="s">
+      <c r="I5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="20"/>
+      <c r="L5" s="27">
+        <v>1</v>
+      </c>
+      <c r="M5" s="20"/>
+      <c r="O5" s="20"/>
+    </row>
+    <row r="6" s="11" customFormat="1" ht="16.5" spans="2:15">
+      <c r="B6" s="17"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="19">
+        <v>2000001</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="17"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="17"/>
-      <c r="N6" s="17"/>
-    </row>
-    <row r="7" s="11" customFormat="1" ht="16.5" spans="2:14">
-      <c r="B7" s="15"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="19" t="s">
+      <c r="H6" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="I6" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="20"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="20"/>
+      <c r="O6" s="20"/>
+    </row>
+    <row r="7" s="11" customFormat="1" ht="16.5" spans="2:15">
+      <c r="B7" s="17"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="19">
+        <v>2000002</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="22" t="s">
         <v>40</v>
       </c>
       <c r="G7" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" s="17"/>
-      <c r="K7" s="25">
-        <v>1</v>
-      </c>
-      <c r="L7" s="17"/>
-      <c r="N7" s="17"/>
-    </row>
-    <row r="8" s="11" customFormat="1" ht="16.5" spans="2:14">
-      <c r="B8" s="15"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="17" t="s">
+      <c r="H7" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="I7" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="20"/>
+      <c r="L7" s="27">
+        <v>1</v>
+      </c>
+      <c r="M7" s="20"/>
+      <c r="O7" s="20"/>
+    </row>
+    <row r="8" s="11" customFormat="1" ht="16.5" spans="2:15">
+      <c r="B8" s="17"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="19">
+        <v>2000003</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="20" t="s">
         <v>43</v>
       </c>
       <c r="G8" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="17"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="17"/>
-      <c r="N8" s="17"/>
-    </row>
-    <row r="9" ht="16.5" spans="2:16">
-      <c r="B9" s="15"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="17" t="s">
+      <c r="H8" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="I8" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="20"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="20"/>
+      <c r="O8" s="20"/>
+    </row>
+    <row r="9" ht="16.5" spans="2:17">
+      <c r="B9" s="17"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="19">
+        <v>2000004</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9" s="17"/>
-      <c r="K9" s="25">
-        <v>1</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-    </row>
-    <row r="10" ht="16.5" spans="2:16">
-      <c r="B10" s="15"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="17" t="s">
+      <c r="H9" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="I9" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="20"/>
+      <c r="L9" s="27">
+        <v>1</v>
+      </c>
+      <c r="M9" s="20"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+    </row>
+    <row r="10" ht="16.5" spans="2:17">
+      <c r="B10" s="17"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="19">
+        <v>2000005</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" s="17"/>
-      <c r="K10" s="25">
-        <v>1</v>
-      </c>
-      <c r="L10" s="17"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-    </row>
-    <row r="11" ht="16.5" spans="2:16">
-      <c r="B11" s="15" t="s">
+      <c r="H10" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="16">
-        <v>3010211</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="17" t="s">
+      <c r="I10" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="20"/>
+      <c r="L10" s="27">
+        <v>1</v>
+      </c>
+      <c r="M10" s="20"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+    </row>
+    <row r="11" ht="16.5" spans="2:17">
+      <c r="B11" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="C11" s="18">
+        <v>2010211</v>
+      </c>
+      <c r="D11" s="19">
+        <v>2000006</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H11" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="J11" s="17"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="17"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-    </row>
-    <row r="12" ht="16.5" spans="2:16">
-      <c r="B12" s="15"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="17" t="s">
+      <c r="H11" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="I11" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="20"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="20"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+    </row>
+    <row r="12" ht="16.5" spans="2:17">
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19">
+        <v>2000007</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H12" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="J12" s="17"/>
-      <c r="K12" s="25">
-        <v>1</v>
-      </c>
-      <c r="L12" s="17"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-    </row>
-    <row r="13" ht="16.5" spans="2:16">
-      <c r="B13" s="15"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="17" t="s">
+      <c r="H12" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="I12" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="20"/>
+      <c r="L12" s="27">
+        <v>1</v>
+      </c>
+      <c r="M12" s="20"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+    </row>
+    <row r="13" ht="16.5" spans="2:17">
+      <c r="B13" s="17"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="19">
+        <v>2000008</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H13" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="J13" s="17"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="17"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-    </row>
-    <row r="14" ht="16.5" spans="2:16">
-      <c r="B14" s="15"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="16" t="s">
+      <c r="H13" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="I13" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13" s="20"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="20"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+    </row>
+    <row r="14" ht="16.5" spans="2:17">
+      <c r="B14" s="17"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="19">
+        <v>2000009</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" s="17"/>
-      <c r="K14" s="25">
-        <v>1</v>
-      </c>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-    </row>
-    <row r="15" ht="16.5" spans="2:16">
-      <c r="B15" s="15"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="16" t="s">
+      <c r="H14" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="I14" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="20"/>
+      <c r="L14" s="27">
+        <v>1</v>
+      </c>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+    </row>
+    <row r="15" ht="16.5" spans="2:17">
+      <c r="B15" s="17"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="19">
+        <v>2000010</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="H15" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="J15" s="17"/>
-      <c r="K15" s="25"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-    </row>
-    <row r="16" ht="16.5" spans="2:16">
-      <c r="B16" s="15"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="16" t="s">
+      <c r="H15" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="I15" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" s="20"/>
+      <c r="L15" s="27"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+    </row>
+    <row r="16" ht="16.5" spans="2:17">
+      <c r="B16" s="17"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="19">
+        <v>2000011</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="H16" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="J16" s="17"/>
-      <c r="K16" s="25">
-        <v>1</v>
-      </c>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-    </row>
-    <row r="17" ht="16.5" spans="2:16">
-      <c r="B17" s="15" t="s">
+      <c r="H16" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="16">
-        <v>3010311</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="16" t="s">
+      <c r="I16" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="20"/>
+      <c r="L16" s="27">
+        <v>1</v>
+      </c>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+    </row>
+    <row r="17" ht="16.5" spans="2:17">
+      <c r="B17" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="C17" s="18">
+        <v>2010311</v>
+      </c>
+      <c r="D17" s="19">
+        <v>2000012</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="H17" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I17" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="J17" s="17"/>
-      <c r="K17" s="25">
-        <v>1</v>
-      </c>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-    </row>
-    <row r="18" ht="16.5" spans="2:16">
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="16" t="s">
+      <c r="H17" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="I17" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" s="20"/>
+      <c r="L17" s="27">
+        <v>1</v>
+      </c>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+    </row>
+    <row r="18" ht="16.5" spans="2:17">
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19">
+        <v>2000013</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="H18" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="J18" s="17"/>
-      <c r="K18" s="25">
-        <v>1</v>
-      </c>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-    </row>
-    <row r="19" ht="16.5" spans="2:16">
-      <c r="B19" s="15"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="16" t="s">
+      <c r="H18" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="I18" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" s="20"/>
+      <c r="L18" s="27">
+        <v>1</v>
+      </c>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+    </row>
+    <row r="19" ht="16.5" spans="2:17">
+      <c r="B19" s="17"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="19">
+        <v>2000014</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="H19" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="J19" s="17"/>
-      <c r="K19" s="25">
-        <v>1</v>
-      </c>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-    </row>
-    <row r="20" ht="16.5" spans="2:16">
-      <c r="B20" s="15"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="16" t="s">
+      <c r="H19" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="I19" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19" s="20"/>
+      <c r="L19" s="27">
+        <v>1</v>
+      </c>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+    </row>
+    <row r="20" ht="16.5" spans="2:17">
+      <c r="B20" s="17"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="19">
+        <v>2000015</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="H20" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="J20" s="17"/>
-      <c r="K20" s="25">
-        <v>1</v>
-      </c>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-    </row>
-    <row r="21" ht="16.5" spans="2:16">
-      <c r="B21" s="15"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="16" t="s">
+      <c r="H20" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="I20" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20" s="20"/>
+      <c r="L20" s="27">
+        <v>1</v>
+      </c>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+    </row>
+    <row r="21" ht="16.5" spans="2:17">
+      <c r="B21" s="17"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="19">
+        <v>2000016</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="G21" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="H21" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I21" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="J21" s="17"/>
-      <c r="K21" s="25"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-    </row>
-    <row r="22" ht="16.5" spans="2:16">
-      <c r="B22" s="15"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="16" t="s">
+      <c r="H21" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="I21" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K21" s="20"/>
+      <c r="L21" s="27"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+    </row>
+    <row r="22" ht="16.5" spans="2:17">
+      <c r="B22" s="17"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="19">
+        <v>2000017</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="G22" s="18" t="s">
+      <c r="G22" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="H22" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I22" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="J22" s="17"/>
-      <c r="K22" s="25">
-        <v>1</v>
-      </c>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-    </row>
-    <row r="23" ht="16.5" spans="2:16">
-      <c r="B23" s="15" t="s">
+      <c r="H22" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="16">
-        <v>3010411</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="16" t="s">
+      <c r="I22" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K22" s="20"/>
+      <c r="L22" s="27">
+        <v>1</v>
+      </c>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+    </row>
+    <row r="23" ht="16.5" spans="2:17">
+      <c r="B23" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="C23" s="18">
+        <v>2010411</v>
+      </c>
+      <c r="D23" s="19">
+        <v>2000018</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="G23" s="18" t="s">
+      <c r="G23" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="H23" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I23" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="J23" s="17"/>
-      <c r="K23" s="25">
-        <v>1</v>
-      </c>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-    </row>
-    <row r="24" ht="16.5" spans="2:16">
-      <c r="B24" s="15"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" s="16" t="s">
+      <c r="H23" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="I23" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" s="20"/>
+      <c r="L23" s="27">
+        <v>1</v>
+      </c>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+    </row>
+    <row r="24" ht="16.5" spans="2:17">
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="19">
+        <v>2000019</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="G24" s="18" t="s">
+      <c r="G24" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="H24" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I24" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="J24" s="17"/>
-      <c r="K24" s="25"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
-    </row>
-    <row r="25" ht="16.5" spans="2:16">
-      <c r="B25" s="15"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="6" t="s">
+      <c r="H24" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="I24" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K24" s="20"/>
+      <c r="L24" s="27"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+    </row>
+    <row r="25" ht="16.5" spans="2:17">
+      <c r="B25" s="17"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="19">
+        <v>2000020</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="G25" s="18" t="s">
+      <c r="G25" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="H25" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I25" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="J25" s="17"/>
-      <c r="K25" s="25">
-        <v>1</v>
-      </c>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
-    </row>
-    <row r="26" ht="16.5" spans="2:16">
-      <c r="B26" s="15"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="16" t="s">
+      <c r="H25" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="I25" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K25" s="20"/>
+      <c r="L25" s="27">
+        <v>1</v>
+      </c>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+    </row>
+    <row r="26" ht="16.5" spans="2:17">
+      <c r="B26" s="17"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="19">
+        <v>2000021</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="G26" s="18" t="s">
+      <c r="G26" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="H26" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I26" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="J26" s="16"/>
-      <c r="K26" s="25"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-    </row>
-    <row r="27" ht="16.5" spans="2:16">
-      <c r="B27" s="15"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E27" s="16" t="s">
+      <c r="H26" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="I26" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K26" s="18"/>
+      <c r="L26" s="27"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+    </row>
+    <row r="27" ht="16.5" spans="2:17">
+      <c r="B27" s="17"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="19">
+        <v>2000022</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="G27" s="18" t="s">
+      <c r="G27" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="H27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I27" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="J27" s="16"/>
-      <c r="K27" s="25">
-        <v>1</v>
-      </c>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
-    </row>
-    <row r="28" ht="16.5" spans="2:16">
-      <c r="B28" s="15"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="25"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
-    </row>
-    <row r="29" ht="16.5" spans="2:16">
-      <c r="B29" s="15" t="s">
+      <c r="H27" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="C29" s="16">
-        <v>3010511</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" s="16" t="s">
+      <c r="I27" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K27" s="18"/>
+      <c r="L27" s="27">
+        <v>1</v>
+      </c>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
+    </row>
+    <row r="28" ht="16.5" spans="2:17">
+      <c r="B28" s="17"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="27"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+    </row>
+    <row r="29" ht="16.5" spans="2:17">
+      <c r="B29" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="C29" s="18">
+        <v>2010511</v>
+      </c>
+      <c r="D29" s="19">
+        <v>2000023</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="G29" s="18" t="s">
+      <c r="G29" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="H29" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I29" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="J29" s="16"/>
-      <c r="K29" s="25"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="26"/>
-    </row>
-    <row r="30" ht="16.5" spans="2:16">
-      <c r="B30" s="15"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E30" s="16" t="s">
+      <c r="H29" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="F30" s="21" t="s">
+      <c r="I29" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J29" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K29" s="18"/>
+      <c r="L29" s="27"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
+    </row>
+    <row r="30" ht="16.5" spans="2:17">
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="19">
+        <v>2000024</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F30" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="G30" s="18" t="s">
+      <c r="G30" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="H30" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I30" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="J30" s="16"/>
-      <c r="K30" s="25">
-        <v>1</v>
-      </c>
-      <c r="O30" s="26"/>
-      <c r="P30" s="26"/>
-    </row>
-    <row r="31" ht="16.5" spans="2:16">
-      <c r="B31" s="15"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31" s="16" t="s">
+      <c r="H30" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="F31" s="21" t="s">
+      <c r="I30" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K30" s="18"/>
+      <c r="L30" s="27">
+        <v>1</v>
+      </c>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
+    </row>
+    <row r="31" ht="16.5" spans="2:17">
+      <c r="B31" s="17"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="19">
+        <v>2000025</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="G31" s="18" t="s">
+      <c r="G31" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="H31" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I31" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="J31" s="16"/>
-      <c r="K31" s="25"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="26"/>
-    </row>
-    <row r="32" ht="16.5" spans="2:16">
-      <c r="B32" s="15"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E32" s="16" t="s">
+      <c r="H31" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="F32" s="21" t="s">
+      <c r="I31" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J31" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K31" s="18"/>
+      <c r="L31" s="27"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="28"/>
+    </row>
+    <row r="32" ht="16.5" spans="2:17">
+      <c r="B32" s="17"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="19">
+        <v>2000026</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="G32" s="18" t="s">
+      <c r="G32" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="H32" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I32" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="J32" s="16"/>
-      <c r="K32" s="25">
-        <v>1</v>
-      </c>
-      <c r="O32" s="26"/>
-      <c r="P32" s="26"/>
-    </row>
-    <row r="33" ht="16.5" spans="2:16">
-      <c r="B33" s="15"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E33" s="16" t="s">
+      <c r="H32" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="F33" s="21" t="s">
+      <c r="I32" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J32" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K32" s="18"/>
+      <c r="L32" s="27">
+        <v>1</v>
+      </c>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
+    </row>
+    <row r="33" ht="16.5" spans="2:17">
+      <c r="B33" s="17"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="19">
+        <v>2000027</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="G33" s="18" t="s">
+      <c r="G33" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="H33" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I33" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="J33" s="16"/>
-      <c r="K33" s="25"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="26"/>
-    </row>
-    <row r="34" ht="16.5" spans="2:16">
-      <c r="B34" s="15"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="25"/>
-      <c r="O34" s="26"/>
-      <c r="P34" s="26"/>
-    </row>
-    <row r="35" ht="16.5" spans="2:16">
-      <c r="B35" s="15" t="s">
+      <c r="H33" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="C35" s="16">
-        <v>3010611</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E35" s="16" t="s">
+      <c r="I33" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K33" s="18"/>
+      <c r="L33" s="27"/>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="28"/>
+    </row>
+    <row r="34" ht="16.5" spans="2:17">
+      <c r="B34" s="17"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="27"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="28"/>
+    </row>
+    <row r="35" ht="16.5" spans="2:17">
+      <c r="B35" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="F35" s="21" t="s">
+      <c r="C35" s="18">
+        <v>2010611</v>
+      </c>
+      <c r="D35" s="19">
+        <v>2000028</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="G35" s="18" t="s">
+      <c r="G35" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="H35" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I35" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="J35" s="16"/>
-      <c r="K35" s="25"/>
-      <c r="O35" s="26"/>
-      <c r="P35" s="26"/>
-    </row>
-    <row r="36" ht="16.5" spans="2:16">
-      <c r="B36" s="15"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E36" s="16" t="s">
+      <c r="H35" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="F36" s="21" t="s">
+      <c r="I35" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J35" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K35" s="18"/>
+      <c r="L35" s="27"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="28"/>
+    </row>
+    <row r="36" ht="16.5" spans="2:17">
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="19">
+        <v>2000029</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F36" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="G36" s="18" t="s">
+      <c r="G36" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="H36" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I36" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="J36" s="16"/>
-      <c r="K36" s="25">
-        <v>1</v>
-      </c>
-      <c r="O36" s="26"/>
-      <c r="P36" s="26"/>
-    </row>
-    <row r="37" ht="16.5" spans="2:16">
-      <c r="B37" s="15"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E37" s="16" t="s">
+      <c r="H36" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="F37" s="21" t="s">
+      <c r="I36" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J36" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K36" s="18"/>
+      <c r="L36" s="27">
+        <v>1</v>
+      </c>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="28"/>
+    </row>
+    <row r="37" ht="16.5" spans="2:17">
+      <c r="B37" s="17"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="19">
+        <v>2000030</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F37" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="G37" s="18" t="s">
+      <c r="G37" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="H37" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I37" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="J37" s="16"/>
-      <c r="K37" s="25">
-        <v>1</v>
-      </c>
-      <c r="O37" s="26"/>
-      <c r="P37" s="26"/>
-    </row>
-    <row r="38" ht="16.5" spans="2:16">
-      <c r="B38" s="15"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="25"/>
-      <c r="O38" s="26"/>
-      <c r="P38" s="26"/>
-    </row>
-    <row r="39" ht="16.5" spans="2:16">
-      <c r="B39" s="15"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="25"/>
-      <c r="O39" s="26"/>
-      <c r="P39" s="26"/>
-    </row>
-    <row r="40" ht="16.5" spans="2:16">
-      <c r="B40" s="15"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="25"/>
-      <c r="O40" s="26"/>
-      <c r="P40" s="26"/>
-    </row>
-    <row r="41" ht="16.5" spans="2:16">
-      <c r="B41" s="15" t="s">
+      <c r="H37" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="16">
-        <v>3010711</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E41" s="16" t="s">
+      <c r="I37" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J37" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K37" s="18"/>
+      <c r="L37" s="27">
+        <v>1</v>
+      </c>
+      <c r="P37" s="28"/>
+      <c r="Q37" s="28"/>
+    </row>
+    <row r="38" ht="16.5" spans="2:17">
+      <c r="B38" s="17"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="27"/>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="28"/>
+    </row>
+    <row r="39" ht="16.5" spans="2:17">
+      <c r="B39" s="17"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="27"/>
+      <c r="P39" s="28"/>
+      <c r="Q39" s="28"/>
+    </row>
+    <row r="40" ht="16.5" spans="2:17">
+      <c r="B40" s="17"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="27"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="28"/>
+    </row>
+    <row r="41" ht="16.5" spans="2:17">
+      <c r="B41" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="F41" s="21" t="s">
+      <c r="C41" s="18">
+        <v>2010711</v>
+      </c>
+      <c r="D41" s="19">
+        <v>2000031</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F41" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="G41" s="18" t="s">
+      <c r="G41" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="H41" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I41" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="J41" s="16"/>
-      <c r="K41" s="25"/>
-      <c r="O41" s="26"/>
-      <c r="P41" s="26"/>
-    </row>
-    <row r="42" ht="16.5" spans="2:16">
-      <c r="B42" s="15"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E42" s="16" t="s">
+      <c r="H41" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="F42" s="21" t="s">
+      <c r="I41" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J41" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K41" s="18"/>
+      <c r="L41" s="27"/>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="28"/>
+    </row>
+    <row r="42" ht="16.5" spans="2:17">
+      <c r="B42" s="17"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="19">
+        <v>2000032</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F42" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="G42" s="18" t="s">
+      <c r="G42" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="H42" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I42" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="J42" s="16"/>
-      <c r="K42" s="25">
-        <v>1</v>
-      </c>
-      <c r="O42" s="26"/>
-      <c r="P42" s="26"/>
-    </row>
-    <row r="43" ht="16.5" spans="2:16">
-      <c r="B43" s="15"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="25"/>
-      <c r="O43" s="26"/>
-      <c r="P43" s="26"/>
-    </row>
-    <row r="44" ht="16.5" spans="2:16">
-      <c r="B44" s="15"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="25"/>
-      <c r="O44" s="26"/>
-      <c r="P44" s="26"/>
-    </row>
-    <row r="45" ht="16.5" spans="2:16">
-      <c r="B45" s="15"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="25"/>
-      <c r="O45" s="26"/>
-      <c r="P45" s="26"/>
-    </row>
-    <row r="46" ht="16.5" spans="2:16">
-      <c r="B46" s="15"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="25"/>
-      <c r="O46" s="26"/>
-      <c r="P46" s="26"/>
-    </row>
-    <row r="47" ht="16.5" spans="2:16">
-      <c r="B47" s="15" t="s">
+      <c r="H42" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="C47" s="16">
-        <v>3010811</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E47" s="16" t="s">
+      <c r="I42" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J42" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K42" s="18"/>
+      <c r="L42" s="27">
+        <v>1</v>
+      </c>
+      <c r="P42" s="28"/>
+      <c r="Q42" s="28"/>
+    </row>
+    <row r="43" ht="16.5" spans="2:17">
+      <c r="B43" s="17"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="27"/>
+      <c r="P43" s="28"/>
+      <c r="Q43" s="28"/>
+    </row>
+    <row r="44" ht="16.5" spans="2:17">
+      <c r="B44" s="17"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="27"/>
+      <c r="P44" s="28"/>
+      <c r="Q44" s="28"/>
+    </row>
+    <row r="45" ht="16.5" spans="2:17">
+      <c r="B45" s="17"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="27"/>
+      <c r="P45" s="28"/>
+      <c r="Q45" s="28"/>
+    </row>
+    <row r="46" ht="16.5" spans="2:17">
+      <c r="B46" s="17"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="27"/>
+      <c r="P46" s="28"/>
+      <c r="Q46" s="28"/>
+    </row>
+    <row r="47" ht="16.5" spans="2:17">
+      <c r="B47" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="F47" s="16" t="s">
+      <c r="C47" s="18">
+        <v>2010811</v>
+      </c>
+      <c r="D47" s="19">
+        <v>2000033</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F47" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="G47" s="22" t="s">
+      <c r="G47" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="H47" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I47" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="J47" s="16"/>
-      <c r="K47" s="25"/>
-      <c r="O47" s="26"/>
-      <c r="P47" s="26"/>
-    </row>
-    <row r="48" ht="16.5" spans="2:11">
-      <c r="B48" s="15"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E48" s="16" t="s">
+      <c r="H47" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="F48" s="16" t="s">
+      <c r="I47" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J47" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K47" s="18"/>
+      <c r="L47" s="27"/>
+      <c r="P47" s="28"/>
+      <c r="Q47" s="28"/>
+    </row>
+    <row r="48" ht="16.5" spans="2:12">
+      <c r="B48" s="17"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="19">
+        <v>2000034</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F48" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="G48" s="22" t="s">
+      <c r="G48" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="H48" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I48" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="K48" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" ht="16.5" spans="2:11">
-      <c r="B49" s="15"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E49" s="16" t="s">
+      <c r="H48" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="F49" s="16" t="s">
+      <c r="I48" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J48" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L48" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" ht="16.5" spans="2:12">
+      <c r="B49" s="17"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="19">
+        <v>2000035</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F49" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="G49" s="22" t="s">
+      <c r="G49" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="H49" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I49" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="K49" s="25"/>
-    </row>
-    <row r="50" ht="16.5" spans="2:11">
-      <c r="B50" s="15"/>
-      <c r="C50" s="17"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="16"/>
-      <c r="K50" s="25"/>
-    </row>
-    <row r="51" ht="16.5" spans="2:11">
-      <c r="B51" s="15"/>
-      <c r="C51" s="17"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="16"/>
-      <c r="K51" s="25"/>
-    </row>
-    <row r="52" ht="16.5" spans="2:11">
-      <c r="B52" s="15"/>
-      <c r="C52" s="17"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="16"/>
-      <c r="K52" s="25"/>
-    </row>
-    <row r="53" ht="16.5" spans="2:11">
-      <c r="B53" s="15" t="s">
+      <c r="H49" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="C53" s="16">
-        <v>3010911</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E53" s="16" t="s">
+      <c r="I49" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J49" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L49" s="27"/>
+    </row>
+    <row r="50" ht="16.5" spans="2:12">
+      <c r="B50" s="17"/>
+      <c r="C50" s="20"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="18"/>
+      <c r="L50" s="27"/>
+    </row>
+    <row r="51" ht="16.5" spans="2:12">
+      <c r="B51" s="17"/>
+      <c r="C51" s="20"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="18"/>
+      <c r="L51" s="27"/>
+    </row>
+    <row r="52" ht="16.5" spans="2:12">
+      <c r="B52" s="17"/>
+      <c r="C52" s="20"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="18"/>
+      <c r="L52" s="27"/>
+    </row>
+    <row r="53" ht="16.5" spans="2:12">
+      <c r="B53" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="F53" s="16"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="16"/>
-      <c r="K53" s="25"/>
-    </row>
-    <row r="54" ht="16.5" spans="2:11">
-      <c r="B54" s="15"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E54" s="16" t="s">
+      <c r="C53" s="18">
+        <v>2010911</v>
+      </c>
+      <c r="D53" s="19">
+        <v>2000036</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F53" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="F54" s="16" t="s">
+      <c r="G53" s="18"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="18"/>
+      <c r="L53" s="27"/>
+    </row>
+    <row r="54" ht="16.5" spans="2:12">
+      <c r="B54" s="17"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="19">
+        <v>2000037</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F54" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="G54" s="22" t="s">
+      <c r="G54" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="H54" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I54" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="K54" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" ht="16.5" spans="2:11">
-      <c r="B55" s="15"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E55" s="16" t="s">
+      <c r="H54" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="F55" s="16" t="s">
+      <c r="I54" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J54" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L54" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" ht="16.5" spans="2:12">
+      <c r="B55" s="17"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="19">
+        <v>2000038</v>
+      </c>
+      <c r="E55" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F55" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="G55" s="22" t="s">
+      <c r="G55" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="H55" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I55" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="K55" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" ht="16.5" spans="2:11">
-      <c r="B56" s="15"/>
-      <c r="C56" s="17"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16" t="s">
+      <c r="H55" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="G56" s="22" t="s">
+      <c r="I55" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J55" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L55" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" ht="16.5" spans="2:12">
+      <c r="B56" s="17"/>
+      <c r="C56" s="20"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="H56" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I56" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="K56" s="25"/>
-    </row>
-    <row r="57" ht="16.5" spans="2:11">
-      <c r="B57" s="15"/>
-      <c r="C57" s="17"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="16"/>
-      <c r="K57" s="25"/>
-    </row>
-    <row r="58" ht="16.5" spans="2:11">
-      <c r="B58" s="15"/>
-      <c r="C58" s="17"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="16"/>
-      <c r="K58" s="25"/>
-    </row>
-    <row r="59" ht="16.5" spans="2:11">
-      <c r="B59" s="15" t="s">
+      <c r="H56" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="C59" s="16">
-        <v>3020111</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E59" s="16" t="s">
+      <c r="I56" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J56" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L56" s="27"/>
+    </row>
+    <row r="57" ht="16.5" spans="2:12">
+      <c r="B57" s="17"/>
+      <c r="C57" s="20"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="18"/>
+      <c r="L57" s="27"/>
+    </row>
+    <row r="58" ht="16.5" spans="2:12">
+      <c r="B58" s="17"/>
+      <c r="C58" s="20"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="18"/>
+      <c r="L58" s="27"/>
+    </row>
+    <row r="59" ht="16.5" spans="2:12">
+      <c r="B59" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="F59" s="16" t="s">
+      <c r="C59" s="18">
+        <v>2020111</v>
+      </c>
+      <c r="D59" s="19">
+        <v>2000039</v>
+      </c>
+      <c r="E59" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F59" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="G59" s="22" t="s">
+      <c r="G59" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="H59" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I59" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="K59" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" ht="16.5" spans="2:11">
-      <c r="B60" s="15"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E60" s="16" t="s">
+      <c r="H59" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="F60" s="16" t="s">
+      <c r="I59" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J59" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L59" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" ht="16.5" spans="2:12">
+      <c r="B60" s="17"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="19">
+        <v>2000040</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F60" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="G60" s="22" t="s">
+      <c r="G60" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="H60" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I60" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="K60" s="25"/>
-    </row>
-    <row r="61" ht="16.5" spans="2:11">
-      <c r="B61" s="15"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E61" s="16" t="s">
+      <c r="H60" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="F61" s="16" t="s">
+      <c r="I60" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J60" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L60" s="27"/>
+    </row>
+    <row r="61" ht="16.5" spans="2:12">
+      <c r="B61" s="17"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="19">
+        <v>2000041</v>
+      </c>
+      <c r="E61" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F61" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="G61" s="22" t="s">
+      <c r="G61" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="H61" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I61" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="K61" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" ht="16.5" spans="2:11">
-      <c r="B62" s="15"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E62" s="16" t="s">
+      <c r="H61" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="F62" s="16" t="s">
+      <c r="I61" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J61" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L61" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" ht="16.5" spans="2:12">
+      <c r="B62" s="17"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="19">
+        <v>2000042</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F62" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="G62" s="22" t="s">
+      <c r="G62" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="H62" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I62" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="K62" s="25"/>
-    </row>
-    <row r="63" ht="16.5" spans="2:11">
-      <c r="B63" s="15"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E63" s="16" t="s">
+      <c r="H62" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="F63" s="16" t="s">
+      <c r="I62" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J62" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L62" s="27"/>
+    </row>
+    <row r="63" ht="16.5" spans="2:12">
+      <c r="B63" s="17"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="19">
+        <v>2000043</v>
+      </c>
+      <c r="E63" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F63" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="G63" s="22" t="s">
+      <c r="G63" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="H63" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I63" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="K63" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" ht="16.5" spans="2:11">
-      <c r="B64" s="15"/>
-      <c r="C64" s="17"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="17"/>
-      <c r="I64" s="16"/>
-      <c r="K64" s="25"/>
-    </row>
-    <row r="65" ht="16.5" spans="2:11">
-      <c r="B65" s="15" t="s">
+      <c r="H63" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="C65" s="16">
-        <v>3020211</v>
-      </c>
-      <c r="D65" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E65" s="16" t="s">
+      <c r="I63" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J63" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L63" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" ht="16.5" spans="2:12">
+      <c r="B64" s="17"/>
+      <c r="C64" s="20"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="18"/>
+      <c r="L64" s="27"/>
+    </row>
+    <row r="65" ht="16.5" spans="2:12">
+      <c r="B65" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="F65" s="16" t="s">
+      <c r="C65" s="18">
+        <v>2020211</v>
+      </c>
+      <c r="D65" s="19">
+        <v>2000044</v>
+      </c>
+      <c r="E65" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F65" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="G65" s="22" t="s">
+      <c r="G65" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="H65" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I65" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="K65" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" ht="16.5" spans="2:11">
-      <c r="B66" s="15"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E66" s="16" t="s">
+      <c r="H65" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="F66" s="16" t="s">
+      <c r="I65" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J65" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L65" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" ht="16.5" spans="2:12">
+      <c r="B66" s="17"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="19">
+        <v>2000045</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F66" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="G66" s="22" t="s">
+      <c r="G66" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="H66" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I66" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="K66" s="25"/>
-    </row>
-    <row r="67" ht="16.5" spans="2:11">
-      <c r="B67" s="15"/>
-      <c r="C67" s="17"/>
-      <c r="D67" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E67" s="16" t="s">
+      <c r="H66" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="F67" s="16" t="s">
+      <c r="I66" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J66" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L66" s="27"/>
+    </row>
+    <row r="67" ht="16.5" spans="2:12">
+      <c r="B67" s="17"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="19">
+        <v>2000046</v>
+      </c>
+      <c r="E67" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F67" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="G67" s="22" t="s">
+      <c r="G67" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="H67" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I67" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="K67" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" ht="16.5" spans="2:11">
-      <c r="B68" s="15"/>
-      <c r="C68" s="17"/>
-      <c r="D68" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E68" s="16" t="s">
+      <c r="H67" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="F68" s="16" t="s">
+      <c r="I67" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J67" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L67" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" ht="16.5" spans="2:12">
+      <c r="B68" s="17"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="19">
+        <v>2000047</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F68" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="G68" s="22" t="s">
+      <c r="G68" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="H68" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I68" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="K68" s="25"/>
-    </row>
-    <row r="69" ht="16.5" spans="2:11">
-      <c r="B69" s="15"/>
-      <c r="C69" s="17"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="23"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="17"/>
-      <c r="I69" s="16"/>
-      <c r="K69" s="25"/>
-    </row>
-    <row r="70" ht="16.5" spans="2:11">
-      <c r="B70" s="15"/>
-      <c r="C70" s="17"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="23"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="17"/>
-      <c r="I70" s="16"/>
-      <c r="K70" s="25"/>
-    </row>
-    <row r="71" ht="16.5" spans="2:11">
-      <c r="B71" s="15" t="s">
+      <c r="H68" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="C71" s="16">
-        <v>3020311</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E71" s="16" t="s">
+      <c r="I68" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J68" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L68" s="27"/>
+    </row>
+    <row r="69" ht="16.5" spans="2:12">
+      <c r="B69" s="17"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="18"/>
+      <c r="L69" s="27"/>
+    </row>
+    <row r="70" ht="16.5" spans="2:12">
+      <c r="B70" s="17"/>
+      <c r="C70" s="20"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="18"/>
+      <c r="L70" s="27"/>
+    </row>
+    <row r="71" ht="16.5" spans="2:12">
+      <c r="B71" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="F71" s="16" t="s">
+      <c r="C71" s="18">
+        <v>2020311</v>
+      </c>
+      <c r="D71" s="19">
+        <v>2000048</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F71" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="G71" s="22" t="s">
+      <c r="G71" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="H71" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I71" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="K71" s="25"/>
-    </row>
-    <row r="72" ht="16.5" spans="2:11">
-      <c r="B72" s="15"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E72" s="16" t="s">
+      <c r="H71" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="F72" s="16" t="s">
+      <c r="I71" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J71" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L71" s="27"/>
+    </row>
+    <row r="72" ht="16.5" spans="2:12">
+      <c r="B72" s="17"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="19">
+        <v>2000049</v>
+      </c>
+      <c r="E72" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F72" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="G72" s="22" t="s">
+      <c r="G72" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="H72" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I72" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="K72" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" ht="16.5" spans="2:11">
-      <c r="B73" s="15"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="23"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="17"/>
-      <c r="I73" s="16"/>
-      <c r="K73" s="25"/>
-    </row>
-    <row r="74" ht="16.5" spans="2:11">
-      <c r="B74" s="15"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="16"/>
-      <c r="F74" s="23"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="17"/>
-      <c r="I74" s="16"/>
-      <c r="K74" s="25"/>
-    </row>
-    <row r="75" ht="16.5" spans="2:11">
-      <c r="B75" s="15"/>
-      <c r="C75" s="17"/>
-      <c r="E75" s="16"/>
-      <c r="F75" s="23"/>
-      <c r="G75" s="22"/>
-      <c r="H75" s="17"/>
-      <c r="I75" s="16"/>
-      <c r="K75" s="25"/>
-    </row>
-    <row r="76" ht="16.5" spans="2:11">
-      <c r="B76" s="15"/>
-      <c r="C76" s="17"/>
-      <c r="E76" s="16"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="22"/>
-      <c r="H76" s="17"/>
-      <c r="I76" s="16"/>
-      <c r="K76" s="25"/>
-    </row>
-    <row r="77" ht="16.5" spans="2:11">
-      <c r="B77" s="15" t="s">
+      <c r="H72" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="C77" s="16">
-        <v>3020411</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E77" s="16" t="s">
+      <c r="I72" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J72" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L72" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" ht="16.5" spans="2:12">
+      <c r="B73" s="17"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="24"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="18"/>
+      <c r="L73" s="27"/>
+    </row>
+    <row r="74" ht="16.5" spans="2:12">
+      <c r="B74" s="17"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="24"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="18"/>
+      <c r="L74" s="27"/>
+    </row>
+    <row r="75" ht="16.5" spans="2:12">
+      <c r="B75" s="17"/>
+      <c r="C75" s="20"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="24"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="18"/>
+      <c r="L75" s="27"/>
+    </row>
+    <row r="76" ht="16.5" spans="2:12">
+      <c r="B76" s="17"/>
+      <c r="C76" s="20"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="24"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="18"/>
+      <c r="L76" s="27"/>
+    </row>
+    <row r="77" ht="16.5" spans="2:12">
+      <c r="B77" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="F77" s="16" t="s">
+      <c r="C77" s="18">
+        <v>2020411</v>
+      </c>
+      <c r="D77" s="19">
+        <v>2000050</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F77" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="G77" s="22" t="s">
+      <c r="G77" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="H77" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I77" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="K77" s="25"/>
-    </row>
-    <row r="78" ht="16.5" spans="2:11">
-      <c r="B78" s="15"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E78" s="16" t="s">
+      <c r="H77" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="F78" s="17" t="s">
+      <c r="I77" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J77" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L77" s="27"/>
+    </row>
+    <row r="78" ht="16.5" spans="2:12">
+      <c r="B78" s="17"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="19">
+        <v>2000051</v>
+      </c>
+      <c r="E78" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F78" s="18" t="s">
         <v>200</v>
       </c>
       <c r="G78" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="H78" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I78" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="K78" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" ht="16.5" spans="2:11">
-      <c r="B79" s="15"/>
-      <c r="C79" s="17"/>
-      <c r="E79" s="16"/>
-      <c r="F79" s="23"/>
-      <c r="G79" s="22"/>
-      <c r="H79" s="17"/>
-      <c r="I79" s="16"/>
-      <c r="K79" s="25"/>
-    </row>
-    <row r="80" ht="16.5" spans="2:11">
-      <c r="B80" s="15"/>
-      <c r="C80" s="17"/>
-      <c r="E80" s="16"/>
-      <c r="F80" s="23"/>
-      <c r="G80" s="22"/>
-      <c r="H80" s="17"/>
-      <c r="I80" s="16"/>
-      <c r="K80" s="25"/>
-    </row>
-    <row r="81" ht="16.5" spans="2:11">
-      <c r="B81" s="15"/>
-      <c r="C81" s="17"/>
-      <c r="E81" s="16"/>
-      <c r="F81" s="23"/>
-      <c r="G81" s="22"/>
-      <c r="H81" s="17"/>
-      <c r="I81" s="16"/>
-      <c r="K81" s="25"/>
-    </row>
-    <row r="82" ht="16.5" spans="2:11">
-      <c r="B82" s="15"/>
-      <c r="C82" s="17"/>
-      <c r="E82" s="16"/>
-      <c r="F82" s="23"/>
-      <c r="G82" s="22"/>
-      <c r="H82" s="17"/>
-      <c r="I82" s="16"/>
-      <c r="K82" s="25"/>
-    </row>
-    <row r="83" ht="16.5" spans="2:11">
-      <c r="B83" s="15" t="s">
+      <c r="H78" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="C83" s="16">
-        <v>3020511</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E83" s="16" t="s">
+      <c r="I78" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J78" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L78" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" ht="16.5" spans="2:12">
+      <c r="B79" s="17"/>
+      <c r="C79" s="20"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="24"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="18"/>
+      <c r="L79" s="27"/>
+    </row>
+    <row r="80" ht="16.5" spans="2:12">
+      <c r="B80" s="17"/>
+      <c r="C80" s="20"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="24"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="18"/>
+      <c r="L80" s="27"/>
+    </row>
+    <row r="81" ht="16.5" spans="2:12">
+      <c r="B81" s="17"/>
+      <c r="C81" s="20"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="25"/>
+      <c r="H81" s="24"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="18"/>
+      <c r="L81" s="27"/>
+    </row>
+    <row r="82" ht="16.5" spans="2:12">
+      <c r="B82" s="17"/>
+      <c r="C82" s="20"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="24"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="18"/>
+      <c r="L82" s="27"/>
+    </row>
+    <row r="83" ht="16.5" spans="2:12">
+      <c r="B83" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="F83" s="16" t="s">
+      <c r="C83" s="18">
+        <v>2020511</v>
+      </c>
+      <c r="D83" s="19">
+        <v>2000052</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F83" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="G83" s="22" t="s">
+      <c r="G83" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="H83" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I83" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="K83" s="25"/>
-    </row>
-    <row r="84" ht="16.5" spans="2:11">
-      <c r="B84" s="15"/>
-      <c r="C84" s="16"/>
-      <c r="D84" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E84" s="16" t="s">
+      <c r="H83" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="F84" s="16" t="s">
+      <c r="I83" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J83" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L83" s="27"/>
+    </row>
+    <row r="84" ht="16.5" spans="2:12">
+      <c r="B84" s="17"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="19">
+        <v>2000053</v>
+      </c>
+      <c r="E84" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F84" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="G84" s="22" t="s">
+      <c r="G84" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="H84" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I84" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="K84" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" ht="16.5" spans="2:11">
-      <c r="B85" s="15"/>
-      <c r="C85" s="17"/>
-      <c r="E85" s="16"/>
-      <c r="F85" s="23"/>
-      <c r="G85" s="22"/>
-      <c r="H85" s="17"/>
-      <c r="I85" s="16"/>
-      <c r="K85" s="25"/>
-    </row>
-    <row r="86" ht="16.5" spans="2:11">
-      <c r="B86" s="15"/>
-      <c r="C86" s="17"/>
-      <c r="E86" s="16"/>
-      <c r="F86" s="23"/>
-      <c r="G86" s="22"/>
-      <c r="H86" s="17"/>
-      <c r="I86" s="16"/>
-      <c r="K86" s="25"/>
-    </row>
-    <row r="87" ht="16.5" spans="2:11">
-      <c r="B87" s="15"/>
-      <c r="C87" s="17"/>
-      <c r="E87" s="16"/>
-      <c r="F87" s="23"/>
-      <c r="G87" s="22"/>
-      <c r="H87" s="17"/>
-      <c r="I87" s="16"/>
-      <c r="K87" s="25"/>
-    </row>
-    <row r="88" ht="16.5" spans="2:11">
-      <c r="B88" s="15"/>
-      <c r="C88" s="17"/>
-      <c r="E88" s="16"/>
-      <c r="F88" s="23"/>
-      <c r="G88" s="22"/>
-      <c r="H88" s="17"/>
-      <c r="I88" s="16"/>
-      <c r="K88" s="25"/>
-    </row>
-    <row r="89" ht="16.5" spans="2:11">
-      <c r="B89" s="15" t="s">
+      <c r="H84" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="C89" s="16">
-        <v>3020611</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E89" s="16" t="s">
+      <c r="I84" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J84" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L84" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" ht="16.5" spans="2:12">
+      <c r="B85" s="17"/>
+      <c r="C85" s="20"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="24"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="18"/>
+      <c r="L85" s="27"/>
+    </row>
+    <row r="86" ht="16.5" spans="2:12">
+      <c r="B86" s="17"/>
+      <c r="C86" s="20"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="25"/>
+      <c r="H86" s="24"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="18"/>
+      <c r="L86" s="27"/>
+    </row>
+    <row r="87" ht="16.5" spans="2:12">
+      <c r="B87" s="17"/>
+      <c r="C87" s="20"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="24"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="18"/>
+      <c r="L87" s="27"/>
+    </row>
+    <row r="88" ht="16.5" spans="2:12">
+      <c r="B88" s="17"/>
+      <c r="C88" s="20"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="24"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="18"/>
+      <c r="L88" s="27"/>
+    </row>
+    <row r="89" ht="16.5" spans="2:12">
+      <c r="B89" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="F89" s="23"/>
-      <c r="G89" s="22"/>
-      <c r="H89" s="17"/>
-      <c r="I89" s="16"/>
-      <c r="K89" s="25"/>
-    </row>
-    <row r="90" ht="16.5" spans="2:11">
-      <c r="B90" s="15"/>
-      <c r="C90" s="16"/>
-      <c r="D90" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E90" s="16" t="s">
+      <c r="C89" s="18">
+        <v>2020611</v>
+      </c>
+      <c r="D89" s="19">
+        <v>2000054</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F89" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="F90" s="16" t="s">
+      <c r="G89" s="25"/>
+      <c r="H89" s="24"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="18"/>
+      <c r="L89" s="27"/>
+    </row>
+    <row r="90" ht="16.5" spans="2:12">
+      <c r="B90" s="17"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="19">
+        <v>2000055</v>
+      </c>
+      <c r="E90" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F90" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="G90" s="22" t="s">
+      <c r="G90" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="H90" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I90" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="K90" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" ht="16.5" spans="2:11">
-      <c r="B91" s="15"/>
-      <c r="C91" s="17"/>
-      <c r="E91" s="16"/>
-      <c r="F91" s="16" t="s">
+      <c r="H90" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="G91" s="22" t="s">
+      <c r="I90" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J90" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L90" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" ht="16.5" spans="2:12">
+      <c r="B91" s="17"/>
+      <c r="C91" s="20"/>
+      <c r="F91" s="18"/>
+      <c r="G91" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="H91" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I91" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="K91" s="25"/>
-    </row>
-    <row r="92" ht="16.5" spans="2:11">
-      <c r="B92" s="15"/>
-      <c r="C92" s="17"/>
-      <c r="E92" s="16"/>
-      <c r="F92" s="16"/>
-      <c r="G92" s="22"/>
-      <c r="H92" s="17"/>
-      <c r="I92" s="16"/>
-      <c r="K92" s="25"/>
-    </row>
-    <row r="93" ht="16.5" spans="2:11">
-      <c r="B93" s="15"/>
-      <c r="C93" s="17"/>
-      <c r="E93" s="16"/>
-      <c r="F93" s="16"/>
-      <c r="G93" s="22"/>
-      <c r="H93" s="17"/>
-      <c r="I93" s="16"/>
-      <c r="K93" s="25"/>
-    </row>
-    <row r="94" ht="16.5" spans="2:11">
-      <c r="B94" s="15"/>
-      <c r="C94" s="17"/>
-      <c r="E94" s="16"/>
-      <c r="F94" s="16"/>
-      <c r="G94" s="22"/>
-      <c r="H94" s="17"/>
-      <c r="I94" s="16"/>
-      <c r="K94" s="25"/>
-    </row>
-    <row r="95" ht="16.5" spans="2:11">
-      <c r="B95" s="15" t="s">
+      <c r="H91" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="C95" s="16">
-        <v>3030111</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E95" s="16" t="s">
+      <c r="I91" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J91" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L91" s="27"/>
+    </row>
+    <row r="92" ht="16.5" spans="2:12">
+      <c r="B92" s="17"/>
+      <c r="C92" s="20"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="18"/>
+      <c r="H92" s="24"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="18"/>
+      <c r="L92" s="27"/>
+    </row>
+    <row r="93" ht="16.5" spans="2:12">
+      <c r="B93" s="17"/>
+      <c r="C93" s="20"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="18"/>
+      <c r="H93" s="24"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="18"/>
+      <c r="L93" s="27"/>
+    </row>
+    <row r="94" ht="16.5" spans="2:12">
+      <c r="B94" s="17"/>
+      <c r="C94" s="20"/>
+      <c r="F94" s="18"/>
+      <c r="G94" s="18"/>
+      <c r="H94" s="24"/>
+      <c r="I94" s="20"/>
+      <c r="J94" s="18"/>
+      <c r="L94" s="27"/>
+    </row>
+    <row r="95" ht="16.5" spans="2:12">
+      <c r="B95" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="F95" s="16" t="s">
+      <c r="C95" s="18">
+        <v>2030111</v>
+      </c>
+      <c r="D95" s="19">
+        <v>2000056</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F95" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="G95" s="22" t="s">
+      <c r="G95" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="H95" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I95" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="K95" s="25"/>
-    </row>
-    <row r="96" ht="16.5" spans="2:11">
-      <c r="B96" s="15"/>
-      <c r="C96" s="16"/>
-      <c r="D96" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E96" s="16" t="s">
+      <c r="H95" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="F96" s="16" t="s">
+      <c r="I95" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J95" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L95" s="27"/>
+    </row>
+    <row r="96" ht="16.5" spans="2:12">
+      <c r="B96" s="17"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="19">
+        <v>2000057</v>
+      </c>
+      <c r="E96" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F96" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="G96" s="22" t="s">
+      <c r="G96" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="H96" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I96" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="K96" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" ht="16.5" spans="2:11">
-      <c r="B97" s="15"/>
-      <c r="C97" s="17"/>
-      <c r="D97" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E97" s="16" t="s">
+      <c r="H96" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="F97" s="16" t="s">
+      <c r="I96" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J96" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L96" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" ht="16.5" spans="2:12">
+      <c r="B97" s="17"/>
+      <c r="C97" s="20"/>
+      <c r="D97" s="19">
+        <v>2000058</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F97" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="G97" s="22" t="s">
+      <c r="G97" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="H97" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I97" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="K97" s="25"/>
-    </row>
-    <row r="98" ht="16.5" spans="2:11">
-      <c r="B98" s="15"/>
-      <c r="C98" s="17"/>
-      <c r="D98" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E98" s="16" t="s">
+      <c r="H97" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="F98" s="16" t="s">
+      <c r="I97" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J97" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L97" s="27"/>
+    </row>
+    <row r="98" ht="16.5" spans="2:12">
+      <c r="B98" s="17"/>
+      <c r="C98" s="20"/>
+      <c r="D98" s="19">
+        <v>2000059</v>
+      </c>
+      <c r="E98" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F98" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="G98" s="22" t="s">
+      <c r="G98" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="H98" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I98" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="K98" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" ht="16.5" spans="2:11">
-      <c r="B99" s="15"/>
-      <c r="C99" s="17"/>
-      <c r="E99" s="16"/>
-      <c r="F99" s="16"/>
-      <c r="G99" s="22"/>
-      <c r="H99" s="17"/>
-      <c r="I99" s="16"/>
-      <c r="K99" s="25"/>
-    </row>
-    <row r="100" ht="16.5" spans="2:11">
-      <c r="B100" s="15"/>
-      <c r="C100" s="17"/>
-      <c r="E100" s="16"/>
-      <c r="F100" s="16"/>
-      <c r="G100" s="22"/>
-      <c r="H100" s="17"/>
-      <c r="I100" s="16"/>
-      <c r="K100" s="25"/>
-    </row>
-    <row r="101" ht="16.5" spans="2:11">
-      <c r="B101" s="15" t="s">
+      <c r="H98" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="C101" s="16">
-        <v>3030211</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E101" s="16" t="s">
+      <c r="I98" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J98" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L98" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" ht="16.5" spans="2:12">
+      <c r="B99" s="17"/>
+      <c r="C99" s="20"/>
+      <c r="F99" s="18"/>
+      <c r="G99" s="18"/>
+      <c r="H99" s="24"/>
+      <c r="I99" s="20"/>
+      <c r="J99" s="18"/>
+      <c r="L99" s="27"/>
+    </row>
+    <row r="100" ht="16.5" spans="2:12">
+      <c r="B100" s="17"/>
+      <c r="C100" s="20"/>
+      <c r="F100" s="18"/>
+      <c r="G100" s="18"/>
+      <c r="H100" s="24"/>
+      <c r="I100" s="20"/>
+      <c r="J100" s="18"/>
+      <c r="L100" s="27"/>
+    </row>
+    <row r="101" ht="16.5" spans="2:12">
+      <c r="B101" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="F101" s="16" t="s">
+      <c r="C101" s="18">
+        <v>2030211</v>
+      </c>
+      <c r="D101" s="19">
+        <v>2000060</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F101" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="G101" s="22" t="s">
+      <c r="G101" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="H101" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I101" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="K101" s="25"/>
-    </row>
-    <row r="102" ht="16.5" spans="2:11">
-      <c r="B102" s="15"/>
-      <c r="C102" s="16"/>
-      <c r="D102" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E102" s="16" t="s">
+      <c r="H101" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="F102" s="16" t="s">
+      <c r="I101" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J101" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L101" s="27"/>
+    </row>
+    <row r="102" ht="16.5" spans="2:12">
+      <c r="B102" s="17"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="19">
+        <v>2000061</v>
+      </c>
+      <c r="E102" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F102" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="G102" s="22" t="s">
+      <c r="G102" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="H102" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I102" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="K102" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" ht="16.5" spans="2:9">
-      <c r="B103" s="15"/>
-      <c r="C103" s="17"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="16"/>
-      <c r="F103" s="16"/>
-      <c r="G103" s="22"/>
-      <c r="H103" s="17"/>
-      <c r="I103" s="16"/>
-    </row>
-    <row r="104" ht="16.5" spans="2:9">
-      <c r="B104" s="15"/>
-      <c r="C104" s="17"/>
-      <c r="D104" s="17"/>
-      <c r="E104" s="16"/>
-      <c r="F104" s="16"/>
-      <c r="G104" s="21"/>
-      <c r="H104" s="17"/>
-      <c r="I104" s="16"/>
-    </row>
-    <row r="105" ht="16.5" spans="2:9">
-      <c r="B105" s="15"/>
-      <c r="C105" s="17"/>
-      <c r="E105" s="16"/>
-      <c r="F105" s="16"/>
-      <c r="G105" s="21"/>
-      <c r="H105" s="17"/>
-      <c r="I105" s="16"/>
-    </row>
-    <row r="106" ht="16.5" spans="2:9">
-      <c r="B106" s="15"/>
-      <c r="C106" s="17"/>
-      <c r="E106" s="16"/>
-      <c r="F106" s="16"/>
-      <c r="G106" s="21"/>
-      <c r="H106" s="17"/>
-      <c r="I106" s="16"/>
-    </row>
-    <row r="107" ht="16.5" spans="2:9">
-      <c r="B107" s="15" t="s">
+      <c r="H102" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="C107" s="16">
-        <v>3040111</v>
-      </c>
-      <c r="E107" s="16"/>
-      <c r="F107" s="16"/>
-      <c r="G107" s="21"/>
-      <c r="H107" s="17"/>
-      <c r="I107" s="16"/>
-    </row>
-    <row r="108" ht="16.5" spans="2:9">
-      <c r="B108" s="15"/>
-      <c r="C108" s="16"/>
-      <c r="E108" s="16"/>
-      <c r="F108" s="16"/>
-      <c r="G108" s="21"/>
-      <c r="H108" s="17"/>
-      <c r="I108" s="16"/>
-    </row>
-    <row r="109" ht="16.5" spans="2:9">
-      <c r="B109" s="15"/>
-      <c r="C109" s="17"/>
-      <c r="F109" s="16"/>
-      <c r="G109" s="21"/>
-      <c r="H109" s="17"/>
-      <c r="I109" s="16"/>
-    </row>
-    <row r="110" ht="16.5" spans="2:9">
-      <c r="B110" s="15"/>
-      <c r="C110" s="17"/>
-      <c r="F110" s="16"/>
-      <c r="G110" s="21"/>
-      <c r="H110" s="17"/>
-      <c r="I110" s="16"/>
-    </row>
-    <row r="111" ht="16.5" spans="2:9">
-      <c r="B111" s="15"/>
-      <c r="C111" s="17"/>
-      <c r="F111" s="16"/>
-      <c r="G111" s="21"/>
-      <c r="H111" s="17"/>
-      <c r="I111" s="16"/>
-    </row>
-    <row r="112" ht="16.5" spans="2:9">
-      <c r="B112" s="15"/>
-      <c r="C112" s="17"/>
-      <c r="F112" s="16"/>
-      <c r="G112" s="21"/>
-      <c r="H112" s="17"/>
-      <c r="I112" s="16"/>
-    </row>
-    <row r="113" ht="16.5" spans="6:9">
-      <c r="F113" s="16"/>
-      <c r="G113" s="21"/>
-      <c r="H113" s="17"/>
-      <c r="I113" s="16"/>
-    </row>
-    <row r="114" ht="16.5" spans="6:9">
-      <c r="F114" s="16"/>
-      <c r="G114" s="21"/>
-      <c r="H114" s="17"/>
-      <c r="I114" s="16"/>
-    </row>
-    <row r="115" ht="16.5" spans="6:6">
-      <c r="F115" s="16"/>
-    </row>
-    <row r="116" spans="6:6">
-      <c r="F116" s="26"/>
-    </row>
-    <row r="117" spans="6:6">
-      <c r="F117" s="26"/>
-    </row>
-    <row r="118" spans="6:6">
-      <c r="F118" s="26"/>
-    </row>
-    <row r="119" spans="6:6">
-      <c r="F119" s="26"/>
-    </row>
-    <row r="120" spans="6:6">
-      <c r="F120" s="26"/>
-    </row>
-    <row r="121" spans="6:6">
-      <c r="F121" s="26"/>
-    </row>
-    <row r="122" spans="6:6">
-      <c r="F122" s="26"/>
-    </row>
-    <row r="123" spans="6:6">
-      <c r="F123" s="26"/>
-    </row>
-    <row r="124" spans="6:6">
-      <c r="F124" s="26"/>
-    </row>
-    <row r="125" spans="6:6">
-      <c r="F125" s="26"/>
-    </row>
-    <row r="126" spans="6:6">
-      <c r="F126" s="26"/>
-    </row>
-    <row r="127" spans="6:6">
-      <c r="F127" s="26"/>
-    </row>
-    <row r="128" spans="6:6">
-      <c r="F128" s="26"/>
-    </row>
-    <row r="129" spans="6:6">
-      <c r="F129" s="26"/>
-    </row>
-    <row r="130" spans="6:6">
-      <c r="F130" s="26"/>
-    </row>
-    <row r="131" spans="6:6">
-      <c r="F131" s="26"/>
-    </row>
-    <row r="132" spans="6:6">
-      <c r="F132" s="26"/>
-    </row>
-    <row r="133" spans="6:6">
-      <c r="F133" s="26"/>
-    </row>
-    <row r="134" spans="6:6">
-      <c r="F134" s="26"/>
-    </row>
-    <row r="135" spans="6:6">
-      <c r="F135" s="26"/>
-    </row>
-    <row r="136" spans="6:6">
-      <c r="F136" s="26"/>
-    </row>
-    <row r="137" spans="6:6">
-      <c r="F137" s="26"/>
-    </row>
-    <row r="138" spans="6:6">
-      <c r="F138" s="26"/>
-    </row>
-    <row r="139" spans="6:6">
-      <c r="F139" s="26"/>
-    </row>
-    <row r="140" spans="6:6">
-      <c r="F140" s="26"/>
-    </row>
-    <row r="141" spans="6:6">
-      <c r="F141" s="26"/>
-    </row>
-    <row r="142" spans="6:6">
-      <c r="F142" s="26"/>
-    </row>
-    <row r="143" spans="6:6">
-      <c r="F143" s="26"/>
-    </row>
-    <row r="144" spans="6:6">
-      <c r="F144" s="26"/>
-    </row>
-    <row r="145" spans="6:6">
-      <c r="F145" s="26"/>
-    </row>
-    <row r="146" spans="6:6">
-      <c r="F146" s="26"/>
-    </row>
-    <row r="147" spans="6:6">
-      <c r="F147" s="26"/>
-    </row>
-    <row r="148" spans="6:6">
-      <c r="F148" s="26"/>
-    </row>
-    <row r="149" spans="6:6">
-      <c r="F149" s="26"/>
-    </row>
-    <row r="150" spans="6:6">
-      <c r="F150" s="26"/>
-    </row>
-    <row r="151" spans="6:6">
-      <c r="F151" s="26"/>
-    </row>
-    <row r="152" spans="6:6">
-      <c r="F152" s="26"/>
-    </row>
-    <row r="153" spans="6:6">
-      <c r="F153" s="26"/>
-    </row>
-    <row r="154" spans="6:6">
-      <c r="F154" s="26"/>
+      <c r="I102" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J102" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L102" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" ht="16.5" spans="2:10">
+      <c r="B103" s="17"/>
+      <c r="C103" s="20"/>
+      <c r="D103" s="29"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="18"/>
+      <c r="G103" s="18"/>
+      <c r="H103" s="24"/>
+      <c r="I103" s="20"/>
+      <c r="J103" s="18"/>
+    </row>
+    <row r="104" ht="16.5" spans="2:10">
+      <c r="B104" s="17"/>
+      <c r="C104" s="20"/>
+      <c r="D104" s="20"/>
+      <c r="E104" s="20"/>
+      <c r="F104" s="18"/>
+      <c r="G104" s="18"/>
+      <c r="H104" s="19"/>
+      <c r="I104" s="20"/>
+      <c r="J104" s="18"/>
+    </row>
+    <row r="105" ht="16.5" spans="2:10">
+      <c r="B105" s="17"/>
+      <c r="C105" s="20"/>
+      <c r="F105" s="18"/>
+      <c r="G105" s="18"/>
+      <c r="H105" s="19"/>
+      <c r="I105" s="20"/>
+      <c r="J105" s="18"/>
+    </row>
+    <row r="106" ht="16.5" spans="2:10">
+      <c r="B106" s="17"/>
+      <c r="C106" s="20"/>
+      <c r="F106" s="18"/>
+      <c r="G106" s="18"/>
+      <c r="H106" s="19"/>
+      <c r="I106" s="20"/>
+      <c r="J106" s="18"/>
+    </row>
+    <row r="107" ht="16.5" spans="2:10">
+      <c r="B107" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C107" s="18">
+        <v>2040111</v>
+      </c>
+      <c r="F107" s="18"/>
+      <c r="G107" s="18"/>
+      <c r="H107" s="19"/>
+      <c r="I107" s="20"/>
+      <c r="J107" s="18"/>
+    </row>
+    <row r="108" ht="16.5" spans="2:10">
+      <c r="B108" s="17"/>
+      <c r="C108" s="18"/>
+      <c r="F108" s="18"/>
+      <c r="G108" s="18"/>
+      <c r="H108" s="19"/>
+      <c r="I108" s="20"/>
+      <c r="J108" s="18"/>
+    </row>
+    <row r="109" ht="16.5" spans="2:10">
+      <c r="B109" s="17"/>
+      <c r="C109" s="20"/>
+      <c r="G109" s="18"/>
+      <c r="H109" s="19"/>
+      <c r="I109" s="20"/>
+      <c r="J109" s="18"/>
+    </row>
+    <row r="110" ht="16.5" spans="2:10">
+      <c r="B110" s="17"/>
+      <c r="C110" s="20"/>
+      <c r="G110" s="18"/>
+      <c r="H110" s="19"/>
+      <c r="I110" s="20"/>
+      <c r="J110" s="18"/>
+    </row>
+    <row r="111" ht="16.5" spans="2:10">
+      <c r="B111" s="17"/>
+      <c r="C111" s="20"/>
+      <c r="G111" s="18"/>
+      <c r="H111" s="19"/>
+      <c r="I111" s="20"/>
+      <c r="J111" s="18"/>
+    </row>
+    <row r="112" ht="16.5" spans="2:10">
+      <c r="B112" s="17"/>
+      <c r="C112" s="20"/>
+      <c r="G112" s="18"/>
+      <c r="H112" s="19"/>
+      <c r="I112" s="20"/>
+      <c r="J112" s="18"/>
+    </row>
+    <row r="113" ht="16.5" spans="7:10">
+      <c r="G113" s="18"/>
+      <c r="H113" s="19"/>
+      <c r="I113" s="20"/>
+      <c r="J113" s="18"/>
+    </row>
+    <row r="114" ht="16.5" spans="7:10">
+      <c r="G114" s="18"/>
+      <c r="H114" s="19"/>
+      <c r="I114" s="20"/>
+      <c r="J114" s="18"/>
+    </row>
+    <row r="115" ht="16.5" spans="7:7">
+      <c r="G115" s="18"/>
+    </row>
+    <row r="116" spans="7:7">
+      <c r="G116" s="28"/>
+    </row>
+    <row r="117" spans="7:7">
+      <c r="G117" s="28"/>
+    </row>
+    <row r="118" spans="7:7">
+      <c r="G118" s="28"/>
+    </row>
+    <row r="119" spans="7:7">
+      <c r="G119" s="28"/>
+    </row>
+    <row r="120" spans="7:7">
+      <c r="G120" s="28"/>
+    </row>
+    <row r="121" spans="7:7">
+      <c r="G121" s="28"/>
+    </row>
+    <row r="122" spans="7:7">
+      <c r="G122" s="28"/>
+    </row>
+    <row r="123" spans="7:7">
+      <c r="G123" s="28"/>
+    </row>
+    <row r="124" spans="7:7">
+      <c r="G124" s="28"/>
+    </row>
+    <row r="125" spans="7:7">
+      <c r="G125" s="28"/>
+    </row>
+    <row r="126" spans="7:7">
+      <c r="G126" s="28"/>
+    </row>
+    <row r="127" spans="7:7">
+      <c r="G127" s="28"/>
+    </row>
+    <row r="128" spans="7:7">
+      <c r="G128" s="28"/>
+    </row>
+    <row r="129" spans="7:7">
+      <c r="G129" s="28"/>
+    </row>
+    <row r="130" spans="7:7">
+      <c r="G130" s="28"/>
+    </row>
+    <row r="131" spans="7:7">
+      <c r="G131" s="28"/>
+    </row>
+    <row r="132" spans="7:7">
+      <c r="G132" s="28"/>
+    </row>
+    <row r="133" spans="7:7">
+      <c r="G133" s="28"/>
+    </row>
+    <row r="134" spans="7:7">
+      <c r="G134" s="28"/>
+    </row>
+    <row r="135" spans="7:7">
+      <c r="G135" s="28"/>
+    </row>
+    <row r="136" spans="7:7">
+      <c r="G136" s="28"/>
+    </row>
+    <row r="137" spans="7:7">
+      <c r="G137" s="28"/>
+    </row>
+    <row r="138" spans="7:7">
+      <c r="G138" s="28"/>
+    </row>
+    <row r="139" spans="7:7">
+      <c r="G139" s="28"/>
+    </row>
+    <row r="140" spans="7:7">
+      <c r="G140" s="28"/>
+    </row>
+    <row r="141" spans="7:7">
+      <c r="G141" s="28"/>
+    </row>
+    <row r="142" spans="7:7">
+      <c r="G142" s="28"/>
+    </row>
+    <row r="143" spans="7:7">
+      <c r="G143" s="28"/>
+    </row>
+    <row r="144" spans="7:7">
+      <c r="G144" s="28"/>
+    </row>
+    <row r="145" spans="7:7">
+      <c r="G145" s="28"/>
+    </row>
+    <row r="146" spans="7:7">
+      <c r="G146" s="28"/>
+    </row>
+    <row r="147" spans="7:7">
+      <c r="G147" s="28"/>
+    </row>
+    <row r="148" spans="7:7">
+      <c r="G148" s="28"/>
+    </row>
+    <row r="149" spans="7:7">
+      <c r="G149" s="28"/>
+    </row>
+    <row r="150" spans="7:7">
+      <c r="G150" s="28"/>
+    </row>
+    <row r="151" spans="7:7">
+      <c r="G151" s="28"/>
+    </row>
+    <row r="152" spans="7:7">
+      <c r="G152" s="28"/>
+    </row>
+    <row r="153" spans="7:7">
+      <c r="G153" s="28"/>
+    </row>
+    <row r="154" spans="7:7">
+      <c r="G154" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5026,70 +5244,70 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:22">
       <c r="A1" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:22">
@@ -5142,10 +5360,10 @@
         <v>11</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>11</v>
@@ -5157,75 +5375,75 @@
         <v>11</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:22">
       <c r="A3" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="16.5" spans="1:22">
@@ -5293,7 +5511,7 @@
         <v>1</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16.5" spans="1:22">
@@ -5338,7 +5556,7 @@
         <v>1</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="16.5" spans="1:22">
@@ -5385,7 +5603,7 @@
         <v>1</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="16.5" spans="1:22">
@@ -5432,7 +5650,7 @@
         <v>1</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="16.5" spans="1:22">
@@ -5479,7 +5697,7 @@
         <v>1</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="16.5" spans="1:22">
@@ -5526,7 +5744,7 @@
         <v>1</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="16.5" spans="1:22">
@@ -5573,7 +5791,7 @@
         <v>1</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/配置表/Dialogue.xlsx
+++ b/配置表/Dialogue.xlsx
@@ -1970,7 +1970,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1994,15 +1994,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2040,9 +2034,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2572,8 +2563,8 @@
   <sheetPr/>
   <dimension ref="A1:Q154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>
@@ -2599,7 +2590,7 @@
       <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13"/>
+      <c r="D1" s="5"/>
       <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
@@ -2612,21 +2603,21 @@
       <c r="H1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="26"/>
+      <c r="M1" s="24"/>
       <c r="N1" s="9"/>
-      <c r="O1" s="26"/>
+      <c r="O1" s="24"/>
     </row>
     <row r="2" s="10" customFormat="1" ht="16.5" spans="1:15">
       <c r="A2" s="10" t="s">
@@ -2638,7 +2629,7 @@
       <c r="C2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="13"/>
+      <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
@@ -2651,40 +2642,40 @@
       <c r="H2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="14" t="s">
         <v>16</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
     </row>
     <row r="3" s="10" customFormat="1" ht="17.1" customHeight="1" spans="1:16">
       <c r="A3" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="12"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
       <c r="N3" s="10"/>
-      <c r="O3" s="16"/>
+      <c r="O3" s="14"/>
       <c r="P3" s="12"/>
     </row>
     <row r="4" s="10" customFormat="1" ht="16.5" spans="1:17">
@@ -2694,2535 +2685,2535 @@
       <c r="B4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="13" t="s">
         <v>22</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="L4" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="16"/>
+      <c r="M4" s="14"/>
       <c r="N4" s="10"/>
-      <c r="O4" s="16"/>
+      <c r="O4" s="14"/>
       <c r="P4" s="12"/>
       <c r="Q4" s="12"/>
     </row>
     <row r="5" s="11" customFormat="1" ht="16.5" spans="2:15">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="16">
         <v>201011</v>
       </c>
-      <c r="D5" s="19">
-        <v>2000000</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="20" t="s">
+      <c r="D5" s="17">
+        <v>2000001</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="20"/>
-      <c r="L5" s="27">
-        <v>1</v>
-      </c>
-      <c r="M5" s="20"/>
-      <c r="O5" s="20"/>
+      <c r="I5" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="18"/>
+      <c r="L5" s="25">
+        <v>1</v>
+      </c>
+      <c r="M5" s="18"/>
+      <c r="O5" s="18"/>
     </row>
     <row r="6" s="11" customFormat="1" ht="16.5" spans="2:15">
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19">
-        <v>2000001</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="22" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17">
+        <v>2000002</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" s="20"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="20"/>
-      <c r="O6" s="20"/>
+      <c r="I6" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="18"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="18"/>
+      <c r="O6" s="18"/>
     </row>
     <row r="7" s="11" customFormat="1" ht="16.5" spans="2:15">
-      <c r="B7" s="17"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="19">
-        <v>2000002</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="22" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="17">
+        <v>2000003</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="20"/>
-      <c r="L7" s="27">
-        <v>1</v>
-      </c>
-      <c r="M7" s="20"/>
-      <c r="O7" s="20"/>
+      <c r="I7" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="18"/>
+      <c r="L7" s="25">
+        <v>1</v>
+      </c>
+      <c r="M7" s="18"/>
+      <c r="O7" s="18"/>
     </row>
     <row r="8" s="11" customFormat="1" ht="16.5" spans="2:15">
-      <c r="B8" s="17"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="19">
-        <v>2000003</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="20" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="17">
+        <v>2000004</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="I8" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" s="20"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="20"/>
-      <c r="O8" s="20"/>
+      <c r="I8" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="18"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="18"/>
+      <c r="O8" s="18"/>
     </row>
     <row r="9" ht="16.5" spans="2:17">
-      <c r="B9" s="17"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="19">
-        <v>2000004</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="20" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="17">
+        <v>2000005</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="I9" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="K9" s="20"/>
-      <c r="L9" s="27">
-        <v>1</v>
-      </c>
-      <c r="M9" s="20"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
+      <c r="I9" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="18"/>
+      <c r="L9" s="25">
+        <v>1</v>
+      </c>
+      <c r="M9" s="18"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
     </row>
     <row r="10" ht="16.5" spans="2:17">
-      <c r="B10" s="17"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="19">
-        <v>2000005</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="20" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="17">
+        <v>2000006</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="21" t="s">
+      <c r="H10" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" s="20"/>
-      <c r="L10" s="27">
-        <v>1</v>
-      </c>
-      <c r="M10" s="20"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
+      <c r="I10" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="18"/>
+      <c r="L10" s="25">
+        <v>1</v>
+      </c>
+      <c r="M10" s="18"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
     </row>
     <row r="11" ht="16.5" spans="2:17">
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="16">
         <v>2010211</v>
       </c>
-      <c r="D11" s="19">
-        <v>2000006</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="20" t="s">
+      <c r="D11" s="17">
+        <v>2000007</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="18" t="s">
         <v>53</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="K11" s="20"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="20"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
+      <c r="I11" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="18"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="18"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
     </row>
     <row r="12" ht="16.5" spans="2:17">
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19">
-        <v>2000007</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="20" t="s">
+      <c r="B12" s="15"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17">
+        <v>2000008</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="18" t="s">
         <v>56</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="I12" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="K12" s="20"/>
-      <c r="L12" s="27">
-        <v>1</v>
-      </c>
-      <c r="M12" s="20"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
+      <c r="I12" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="18"/>
+      <c r="L12" s="25">
+        <v>1</v>
+      </c>
+      <c r="M12" s="18"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
     </row>
     <row r="13" ht="16.5" spans="2:17">
-      <c r="B13" s="17"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="19">
-        <v>2000008</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="20" t="s">
+      <c r="B13" s="15"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="17">
+        <v>2000009</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="18" t="s">
         <v>59</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H13" s="21" t="s">
+      <c r="H13" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="I13" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J13" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="K13" s="20"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="20"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
+      <c r="I13" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13" s="18"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="18"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
     </row>
     <row r="14" ht="16.5" spans="2:17">
-      <c r="B14" s="17"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="19">
-        <v>2000009</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="18" t="s">
+      <c r="B14" s="15"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="17">
+        <v>2000010</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="H14" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="K14" s="20"/>
-      <c r="L14" s="27">
-        <v>1</v>
-      </c>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
+      <c r="I14" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="18"/>
+      <c r="L14" s="25">
+        <v>1</v>
+      </c>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
     </row>
     <row r="15" ht="16.5" spans="2:17">
-      <c r="B15" s="17"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="19">
-        <v>2000010</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="18" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="17">
+        <v>2000011</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="H15" s="21" t="s">
+      <c r="H15" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="I15" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="K15" s="20"/>
-      <c r="L15" s="27"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
+      <c r="I15" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" s="18"/>
+      <c r="L15" s="25"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
     </row>
     <row r="16" ht="16.5" spans="2:17">
-      <c r="B16" s="17"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="19">
-        <v>2000011</v>
+      <c r="B16" s="15"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="17">
+        <v>2000012</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="H16" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="I16" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J16" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="K16" s="20"/>
-      <c r="L16" s="27">
-        <v>1</v>
-      </c>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
+      <c r="I16" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="18"/>
+      <c r="L16" s="25">
+        <v>1</v>
+      </c>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
     </row>
     <row r="17" ht="16.5" spans="2:17">
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="16">
         <v>2010311</v>
       </c>
-      <c r="D17" s="19">
-        <v>2000012</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="18" t="s">
+      <c r="D17" s="17">
+        <v>2000013</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="H17" s="21" t="s">
+      <c r="H17" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="I17" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J17" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="K17" s="20"/>
-      <c r="L17" s="27">
-        <v>1</v>
-      </c>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
+      <c r="I17" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" s="18"/>
+      <c r="L17" s="25">
+        <v>1</v>
+      </c>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
     </row>
     <row r="18" ht="16.5" spans="2:17">
-      <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19">
-        <v>2000013</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="18" t="s">
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="17">
+        <v>2000014</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="H18" s="21" t="s">
+      <c r="H18" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="I18" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J18" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="K18" s="20"/>
-      <c r="L18" s="27">
-        <v>1</v>
-      </c>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
+      <c r="I18" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" s="18"/>
+      <c r="L18" s="25">
+        <v>1</v>
+      </c>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
     </row>
     <row r="19" ht="16.5" spans="2:17">
-      <c r="B19" s="17"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="19">
-        <v>2000014</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="18" t="s">
+      <c r="B19" s="15"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="17">
+        <v>2000015</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="H19" s="21" t="s">
+      <c r="H19" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="I19" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="K19" s="20"/>
-      <c r="L19" s="27">
-        <v>1</v>
-      </c>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
+      <c r="I19" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19" s="18"/>
+      <c r="L19" s="25">
+        <v>1</v>
+      </c>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
     </row>
     <row r="20" ht="16.5" spans="2:17">
-      <c r="B20" s="17"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="19">
-        <v>2000015</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="18" t="s">
+      <c r="B20" s="15"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="17">
+        <v>2000016</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="H20" s="21" t="s">
+      <c r="H20" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="I20" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J20" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="K20" s="20"/>
-      <c r="L20" s="27">
-        <v>1</v>
-      </c>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
+      <c r="I20" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20" s="18"/>
+      <c r="L20" s="25">
+        <v>1</v>
+      </c>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
     </row>
     <row r="21" ht="16.5" spans="2:17">
-      <c r="B21" s="17"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="19">
-        <v>2000016</v>
+      <c r="B21" s="15"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="17">
+        <v>2000017</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="G21" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="H21" s="21" t="s">
+      <c r="H21" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="I21" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J21" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="K21" s="20"/>
-      <c r="L21" s="27"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
+      <c r="I21" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K21" s="18"/>
+      <c r="L21" s="25"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
     </row>
     <row r="22" ht="16.5" spans="2:17">
-      <c r="B22" s="17"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="19">
-        <v>2000017</v>
+      <c r="B22" s="15"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="17">
+        <v>2000018</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="G22" s="19" t="s">
+      <c r="G22" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="H22" s="21" t="s">
+      <c r="H22" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="I22" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J22" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="K22" s="20"/>
-      <c r="L22" s="27">
-        <v>1</v>
-      </c>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
+      <c r="I22" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K22" s="18"/>
+      <c r="L22" s="25">
+        <v>1</v>
+      </c>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
     </row>
     <row r="23" ht="16.5" spans="2:17">
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="16">
         <v>2010411</v>
       </c>
-      <c r="D23" s="19">
-        <v>2000018</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" s="18" t="s">
+      <c r="D23" s="17">
+        <v>2000019</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="G23" s="19" t="s">
+      <c r="G23" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="H23" s="21" t="s">
+      <c r="H23" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="I23" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J23" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="K23" s="20"/>
-      <c r="L23" s="27">
-        <v>1</v>
-      </c>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
+      <c r="I23" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" s="18"/>
+      <c r="L23" s="25">
+        <v>1</v>
+      </c>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
     </row>
     <row r="24" ht="16.5" spans="2:17">
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="19">
-        <v>2000019</v>
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="17">
+        <v>2000020</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="G24" s="19" t="s">
+      <c r="G24" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="H24" s="21" t="s">
+      <c r="H24" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="I24" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J24" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="K24" s="20"/>
-      <c r="L24" s="27"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
+      <c r="I24" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K24" s="18"/>
+      <c r="L24" s="25"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
     </row>
     <row r="25" ht="16.5" spans="2:17">
-      <c r="B25" s="17"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="19">
-        <v>2000020</v>
+      <c r="B25" s="15"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="17">
+        <v>2000021</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F25" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="G25" s="19" t="s">
+      <c r="G25" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H25" s="21" t="s">
+      <c r="H25" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="I25" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J25" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="K25" s="20"/>
-      <c r="L25" s="27">
-        <v>1</v>
-      </c>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="28"/>
+      <c r="I25" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K25" s="18"/>
+      <c r="L25" s="25">
+        <v>1</v>
+      </c>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
     </row>
     <row r="26" ht="16.5" spans="2:17">
-      <c r="B26" s="17"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="19">
-        <v>2000021</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F26" s="18" t="s">
+      <c r="B26" s="15"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="17">
+        <v>2000022</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="G26" s="19" t="s">
+      <c r="G26" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="H26" s="21" t="s">
+      <c r="H26" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="I26" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J26" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="K26" s="18"/>
-      <c r="L26" s="27"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="28"/>
+      <c r="I26" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K26" s="16"/>
+      <c r="L26" s="25"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
     </row>
     <row r="27" ht="16.5" spans="2:17">
-      <c r="B27" s="17"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="19">
-        <v>2000022</v>
-      </c>
-      <c r="E27" s="20" t="s">
+      <c r="B27" s="15"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="17">
+        <v>2000023</v>
+      </c>
+      <c r="E27" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="18" t="s">
+      <c r="F27" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="G27" s="19" t="s">
+      <c r="G27" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="H27" s="21" t="s">
+      <c r="H27" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="I27" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J27" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="K27" s="18"/>
-      <c r="L27" s="27">
-        <v>1</v>
-      </c>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="28"/>
+      <c r="I27" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K27" s="16"/>
+      <c r="L27" s="25">
+        <v>1</v>
+      </c>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
     </row>
     <row r="28" ht="16.5" spans="2:17">
-      <c r="B28" s="17"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="27"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="28"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="25"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
     </row>
     <row r="29" ht="16.5" spans="2:17">
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="16">
         <v>2010511</v>
       </c>
-      <c r="D29" s="19">
-        <v>2000023</v>
+      <c r="D29" s="17">
+        <v>2000024</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="18" t="s">
+      <c r="F29" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="G29" s="19" t="s">
+      <c r="G29" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="H29" s="21" t="s">
+      <c r="H29" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="I29" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J29" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="K29" s="18"/>
-      <c r="L29" s="27"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="28"/>
+      <c r="I29" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J29" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K29" s="16"/>
+      <c r="L29" s="25"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
     </row>
     <row r="30" ht="16.5" spans="2:17">
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="19">
-        <v>2000024</v>
-      </c>
-      <c r="E30" s="20" t="s">
+      <c r="B30" s="15"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="17">
+        <v>2000025</v>
+      </c>
+      <c r="E30" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="18" t="s">
+      <c r="F30" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="G30" s="19" t="s">
+      <c r="G30" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="H30" s="21" t="s">
+      <c r="H30" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="I30" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J30" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="K30" s="18"/>
-      <c r="L30" s="27">
-        <v>1</v>
-      </c>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="28"/>
+      <c r="I30" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K30" s="16"/>
+      <c r="L30" s="25">
+        <v>1</v>
+      </c>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
     </row>
     <row r="31" ht="16.5" spans="2:17">
-      <c r="B31" s="17"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="19">
-        <v>2000025</v>
+      <c r="B31" s="15"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="17">
+        <v>2000026</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F31" s="18" t="s">
+      <c r="F31" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="G31" s="19" t="s">
+      <c r="G31" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="H31" s="21" t="s">
+      <c r="H31" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="I31" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J31" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="K31" s="18"/>
-      <c r="L31" s="27"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="28"/>
+      <c r="I31" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K31" s="16"/>
+      <c r="L31" s="25"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
     </row>
     <row r="32" ht="16.5" spans="2:17">
-      <c r="B32" s="17"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="19">
-        <v>2000026</v>
-      </c>
-      <c r="E32" s="20" t="s">
+      <c r="B32" s="15"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="17">
+        <v>2000027</v>
+      </c>
+      <c r="E32" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F32" s="18" t="s">
+      <c r="F32" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="G32" s="19" t="s">
+      <c r="G32" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="H32" s="21" t="s">
+      <c r="H32" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="I32" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J32" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="K32" s="18"/>
-      <c r="L32" s="27">
-        <v>1</v>
-      </c>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="28"/>
+      <c r="I32" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J32" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K32" s="16"/>
+      <c r="L32" s="25">
+        <v>1</v>
+      </c>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
     </row>
     <row r="33" ht="16.5" spans="2:17">
-      <c r="B33" s="17"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="19">
-        <v>2000027</v>
+      <c r="B33" s="15"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="17">
+        <v>2000028</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F33" s="18" t="s">
+      <c r="F33" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="G33" s="19" t="s">
+      <c r="G33" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="H33" s="21" t="s">
+      <c r="H33" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="I33" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J33" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="K33" s="18"/>
-      <c r="L33" s="27"/>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="28"/>
+      <c r="I33" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K33" s="16"/>
+      <c r="L33" s="25"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
     </row>
     <row r="34" ht="16.5" spans="2:17">
-      <c r="B34" s="17"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="27"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="28"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="25"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="26"/>
     </row>
     <row r="35" ht="16.5" spans="2:17">
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C35" s="16">
         <v>2010611</v>
       </c>
-      <c r="D35" s="19">
-        <v>2000028</v>
+      <c r="D35" s="17">
+        <v>2000029</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F35" s="18" t="s">
+      <c r="F35" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="G35" s="19" t="s">
+      <c r="G35" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="H35" s="21" t="s">
+      <c r="H35" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="I35" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J35" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="K35" s="18"/>
-      <c r="L35" s="27"/>
-      <c r="P35" s="28"/>
-      <c r="Q35" s="28"/>
+      <c r="I35" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J35" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K35" s="16"/>
+      <c r="L35" s="25"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="26"/>
     </row>
     <row r="36" ht="16.5" spans="2:17">
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="19">
-        <v>2000029</v>
-      </c>
-      <c r="E36" s="20" t="s">
+      <c r="B36" s="15"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="17">
+        <v>2000030</v>
+      </c>
+      <c r="E36" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F36" s="18" t="s">
+      <c r="F36" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="G36" s="19" t="s">
+      <c r="G36" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="H36" s="21" t="s">
+      <c r="H36" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="I36" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J36" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="K36" s="18"/>
-      <c r="L36" s="27">
-        <v>1</v>
-      </c>
-      <c r="P36" s="28"/>
-      <c r="Q36" s="28"/>
+      <c r="I36" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J36" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K36" s="16"/>
+      <c r="L36" s="25">
+        <v>1</v>
+      </c>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="26"/>
     </row>
     <row r="37" ht="16.5" spans="2:17">
-      <c r="B37" s="17"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="19">
-        <v>2000030</v>
-      </c>
-      <c r="E37" s="20" t="s">
+      <c r="B37" s="15"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="17">
+        <v>2000031</v>
+      </c>
+      <c r="E37" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F37" s="18" t="s">
+      <c r="F37" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="G37" s="19" t="s">
+      <c r="G37" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="H37" s="21" t="s">
+      <c r="H37" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="I37" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J37" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="K37" s="18"/>
-      <c r="L37" s="27">
-        <v>1</v>
-      </c>
-      <c r="P37" s="28"/>
-      <c r="Q37" s="28"/>
+      <c r="I37" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J37" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K37" s="16"/>
+      <c r="L37" s="25">
+        <v>1</v>
+      </c>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="26"/>
     </row>
     <row r="38" ht="16.5" spans="2:17">
-      <c r="B38" s="17"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="27"/>
-      <c r="P38" s="28"/>
-      <c r="Q38" s="28"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="25"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="26"/>
     </row>
     <row r="39" ht="16.5" spans="2:17">
-      <c r="B39" s="17"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="27"/>
-      <c r="P39" s="28"/>
-      <c r="Q39" s="28"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="25"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="26"/>
     </row>
     <row r="40" ht="16.5" spans="2:17">
-      <c r="B40" s="17"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="27"/>
-      <c r="P40" s="28"/>
-      <c r="Q40" s="28"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="25"/>
+      <c r="P40" s="26"/>
+      <c r="Q40" s="26"/>
     </row>
     <row r="41" ht="16.5" spans="2:17">
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C41" s="18">
+      <c r="C41" s="16">
         <v>2010711</v>
       </c>
-      <c r="D41" s="19">
-        <v>2000031</v>
+      <c r="D41" s="17">
+        <v>2000032</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F41" s="18" t="s">
+      <c r="F41" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="G41" s="19" t="s">
+      <c r="G41" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="H41" s="21" t="s">
+      <c r="H41" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="I41" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J41" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="K41" s="18"/>
-      <c r="L41" s="27"/>
-      <c r="P41" s="28"/>
-      <c r="Q41" s="28"/>
+      <c r="I41" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J41" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K41" s="16"/>
+      <c r="L41" s="25"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="26"/>
     </row>
     <row r="42" ht="16.5" spans="2:17">
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="19">
-        <v>2000032</v>
-      </c>
-      <c r="E42" s="20" t="s">
+      <c r="B42" s="15"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="17">
+        <v>2000033</v>
+      </c>
+      <c r="E42" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F42" s="18" t="s">
+      <c r="F42" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="G42" s="19" t="s">
+      <c r="G42" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="H42" s="21" t="s">
+      <c r="H42" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="I42" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J42" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="K42" s="18"/>
-      <c r="L42" s="27">
-        <v>1</v>
-      </c>
-      <c r="P42" s="28"/>
-      <c r="Q42" s="28"/>
+      <c r="I42" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J42" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K42" s="16"/>
+      <c r="L42" s="25">
+        <v>1</v>
+      </c>
+      <c r="P42" s="26"/>
+      <c r="Q42" s="26"/>
     </row>
     <row r="43" ht="16.5" spans="2:17">
-      <c r="B43" s="17"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="27"/>
-      <c r="P43" s="28"/>
-      <c r="Q43" s="28"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="25"/>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="26"/>
     </row>
     <row r="44" ht="16.5" spans="2:17">
-      <c r="B44" s="17"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="27"/>
-      <c r="P44" s="28"/>
-      <c r="Q44" s="28"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="25"/>
+      <c r="P44" s="26"/>
+      <c r="Q44" s="26"/>
     </row>
     <row r="45" ht="16.5" spans="2:17">
-      <c r="B45" s="17"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="27"/>
-      <c r="P45" s="28"/>
-      <c r="Q45" s="28"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="25"/>
+      <c r="P45" s="26"/>
+      <c r="Q45" s="26"/>
     </row>
     <row r="46" ht="16.5" spans="2:17">
-      <c r="B46" s="17"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="18"/>
-      <c r="L46" s="27"/>
-      <c r="P46" s="28"/>
-      <c r="Q46" s="28"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="25"/>
+      <c r="P46" s="26"/>
+      <c r="Q46" s="26"/>
     </row>
     <row r="47" ht="16.5" spans="2:17">
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="C47" s="18">
+      <c r="C47" s="16">
         <v>2010811</v>
       </c>
-      <c r="D47" s="19">
-        <v>2000033</v>
+      <c r="D47" s="17">
+        <v>2000034</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F47" s="18" t="s">
+      <c r="F47" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="G47" s="18" t="s">
+      <c r="G47" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="H47" s="24" t="s">
+      <c r="H47" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="I47" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J47" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="K47" s="18"/>
-      <c r="L47" s="27"/>
-      <c r="P47" s="28"/>
-      <c r="Q47" s="28"/>
+      <c r="I47" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J47" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K47" s="16"/>
+      <c r="L47" s="25"/>
+      <c r="P47" s="26"/>
+      <c r="Q47" s="26"/>
     </row>
     <row r="48" ht="16.5" spans="2:12">
-      <c r="B48" s="17"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="19">
-        <v>2000034</v>
-      </c>
-      <c r="E48" s="20" t="s">
+      <c r="B48" s="15"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="17">
+        <v>2000035</v>
+      </c>
+      <c r="E48" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F48" s="18" t="s">
+      <c r="F48" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="G48" s="18" t="s">
+      <c r="G48" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="H48" s="24" t="s">
+      <c r="H48" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="I48" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J48" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="L48" s="27">
+      <c r="I48" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J48" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L48" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="49" ht="16.5" spans="2:12">
-      <c r="B49" s="17"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="19">
-        <v>2000035</v>
+      <c r="B49" s="15"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="17">
+        <v>2000036</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F49" s="18" t="s">
+      <c r="F49" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="G49" s="18" t="s">
+      <c r="G49" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="H49" s="24" t="s">
+      <c r="H49" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="I49" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J49" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="L49" s="27"/>
+      <c r="I49" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J49" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L49" s="25"/>
     </row>
     <row r="50" ht="16.5" spans="2:12">
-      <c r="B50" s="17"/>
-      <c r="C50" s="20"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="18"/>
-      <c r="L50" s="27"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="18"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="16"/>
+      <c r="L50" s="25"/>
     </row>
     <row r="51" ht="16.5" spans="2:12">
-      <c r="B51" s="17"/>
-      <c r="C51" s="20"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="18"/>
-      <c r="L51" s="27"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="18"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="16"/>
+      <c r="L51" s="25"/>
     </row>
     <row r="52" ht="16.5" spans="2:12">
-      <c r="B52" s="17"/>
-      <c r="C52" s="20"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="18"/>
-      <c r="L52" s="27"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="18"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="16"/>
+      <c r="L52" s="25"/>
     </row>
     <row r="53" ht="16.5" spans="2:12">
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="C53" s="18">
+      <c r="C53" s="16">
         <v>2010911</v>
       </c>
-      <c r="D53" s="19">
-        <v>2000036</v>
+      <c r="D53" s="17">
+        <v>2000037</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F53" s="18" t="s">
+      <c r="F53" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="G53" s="18"/>
-      <c r="H53" s="24"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="18"/>
-      <c r="L53" s="27"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="16"/>
+      <c r="L53" s="25"/>
     </row>
     <row r="54" ht="16.5" spans="2:12">
-      <c r="B54" s="17"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="19">
-        <v>2000037</v>
-      </c>
-      <c r="E54" s="20" t="s">
+      <c r="B54" s="15"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="17">
+        <v>2000038</v>
+      </c>
+      <c r="E54" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F54" s="18" t="s">
+      <c r="F54" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="G54" s="18" t="s">
+      <c r="G54" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="H54" s="24" t="s">
+      <c r="H54" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="I54" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J54" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="L54" s="27">
+      <c r="I54" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J54" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L54" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="55" ht="16.5" spans="2:12">
-      <c r="B55" s="17"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="19">
-        <v>2000038</v>
-      </c>
-      <c r="E55" s="20" t="s">
+      <c r="B55" s="15"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="17">
+        <v>2000039</v>
+      </c>
+      <c r="E55" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F55" s="18" t="s">
+      <c r="F55" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="G55" s="18" t="s">
+      <c r="G55" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="H55" s="24" t="s">
+      <c r="H55" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="I55" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J55" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="L55" s="27">
+      <c r="I55" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J55" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L55" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="56" ht="16.5" spans="2:12">
-      <c r="B56" s="17"/>
-      <c r="C56" s="20"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18" t="s">
+      <c r="B56" s="15"/>
+      <c r="C56" s="18"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="H56" s="24" t="s">
+      <c r="H56" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="I56" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J56" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="L56" s="27"/>
+      <c r="I56" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J56" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L56" s="25"/>
     </row>
     <row r="57" ht="16.5" spans="2:12">
-      <c r="B57" s="17"/>
-      <c r="C57" s="20"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="18"/>
-      <c r="L57" s="27"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="18"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="16"/>
+      <c r="L57" s="25"/>
     </row>
     <row r="58" ht="16.5" spans="2:12">
-      <c r="B58" s="17"/>
-      <c r="C58" s="20"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="20"/>
-      <c r="J58" s="18"/>
-      <c r="L58" s="27"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="18"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="16"/>
+      <c r="L58" s="25"/>
     </row>
     <row r="59" ht="16.5" spans="2:12">
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="C59" s="18">
+      <c r="C59" s="16">
         <v>2020111</v>
       </c>
-      <c r="D59" s="19">
-        <v>2000039</v>
-      </c>
-      <c r="E59" s="20" t="s">
+      <c r="D59" s="17">
+        <v>2000040</v>
+      </c>
+      <c r="E59" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F59" s="18" t="s">
+      <c r="F59" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="G59" s="18" t="s">
+      <c r="G59" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="H59" s="24" t="s">
+      <c r="H59" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="I59" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J59" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="L59" s="27">
+      <c r="I59" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J59" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L59" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="60" ht="16.5" spans="2:12">
-      <c r="B60" s="17"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="19">
-        <v>2000040</v>
+      <c r="B60" s="15"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="17">
+        <v>2000041</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F60" s="18" t="s">
+      <c r="F60" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="G60" s="18" t="s">
+      <c r="G60" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="H60" s="24" t="s">
+      <c r="H60" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="I60" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J60" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="L60" s="27"/>
+      <c r="I60" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J60" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L60" s="25"/>
     </row>
     <row r="61" ht="16.5" spans="2:12">
-      <c r="B61" s="17"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="19">
-        <v>2000041</v>
-      </c>
-      <c r="E61" s="20" t="s">
+      <c r="B61" s="15"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="17">
+        <v>2000042</v>
+      </c>
+      <c r="E61" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F61" s="18" t="s">
+      <c r="F61" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="G61" s="18" t="s">
+      <c r="G61" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="H61" s="24" t="s">
+      <c r="H61" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="I61" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J61" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="L61" s="27">
+      <c r="I61" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J61" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L61" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="62" ht="16.5" spans="2:12">
-      <c r="B62" s="17"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="19">
-        <v>2000042</v>
+      <c r="B62" s="15"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="17">
+        <v>2000043</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F62" s="18" t="s">
+      <c r="F62" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G62" s="18" t="s">
+      <c r="G62" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="H62" s="24" t="s">
+      <c r="H62" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="I62" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J62" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="L62" s="27"/>
+      <c r="I62" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J62" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L62" s="25"/>
     </row>
     <row r="63" ht="16.5" spans="2:12">
-      <c r="B63" s="17"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="19">
-        <v>2000043</v>
-      </c>
-      <c r="E63" s="20" t="s">
+      <c r="B63" s="15"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="17">
+        <v>2000044</v>
+      </c>
+      <c r="E63" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F63" s="18" t="s">
+      <c r="F63" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="G63" s="18" t="s">
+      <c r="G63" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="H63" s="24" t="s">
+      <c r="H63" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="I63" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J63" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="L63" s="27">
+      <c r="I63" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J63" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L63" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="64" ht="16.5" spans="2:12">
-      <c r="B64" s="17"/>
-      <c r="C64" s="20"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="25"/>
-      <c r="H64" s="24"/>
-      <c r="I64" s="20"/>
-      <c r="J64" s="18"/>
-      <c r="L64" s="27"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="18"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="18"/>
+      <c r="J64" s="16"/>
+      <c r="L64" s="25"/>
     </row>
     <row r="65" ht="16.5" spans="2:12">
-      <c r="B65" s="17" t="s">
+      <c r="B65" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="C65" s="18">
+      <c r="C65" s="16">
         <v>2020211</v>
       </c>
-      <c r="D65" s="19">
-        <v>2000044</v>
-      </c>
-      <c r="E65" s="20" t="s">
+      <c r="D65" s="17">
+        <v>2000045</v>
+      </c>
+      <c r="E65" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F65" s="18" t="s">
+      <c r="F65" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G65" s="18" t="s">
+      <c r="G65" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="H65" s="24" t="s">
+      <c r="H65" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="I65" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J65" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="L65" s="27">
+      <c r="I65" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J65" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L65" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="66" ht="16.5" spans="2:12">
-      <c r="B66" s="17"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="19">
-        <v>2000045</v>
+      <c r="B66" s="15"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="17">
+        <v>2000046</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F66" s="18" t="s">
+      <c r="F66" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="G66" s="18" t="s">
+      <c r="G66" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="H66" s="24" t="s">
+      <c r="H66" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="I66" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J66" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="L66" s="27"/>
+      <c r="I66" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J66" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L66" s="25"/>
     </row>
     <row r="67" ht="16.5" spans="2:12">
-      <c r="B67" s="17"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="19">
-        <v>2000046</v>
-      </c>
-      <c r="E67" s="20" t="s">
+      <c r="B67" s="15"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="17">
+        <v>2000047</v>
+      </c>
+      <c r="E67" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F67" s="18" t="s">
+      <c r="F67" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="G67" s="18" t="s">
+      <c r="G67" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="H67" s="24" t="s">
+      <c r="H67" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="I67" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J67" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="L67" s="27">
+      <c r="I67" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J67" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L67" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="68" ht="16.5" spans="2:12">
-      <c r="B68" s="17"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="19">
-        <v>2000047</v>
+      <c r="B68" s="15"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="17">
+        <v>2000048</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F68" s="18" t="s">
+      <c r="F68" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="G68" s="18" t="s">
+      <c r="G68" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="H68" s="24" t="s">
+      <c r="H68" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="I68" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J68" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="L68" s="27"/>
+      <c r="I68" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J68" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L68" s="25"/>
     </row>
     <row r="69" ht="16.5" spans="2:12">
-      <c r="B69" s="17"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="24"/>
-      <c r="I69" s="20"/>
-      <c r="J69" s="18"/>
-      <c r="L69" s="27"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="18"/>
+      <c r="J69" s="16"/>
+      <c r="L69" s="25"/>
     </row>
     <row r="70" ht="16.5" spans="2:12">
-      <c r="B70" s="17"/>
-      <c r="C70" s="20"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="24"/>
-      <c r="I70" s="20"/>
-      <c r="J70" s="18"/>
-      <c r="L70" s="27"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="18"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="23"/>
+      <c r="H70" s="22"/>
+      <c r="I70" s="18"/>
+      <c r="J70" s="16"/>
+      <c r="L70" s="25"/>
     </row>
     <row r="71" ht="16.5" spans="2:12">
-      <c r="B71" s="17" t="s">
+      <c r="B71" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="C71" s="18">
+      <c r="C71" s="16">
         <v>2020311</v>
       </c>
-      <c r="D71" s="19">
-        <v>2000048</v>
+      <c r="D71" s="17">
+        <v>2000049</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F71" s="18" t="s">
+      <c r="F71" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="G71" s="18" t="s">
+      <c r="G71" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="H71" s="24" t="s">
+      <c r="H71" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="I71" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J71" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="L71" s="27"/>
+      <c r="I71" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J71" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L71" s="25"/>
     </row>
     <row r="72" ht="16.5" spans="2:12">
-      <c r="B72" s="17"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="19">
-        <v>2000049</v>
-      </c>
-      <c r="E72" s="20" t="s">
+      <c r="B72" s="15"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="17">
+        <v>2000050</v>
+      </c>
+      <c r="E72" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F72" s="18" t="s">
+      <c r="F72" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="G72" s="18" t="s">
+      <c r="G72" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="H72" s="24" t="s">
+      <c r="H72" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="I72" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J72" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="L72" s="27">
+      <c r="I72" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J72" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L72" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="73" ht="16.5" spans="2:12">
-      <c r="B73" s="17"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="25"/>
-      <c r="H73" s="24"/>
-      <c r="I73" s="20"/>
-      <c r="J73" s="18"/>
-      <c r="L73" s="27"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="18"/>
+      <c r="J73" s="16"/>
+      <c r="L73" s="25"/>
     </row>
     <row r="74" ht="16.5" spans="2:12">
-      <c r="B74" s="17"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="29"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="6"/>
       <c r="E74" s="6"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="25"/>
-      <c r="H74" s="24"/>
-      <c r="I74" s="20"/>
-      <c r="J74" s="18"/>
-      <c r="L74" s="27"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="23"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="18"/>
+      <c r="J74" s="16"/>
+      <c r="L74" s="25"/>
     </row>
     <row r="75" ht="16.5" spans="2:12">
-      <c r="B75" s="17"/>
-      <c r="C75" s="20"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="24"/>
-      <c r="I75" s="20"/>
-      <c r="J75" s="18"/>
-      <c r="L75" s="27"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="18"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="22"/>
+      <c r="I75" s="18"/>
+      <c r="J75" s="16"/>
+      <c r="L75" s="25"/>
     </row>
     <row r="76" ht="16.5" spans="2:12">
-      <c r="B76" s="17"/>
-      <c r="C76" s="20"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="25"/>
-      <c r="H76" s="24"/>
-      <c r="I76" s="20"/>
-      <c r="J76" s="18"/>
-      <c r="L76" s="27"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="18"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="23"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="18"/>
+      <c r="J76" s="16"/>
+      <c r="L76" s="25"/>
     </row>
     <row r="77" ht="16.5" spans="2:12">
-      <c r="B77" s="17" t="s">
+      <c r="B77" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="C77" s="18">
+      <c r="C77" s="16">
         <v>2020411</v>
       </c>
-      <c r="D77" s="19">
-        <v>2000050</v>
+      <c r="D77" s="17">
+        <v>2000051</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F77" s="18" t="s">
+      <c r="F77" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="G77" s="18" t="s">
+      <c r="G77" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="H77" s="24" t="s">
+      <c r="H77" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="I77" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J77" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="L77" s="27"/>
+      <c r="I77" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J77" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L77" s="25"/>
     </row>
     <row r="78" ht="16.5" spans="2:12">
-      <c r="B78" s="17"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="19">
-        <v>2000051</v>
-      </c>
-      <c r="E78" s="20" t="s">
+      <c r="B78" s="15"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="17">
+        <v>2000052</v>
+      </c>
+      <c r="E78" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F78" s="18" t="s">
+      <c r="F78" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="G78" s="20" t="s">
+      <c r="G78" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="H78" s="23" t="s">
+      <c r="H78" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="I78" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J78" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="L78" s="27">
+      <c r="I78" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J78" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L78" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="79" ht="16.5" spans="2:12">
-      <c r="B79" s="17"/>
-      <c r="C79" s="20"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="24"/>
-      <c r="I79" s="20"/>
-      <c r="J79" s="18"/>
-      <c r="L79" s="27"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="18"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="22"/>
+      <c r="I79" s="18"/>
+      <c r="J79" s="16"/>
+      <c r="L79" s="25"/>
     </row>
     <row r="80" ht="16.5" spans="2:12">
-      <c r="B80" s="17"/>
-      <c r="C80" s="20"/>
-      <c r="F80" s="18"/>
-      <c r="G80" s="25"/>
-      <c r="H80" s="24"/>
-      <c r="I80" s="20"/>
-      <c r="J80" s="18"/>
-      <c r="L80" s="27"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="18"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="23"/>
+      <c r="H80" s="22"/>
+      <c r="I80" s="18"/>
+      <c r="J80" s="16"/>
+      <c r="L80" s="25"/>
     </row>
     <row r="81" ht="16.5" spans="2:12">
-      <c r="B81" s="17"/>
-      <c r="C81" s="20"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="25"/>
-      <c r="H81" s="24"/>
-      <c r="I81" s="20"/>
-      <c r="J81" s="18"/>
-      <c r="L81" s="27"/>
+      <c r="B81" s="15"/>
+      <c r="C81" s="18"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="23"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="18"/>
+      <c r="J81" s="16"/>
+      <c r="L81" s="25"/>
     </row>
     <row r="82" ht="16.5" spans="2:12">
-      <c r="B82" s="17"/>
-      <c r="C82" s="20"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="25"/>
-      <c r="H82" s="24"/>
-      <c r="I82" s="20"/>
-      <c r="J82" s="18"/>
-      <c r="L82" s="27"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="18"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="23"/>
+      <c r="H82" s="22"/>
+      <c r="I82" s="18"/>
+      <c r="J82" s="16"/>
+      <c r="L82" s="25"/>
     </row>
     <row r="83" ht="16.5" spans="2:12">
-      <c r="B83" s="17" t="s">
+      <c r="B83" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="C83" s="18">
+      <c r="C83" s="16">
         <v>2020511</v>
       </c>
-      <c r="D83" s="19">
-        <v>2000052</v>
+      <c r="D83" s="17">
+        <v>2000053</v>
       </c>
       <c r="E83" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F83" s="18" t="s">
+      <c r="F83" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="G83" s="18" t="s">
+      <c r="G83" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="H83" s="24" t="s">
+      <c r="H83" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="I83" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J83" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="L83" s="27"/>
+      <c r="I83" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J83" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L83" s="25"/>
     </row>
     <row r="84" ht="16.5" spans="2:12">
-      <c r="B84" s="17"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="19">
-        <v>2000053</v>
-      </c>
-      <c r="E84" s="20" t="s">
+      <c r="B84" s="15"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="17">
+        <v>2000054</v>
+      </c>
+      <c r="E84" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F84" s="18" t="s">
+      <c r="F84" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="G84" s="18" t="s">
+      <c r="G84" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="H84" s="24" t="s">
+      <c r="H84" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="I84" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J84" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="L84" s="27">
+      <c r="I84" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J84" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L84" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="85" ht="16.5" spans="2:12">
-      <c r="B85" s="17"/>
-      <c r="C85" s="20"/>
-      <c r="F85" s="18"/>
-      <c r="G85" s="25"/>
-      <c r="H85" s="24"/>
-      <c r="I85" s="20"/>
-      <c r="J85" s="18"/>
-      <c r="L85" s="27"/>
+      <c r="B85" s="15"/>
+      <c r="C85" s="18"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="23"/>
+      <c r="H85" s="22"/>
+      <c r="I85" s="18"/>
+      <c r="J85" s="16"/>
+      <c r="L85" s="25"/>
     </row>
     <row r="86" ht="16.5" spans="2:12">
-      <c r="B86" s="17"/>
-      <c r="C86" s="20"/>
-      <c r="F86" s="18"/>
-      <c r="G86" s="25"/>
-      <c r="H86" s="24"/>
-      <c r="I86" s="20"/>
-      <c r="J86" s="18"/>
-      <c r="L86" s="27"/>
+      <c r="B86" s="15"/>
+      <c r="C86" s="18"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="23"/>
+      <c r="H86" s="22"/>
+      <c r="I86" s="18"/>
+      <c r="J86" s="16"/>
+      <c r="L86" s="25"/>
     </row>
     <row r="87" ht="16.5" spans="2:12">
-      <c r="B87" s="17"/>
-      <c r="C87" s="20"/>
-      <c r="F87" s="18"/>
-      <c r="G87" s="25"/>
-      <c r="H87" s="24"/>
-      <c r="I87" s="20"/>
-      <c r="J87" s="18"/>
-      <c r="L87" s="27"/>
+      <c r="B87" s="15"/>
+      <c r="C87" s="18"/>
+      <c r="F87" s="16"/>
+      <c r="G87" s="23"/>
+      <c r="H87" s="22"/>
+      <c r="I87" s="18"/>
+      <c r="J87" s="16"/>
+      <c r="L87" s="25"/>
     </row>
     <row r="88" ht="16.5" spans="2:12">
-      <c r="B88" s="17"/>
-      <c r="C88" s="20"/>
-      <c r="F88" s="18"/>
-      <c r="G88" s="25"/>
-      <c r="H88" s="24"/>
-      <c r="I88" s="20"/>
-      <c r="J88" s="18"/>
-      <c r="L88" s="27"/>
+      <c r="B88" s="15"/>
+      <c r="C88" s="18"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="23"/>
+      <c r="H88" s="22"/>
+      <c r="I88" s="18"/>
+      <c r="J88" s="16"/>
+      <c r="L88" s="25"/>
     </row>
     <row r="89" ht="16.5" spans="2:12">
-      <c r="B89" s="17" t="s">
+      <c r="B89" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="C89" s="18">
+      <c r="C89" s="16">
         <v>2020611</v>
       </c>
-      <c r="D89" s="19">
-        <v>2000054</v>
+      <c r="D89" s="17">
+        <v>2000055</v>
       </c>
       <c r="E89" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F89" s="18" t="s">
+      <c r="F89" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="G89" s="25"/>
-      <c r="H89" s="24"/>
-      <c r="I89" s="20"/>
-      <c r="J89" s="18"/>
-      <c r="L89" s="27"/>
+      <c r="G89" s="23"/>
+      <c r="H89" s="22"/>
+      <c r="I89" s="18"/>
+      <c r="J89" s="16"/>
+      <c r="L89" s="25"/>
     </row>
     <row r="90" ht="16.5" spans="2:12">
-      <c r="B90" s="17"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="19">
-        <v>2000055</v>
-      </c>
-      <c r="E90" s="20" t="s">
+      <c r="B90" s="15"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="17">
+        <v>2000056</v>
+      </c>
+      <c r="E90" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F90" s="18" t="s">
+      <c r="F90" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="G90" s="18" t="s">
+      <c r="G90" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="H90" s="24" t="s">
+      <c r="H90" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="I90" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J90" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="L90" s="27">
+      <c r="I90" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J90" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L90" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="91" ht="16.5" spans="2:12">
-      <c r="B91" s="17"/>
-      <c r="C91" s="20"/>
-      <c r="F91" s="18"/>
-      <c r="G91" s="18" t="s">
+      <c r="B91" s="15"/>
+      <c r="C91" s="18"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="H91" s="24" t="s">
+      <c r="H91" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="I91" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J91" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="L91" s="27"/>
+      <c r="I91" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J91" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L91" s="25"/>
     </row>
     <row r="92" ht="16.5" spans="2:12">
-      <c r="B92" s="17"/>
-      <c r="C92" s="20"/>
-      <c r="F92" s="18"/>
-      <c r="G92" s="18"/>
-      <c r="H92" s="24"/>
-      <c r="I92" s="20"/>
-      <c r="J92" s="18"/>
-      <c r="L92" s="27"/>
+      <c r="B92" s="15"/>
+      <c r="C92" s="18"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="16"/>
+      <c r="H92" s="22"/>
+      <c r="I92" s="18"/>
+      <c r="J92" s="16"/>
+      <c r="L92" s="25"/>
     </row>
     <row r="93" ht="16.5" spans="2:12">
-      <c r="B93" s="17"/>
-      <c r="C93" s="20"/>
-      <c r="F93" s="18"/>
-      <c r="G93" s="18"/>
-      <c r="H93" s="24"/>
-      <c r="I93" s="20"/>
-      <c r="J93" s="18"/>
-      <c r="L93" s="27"/>
+      <c r="B93" s="15"/>
+      <c r="C93" s="18"/>
+      <c r="F93" s="16"/>
+      <c r="G93" s="16"/>
+      <c r="H93" s="22"/>
+      <c r="I93" s="18"/>
+      <c r="J93" s="16"/>
+      <c r="L93" s="25"/>
     </row>
     <row r="94" ht="16.5" spans="2:12">
-      <c r="B94" s="17"/>
-      <c r="C94" s="20"/>
-      <c r="F94" s="18"/>
-      <c r="G94" s="18"/>
-      <c r="H94" s="24"/>
-      <c r="I94" s="20"/>
-      <c r="J94" s="18"/>
-      <c r="L94" s="27"/>
+      <c r="B94" s="15"/>
+      <c r="C94" s="18"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="16"/>
+      <c r="H94" s="22"/>
+      <c r="I94" s="18"/>
+      <c r="J94" s="16"/>
+      <c r="L94" s="25"/>
     </row>
     <row r="95" ht="16.5" spans="2:12">
-      <c r="B95" s="17" t="s">
+      <c r="B95" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="C95" s="18">
+      <c r="C95" s="16">
         <v>2030111</v>
       </c>
-      <c r="D95" s="19">
-        <v>2000056</v>
+      <c r="D95" s="17">
+        <v>2000057</v>
       </c>
       <c r="E95" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F95" s="18" t="s">
+      <c r="F95" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="G95" s="18" t="s">
+      <c r="G95" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="H95" s="24" t="s">
+      <c r="H95" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="I95" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J95" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="L95" s="27"/>
+      <c r="I95" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J95" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L95" s="25"/>
     </row>
     <row r="96" ht="16.5" spans="2:12">
-      <c r="B96" s="17"/>
-      <c r="C96" s="18"/>
-      <c r="D96" s="19">
-        <v>2000057</v>
-      </c>
-      <c r="E96" s="20" t="s">
+      <c r="B96" s="15"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="17">
+        <v>2000058</v>
+      </c>
+      <c r="E96" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F96" s="18" t="s">
+      <c r="F96" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="G96" s="18" t="s">
+      <c r="G96" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="H96" s="24" t="s">
+      <c r="H96" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="I96" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J96" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="L96" s="27">
+      <c r="I96" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J96" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L96" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="97" ht="16.5" spans="2:12">
-      <c r="B97" s="17"/>
-      <c r="C97" s="20"/>
-      <c r="D97" s="19">
-        <v>2000058</v>
+      <c r="B97" s="15"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="17">
+        <v>2000059</v>
       </c>
       <c r="E97" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F97" s="18" t="s">
+      <c r="F97" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="G97" s="18" t="s">
+      <c r="G97" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="H97" s="24" t="s">
+      <c r="H97" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="I97" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J97" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="L97" s="27"/>
+      <c r="I97" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J97" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L97" s="25"/>
     </row>
     <row r="98" ht="16.5" spans="2:12">
-      <c r="B98" s="17"/>
-      <c r="C98" s="20"/>
-      <c r="D98" s="19">
-        <v>2000059</v>
-      </c>
-      <c r="E98" s="20" t="s">
+      <c r="B98" s="15"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="17">
+        <v>2000060</v>
+      </c>
+      <c r="E98" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F98" s="18" t="s">
+      <c r="F98" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="G98" s="18" t="s">
+      <c r="G98" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="H98" s="24" t="s">
+      <c r="H98" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="I98" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J98" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="L98" s="27">
+      <c r="I98" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J98" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L98" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="99" ht="16.5" spans="2:12">
-      <c r="B99" s="17"/>
-      <c r="C99" s="20"/>
-      <c r="F99" s="18"/>
-      <c r="G99" s="18"/>
-      <c r="H99" s="24"/>
-      <c r="I99" s="20"/>
-      <c r="J99" s="18"/>
-      <c r="L99" s="27"/>
+      <c r="B99" s="15"/>
+      <c r="C99" s="18"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="16"/>
+      <c r="H99" s="22"/>
+      <c r="I99" s="18"/>
+      <c r="J99" s="16"/>
+      <c r="L99" s="25"/>
     </row>
     <row r="100" ht="16.5" spans="2:12">
-      <c r="B100" s="17"/>
-      <c r="C100" s="20"/>
-      <c r="F100" s="18"/>
-      <c r="G100" s="18"/>
-      <c r="H100" s="24"/>
-      <c r="I100" s="20"/>
-      <c r="J100" s="18"/>
-      <c r="L100" s="27"/>
+      <c r="B100" s="15"/>
+      <c r="C100" s="18"/>
+      <c r="F100" s="16"/>
+      <c r="G100" s="16"/>
+      <c r="H100" s="22"/>
+      <c r="I100" s="18"/>
+      <c r="J100" s="16"/>
+      <c r="L100" s="25"/>
     </row>
     <row r="101" ht="16.5" spans="2:12">
-      <c r="B101" s="17" t="s">
+      <c r="B101" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="C101" s="18">
+      <c r="C101" s="16">
         <v>2030211</v>
       </c>
-      <c r="D101" s="19">
-        <v>2000060</v>
+      <c r="D101" s="17">
+        <v>2000061</v>
       </c>
       <c r="E101" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F101" s="18" t="s">
+      <c r="F101" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="G101" s="18" t="s">
+      <c r="G101" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="H101" s="24" t="s">
+      <c r="H101" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="I101" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J101" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="L101" s="27"/>
+      <c r="I101" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J101" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L101" s="25"/>
     </row>
     <row r="102" ht="16.5" spans="2:12">
-      <c r="B102" s="17"/>
-      <c r="C102" s="18"/>
-      <c r="D102" s="19">
-        <v>2000061</v>
-      </c>
-      <c r="E102" s="20" t="s">
+      <c r="B102" s="15"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="17">
+        <v>2000062</v>
+      </c>
+      <c r="E102" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F102" s="18" t="s">
+      <c r="F102" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="G102" s="18" t="s">
+      <c r="G102" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="H102" s="24" t="s">
+      <c r="H102" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="I102" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J102" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="L102" s="27">
+      <c r="I102" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J102" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L102" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="103" ht="16.5" spans="2:10">
-      <c r="B103" s="17"/>
-      <c r="C103" s="20"/>
-      <c r="D103" s="29"/>
+      <c r="B103" s="15"/>
+      <c r="C103" s="18"/>
+      <c r="D103" s="6"/>
       <c r="E103" s="6"/>
-      <c r="F103" s="18"/>
-      <c r="G103" s="18"/>
-      <c r="H103" s="24"/>
-      <c r="I103" s="20"/>
-      <c r="J103" s="18"/>
+      <c r="F103" s="16"/>
+      <c r="G103" s="16"/>
+      <c r="H103" s="22"/>
+      <c r="I103" s="18"/>
+      <c r="J103" s="16"/>
     </row>
     <row r="104" ht="16.5" spans="2:10">
-      <c r="B104" s="17"/>
-      <c r="C104" s="20"/>
-      <c r="D104" s="20"/>
-      <c r="E104" s="20"/>
-      <c r="F104" s="18"/>
-      <c r="G104" s="18"/>
-      <c r="H104" s="19"/>
-      <c r="I104" s="20"/>
-      <c r="J104" s="18"/>
+      <c r="B104" s="15"/>
+      <c r="C104" s="18"/>
+      <c r="D104" s="18"/>
+      <c r="E104" s="18"/>
+      <c r="F104" s="16"/>
+      <c r="G104" s="16"/>
+      <c r="H104" s="17"/>
+      <c r="I104" s="18"/>
+      <c r="J104" s="16"/>
     </row>
     <row r="105" ht="16.5" spans="2:10">
-      <c r="B105" s="17"/>
-      <c r="C105" s="20"/>
-      <c r="F105" s="18"/>
-      <c r="G105" s="18"/>
-      <c r="H105" s="19"/>
-      <c r="I105" s="20"/>
-      <c r="J105" s="18"/>
+      <c r="B105" s="15"/>
+      <c r="C105" s="18"/>
+      <c r="F105" s="16"/>
+      <c r="G105" s="16"/>
+      <c r="H105" s="17"/>
+      <c r="I105" s="18"/>
+      <c r="J105" s="16"/>
     </row>
     <row r="106" ht="16.5" spans="2:10">
-      <c r="B106" s="17"/>
-      <c r="C106" s="20"/>
-      <c r="F106" s="18"/>
-      <c r="G106" s="18"/>
-      <c r="H106" s="19"/>
-      <c r="I106" s="20"/>
-      <c r="J106" s="18"/>
+      <c r="B106" s="15"/>
+      <c r="C106" s="18"/>
+      <c r="F106" s="16"/>
+      <c r="G106" s="16"/>
+      <c r="H106" s="17"/>
+      <c r="I106" s="18"/>
+      <c r="J106" s="16"/>
     </row>
     <row r="107" ht="16.5" spans="2:10">
-      <c r="B107" s="17" t="s">
+      <c r="B107" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="C107" s="18">
+      <c r="C107" s="16">
         <v>2040111</v>
       </c>
-      <c r="F107" s="18"/>
-      <c r="G107" s="18"/>
-      <c r="H107" s="19"/>
-      <c r="I107" s="20"/>
-      <c r="J107" s="18"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="16"/>
+      <c r="H107" s="17"/>
+      <c r="I107" s="18"/>
+      <c r="J107" s="16"/>
     </row>
     <row r="108" ht="16.5" spans="2:10">
-      <c r="B108" s="17"/>
-      <c r="C108" s="18"/>
-      <c r="F108" s="18"/>
-      <c r="G108" s="18"/>
-      <c r="H108" s="19"/>
-      <c r="I108" s="20"/>
-      <c r="J108" s="18"/>
+      <c r="B108" s="15"/>
+      <c r="C108" s="16"/>
+      <c r="F108" s="16"/>
+      <c r="G108" s="16"/>
+      <c r="H108" s="17"/>
+      <c r="I108" s="18"/>
+      <c r="J108" s="16"/>
     </row>
     <row r="109" ht="16.5" spans="2:10">
-      <c r="B109" s="17"/>
-      <c r="C109" s="20"/>
-      <c r="G109" s="18"/>
-      <c r="H109" s="19"/>
-      <c r="I109" s="20"/>
-      <c r="J109" s="18"/>
+      <c r="B109" s="15"/>
+      <c r="C109" s="18"/>
+      <c r="G109" s="16"/>
+      <c r="H109" s="17"/>
+      <c r="I109" s="18"/>
+      <c r="J109" s="16"/>
     </row>
     <row r="110" ht="16.5" spans="2:10">
-      <c r="B110" s="17"/>
-      <c r="C110" s="20"/>
-      <c r="G110" s="18"/>
-      <c r="H110" s="19"/>
-      <c r="I110" s="20"/>
-      <c r="J110" s="18"/>
+      <c r="B110" s="15"/>
+      <c r="C110" s="18"/>
+      <c r="G110" s="16"/>
+      <c r="H110" s="17"/>
+      <c r="I110" s="18"/>
+      <c r="J110" s="16"/>
     </row>
     <row r="111" ht="16.5" spans="2:10">
-      <c r="B111" s="17"/>
-      <c r="C111" s="20"/>
-      <c r="G111" s="18"/>
-      <c r="H111" s="19"/>
-      <c r="I111" s="20"/>
-      <c r="J111" s="18"/>
+      <c r="B111" s="15"/>
+      <c r="C111" s="18"/>
+      <c r="G111" s="16"/>
+      <c r="H111" s="17"/>
+      <c r="I111" s="18"/>
+      <c r="J111" s="16"/>
     </row>
     <row r="112" ht="16.5" spans="2:10">
-      <c r="B112" s="17"/>
-      <c r="C112" s="20"/>
-      <c r="G112" s="18"/>
-      <c r="H112" s="19"/>
-      <c r="I112" s="20"/>
-      <c r="J112" s="18"/>
+      <c r="B112" s="15"/>
+      <c r="C112" s="18"/>
+      <c r="G112" s="16"/>
+      <c r="H112" s="17"/>
+      <c r="I112" s="18"/>
+      <c r="J112" s="16"/>
     </row>
     <row r="113" ht="16.5" spans="7:10">
-      <c r="G113" s="18"/>
-      <c r="H113" s="19"/>
-      <c r="I113" s="20"/>
-      <c r="J113" s="18"/>
+      <c r="G113" s="16"/>
+      <c r="H113" s="17"/>
+      <c r="I113" s="18"/>
+      <c r="J113" s="16"/>
     </row>
     <row r="114" ht="16.5" spans="7:10">
-      <c r="G114" s="18"/>
-      <c r="H114" s="19"/>
-      <c r="I114" s="20"/>
-      <c r="J114" s="18"/>
+      <c r="G114" s="16"/>
+      <c r="H114" s="17"/>
+      <c r="I114" s="18"/>
+      <c r="J114" s="16"/>
     </row>
     <row r="115" ht="16.5" spans="7:7">
-      <c r="G115" s="18"/>
+      <c r="G115" s="16"/>
     </row>
     <row r="116" spans="7:7">
-      <c r="G116" s="28"/>
+      <c r="G116" s="26"/>
     </row>
     <row r="117" spans="7:7">
-      <c r="G117" s="28"/>
+      <c r="G117" s="26"/>
     </row>
     <row r="118" spans="7:7">
-      <c r="G118" s="28"/>
+      <c r="G118" s="26"/>
     </row>
     <row r="119" spans="7:7">
-      <c r="G119" s="28"/>
+      <c r="G119" s="26"/>
     </row>
     <row r="120" spans="7:7">
-      <c r="G120" s="28"/>
+      <c r="G120" s="26"/>
     </row>
     <row r="121" spans="7:7">
-      <c r="G121" s="28"/>
+      <c r="G121" s="26"/>
     </row>
     <row r="122" spans="7:7">
-      <c r="G122" s="28"/>
+      <c r="G122" s="26"/>
     </row>
     <row r="123" spans="7:7">
-      <c r="G123" s="28"/>
+      <c r="G123" s="26"/>
     </row>
     <row r="124" spans="7:7">
-      <c r="G124" s="28"/>
+      <c r="G124" s="26"/>
     </row>
     <row r="125" spans="7:7">
-      <c r="G125" s="28"/>
+      <c r="G125" s="26"/>
     </row>
     <row r="126" spans="7:7">
-      <c r="G126" s="28"/>
+      <c r="G126" s="26"/>
     </row>
     <row r="127" spans="7:7">
-      <c r="G127" s="28"/>
+      <c r="G127" s="26"/>
     </row>
     <row r="128" spans="7:7">
-      <c r="G128" s="28"/>
+      <c r="G128" s="26"/>
     </row>
     <row r="129" spans="7:7">
-      <c r="G129" s="28"/>
+      <c r="G129" s="26"/>
     </row>
     <row r="130" spans="7:7">
-      <c r="G130" s="28"/>
+      <c r="G130" s="26"/>
     </row>
     <row r="131" spans="7:7">
-      <c r="G131" s="28"/>
+      <c r="G131" s="26"/>
     </row>
     <row r="132" spans="7:7">
-      <c r="G132" s="28"/>
+      <c r="G132" s="26"/>
     </row>
     <row r="133" spans="7:7">
-      <c r="G133" s="28"/>
+      <c r="G133" s="26"/>
     </row>
     <row r="134" spans="7:7">
-      <c r="G134" s="28"/>
+      <c r="G134" s="26"/>
     </row>
     <row r="135" spans="7:7">
-      <c r="G135" s="28"/>
+      <c r="G135" s="26"/>
     </row>
     <row r="136" spans="7:7">
-      <c r="G136" s="28"/>
+      <c r="G136" s="26"/>
     </row>
     <row r="137" spans="7:7">
-      <c r="G137" s="28"/>
+      <c r="G137" s="26"/>
     </row>
     <row r="138" spans="7:7">
-      <c r="G138" s="28"/>
+      <c r="G138" s="26"/>
     </row>
     <row r="139" spans="7:7">
-      <c r="G139" s="28"/>
+      <c r="G139" s="26"/>
     </row>
     <row r="140" spans="7:7">
-      <c r="G140" s="28"/>
+      <c r="G140" s="26"/>
     </row>
     <row r="141" spans="7:7">
-      <c r="G141" s="28"/>
+      <c r="G141" s="26"/>
     </row>
     <row r="142" spans="7:7">
-      <c r="G142" s="28"/>
+      <c r="G142" s="26"/>
     </row>
     <row r="143" spans="7:7">
-      <c r="G143" s="28"/>
+      <c r="G143" s="26"/>
     </row>
     <row r="144" spans="7:7">
-      <c r="G144" s="28"/>
+      <c r="G144" s="26"/>
     </row>
     <row r="145" spans="7:7">
-      <c r="G145" s="28"/>
+      <c r="G145" s="26"/>
     </row>
     <row r="146" spans="7:7">
-      <c r="G146" s="28"/>
+      <c r="G146" s="26"/>
     </row>
     <row r="147" spans="7:7">
-      <c r="G147" s="28"/>
+      <c r="G147" s="26"/>
     </row>
     <row r="148" spans="7:7">
-      <c r="G148" s="28"/>
+      <c r="G148" s="26"/>
     </row>
     <row r="149" spans="7:7">
-      <c r="G149" s="28"/>
+      <c r="G149" s="26"/>
     </row>
     <row r="150" spans="7:7">
-      <c r="G150" s="28"/>
+      <c r="G150" s="26"/>
     </row>
     <row r="151" spans="7:7">
-      <c r="G151" s="28"/>
+      <c r="G151" s="26"/>
     </row>
     <row r="152" spans="7:7">
-      <c r="G152" s="28"/>
+      <c r="G152" s="26"/>
     </row>
     <row r="153" spans="7:7">
-      <c r="G153" s="28"/>
+      <c r="G153" s="26"/>
     </row>
     <row r="154" spans="7:7">
-      <c r="G154" s="28"/>
+      <c r="G154" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/配置表/Dialogue.xlsx
+++ b/配置表/Dialogue.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17680"/>
+    <workbookView windowHeight="26520"/>
   </bookViews>
   <sheets>
     <sheet name="resource" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="K3" authorId="0">
+    <comment ref="L3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="357">
   <si>
     <t>##var</t>
   </si>
@@ -98,6 +98,9 @@
     <t>String FR</t>
   </si>
   <si>
+    <t>String RU</t>
+  </si>
+  <si>
     <t>Sprite</t>
   </si>
   <si>
@@ -125,6 +128,9 @@
     <t>说话内容法语</t>
   </si>
   <si>
+    <t>说话内容俄语</t>
+  </si>
+  <si>
     <t>左边角色</t>
   </si>
   <si>
@@ -137,6 +143,240 @@
     <t>是否左边角色说话</t>
   </si>
   <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>成功</t>
+  </si>
+  <si>
+    <t>Not enough diamonds</t>
+  </si>
+  <si>
+    <t>元宝不足</t>
+  </si>
+  <si>
+    <t>Template information error</t>
+  </si>
+  <si>
+    <t>模板信息错误</t>
+  </si>
+  <si>
+    <t>Not enough items</t>
+  </si>
+  <si>
+    <t>道具不足</t>
+  </si>
+  <si>
+    <t>Shop does not exist</t>
+  </si>
+  <si>
+    <t>商城不存在</t>
+  </si>
+  <si>
+    <t>Insufficient funds for shop purchase</t>
+  </si>
+  <si>
+    <t>商城购买金额不足</t>
+  </si>
+  <si>
+    <t>Bag is full and cannot add more</t>
+  </si>
+  <si>
+    <t>背包已经装满不能再添加</t>
+  </si>
+  <si>
+    <t>Duplicate character name</t>
+  </si>
+  <si>
+    <t>角色名字重复</t>
+  </si>
+  <si>
+    <t>Character name must be filled</t>
+  </si>
+  <si>
+    <t>角色名字必须填写</t>
+  </si>
+  <si>
+    <t>Configuration does not exist</t>
+  </si>
+  <si>
+    <t>配置不存在</t>
+  </si>
+  <si>
+    <t>Character name contains sensitive words</t>
+  </si>
+  <si>
+    <t>角色名字包含敏感词</t>
+  </si>
+  <si>
+    <t>Character name exceeds length limit</t>
+  </si>
+  <si>
+    <t>角色名字超过长度</t>
+  </si>
+  <si>
+    <t>Account logged in other places</t>
+  </si>
+  <si>
+    <t>账号在别的地方登陆</t>
+  </si>
+  <si>
+    <t>Player disconnected</t>
+  </si>
+  <si>
+    <t>玩家掉线</t>
+  </si>
+  <si>
+    <t>This feature is not yet available</t>
+  </si>
+  <si>
+    <t>该功能暂未开启</t>
+  </si>
+  <si>
+    <t>Item does not exist</t>
+  </si>
+  <si>
+    <t>道具不存在</t>
+  </si>
+  <si>
+    <t>Incorrect item count in bag</t>
+  </si>
+  <si>
+    <t>背包使用数量错误</t>
+  </si>
+  <si>
+    <t>Failed to remove item from bag</t>
+  </si>
+  <si>
+    <t>消除背包道具失败</t>
+  </si>
+  <si>
+    <t>Error template data object is null</t>
+  </si>
+  <si>
+    <t>错误模板数据对象为null</t>
+  </si>
+  <si>
+    <t>Ranking type error</t>
+  </si>
+  <si>
+    <t>排行版类型错误</t>
+  </si>
+  <si>
+    <t>Character rename limit reached</t>
+  </si>
+  <si>
+    <t>修改昵称次数已达上限</t>
+  </si>
+  <si>
+    <t>Tower position not unlocked</t>
+  </si>
+  <si>
+    <t>布阵塔位没有开放</t>
+  </si>
+  <si>
+    <t>Mail attachment already claimed</t>
+  </si>
+  <si>
+    <t>邮件附件已领取</t>
+  </si>
+  <si>
+    <t>Client actively kicked player</t>
+  </si>
+  <si>
+    <t>客户主动踢人</t>
+  </si>
+  <si>
+    <t>New characters forbidden</t>
+  </si>
+  <si>
+    <t>禁止新角色</t>
+  </si>
+  <si>
+    <t>Player does not exist</t>
+  </si>
+  <si>
+    <t>玩家不存在</t>
+  </si>
+  <si>
+    <t>Parameter error</t>
+  </si>
+  <si>
+    <t>参数错误</t>
+  </si>
+  <si>
+    <t>Incorrect shop purchase count</t>
+  </si>
+  <si>
+    <t>商城购买次数错误</t>
+  </si>
+  <si>
+    <t>Shop purchase count exceeds limit</t>
+  </si>
+  <si>
+    <t>商城购买次数超过上限</t>
+  </si>
+  <si>
+    <t>Item has reached purchase limit</t>
+  </si>
+  <si>
+    <t>商品已达到限购上限</t>
+  </si>
+  <si>
+    <t>Activity does not exist</t>
+  </si>
+  <si>
+    <t>活动不存在</t>
+  </si>
+  <si>
+    <t>Golden egg configuration data error</t>
+  </si>
+  <si>
+    <t>砸金蛋配置数据异常</t>
+  </si>
+  <si>
+    <t>This golden egg has already been cracked</t>
+  </si>
+  <si>
+    <t>该金蛋已经被砸</t>
+  </si>
+  <si>
+    <t>This event has ended</t>
+  </si>
+  <si>
+    <t>本次活动已结束</t>
+  </si>
+  <si>
+    <t>Currently muted</t>
+  </si>
+  <si>
+    <t>当前禁言中</t>
+  </si>
+  <si>
+    <t>Message too frequent, please wait</t>
+  </si>
+  <si>
+    <t>发言太频繁，请稍后</t>
+  </si>
+  <si>
+    <t>Chat content invalid</t>
+  </si>
+  <si>
+    <t>聊天内容非法</t>
+  </si>
+  <si>
+    <t>Chat blacklist has reached maximum capacity</t>
+  </si>
+  <si>
+    <t>聊天黑名单达到最大人数</t>
+  </si>
+  <si>
+    <t>Building requirements not met, cannot construct</t>
+  </si>
+  <si>
+    <t>建筑物不满足条件，不可以建造</t>
+  </si>
+  <si>
     <t>Eileen</t>
   </si>
   <si>
@@ -149,6 +389,9 @@
     <t>C’est donc le Manoir des Roses… Cela fait cinq ans que je ne suis pas revenu depuis Édimbourg.</t>
   </si>
   <si>
+    <t>Вот и Розовая усадьба, Джеймс. Я не возвращалась сюда уже 5 лет, с тех пор как уехала в Эдинбург.</t>
+  </si>
+  <si>
     <t>James</t>
   </si>
   <si>
@@ -161,6 +404,9 @@
     <t>C’est vraiment long.</t>
   </si>
   <si>
+    <t>Это действительно долго.</t>
+  </si>
+  <si>
     <t>Coming back here, I feel so many memories flooding back.</t>
   </si>
   <si>
@@ -170,6 +416,9 @@
     <t>En revenant ici, tant de souvenirs me reviennent.</t>
   </si>
   <si>
+    <t>Снова оказавшись здесь, я чувствую, как нахлынули воспоминания.</t>
+  </si>
+  <si>
     <t>A lot of stories must have happened here before.</t>
   </si>
   <si>
@@ -179,6 +428,9 @@
     <t>Il devait s’y passer beaucoup d’histoires autrefois.</t>
   </si>
   <si>
+    <t>Здесь, наверное, раньше происходило много историй.</t>
+  </si>
+  <si>
     <t>Yeah, and my mother's roses are now overgrown everywhere.</t>
   </si>
   <si>
@@ -188,6 +440,9 @@
     <t>Oui… Et les roses que ma mère plantait ont poussé partout maintenant.</t>
   </si>
   <si>
+    <t>Да, и мамины розы теперь разрослись повсюду.</t>
+  </si>
+  <si>
     <t>Let's go pick some roses.</t>
   </si>
   <si>
@@ -197,6 +452,9 @@
     <t>Allons en cueillir quelques-unes.</t>
   </si>
   <si>
+    <t>Пойдём соберём немного роз.</t>
+  </si>
+  <si>
     <t>The house is still very tidy.</t>
   </si>
   <si>
@@ -206,6 +464,9 @@
     <t>La maison est toujours bien entretenue.</t>
   </si>
   <si>
+    <t>Дом всё ещё в порядке.</t>
+  </si>
+  <si>
     <t>Yes, it looks no different from before.</t>
   </si>
   <si>
@@ -215,6 +476,9 @@
     <t>Oui, elle n’a presque pas changé.</t>
   </si>
   <si>
+    <t>Да, он выглядит так же, как и раньше.</t>
+  </si>
+  <si>
     <t>There are many rooms in the house.</t>
   </si>
   <si>
@@ -224,6 +488,9 @@
     <t>Il y a beaucoup de pièces ici.</t>
   </si>
   <si>
+    <t>В доме много комнат.</t>
+  </si>
+  <si>
     <t>Yes, the dining room is on the left, and the living room is on the right.</t>
   </si>
   <si>
@@ -233,6 +500,9 @@
     <t>Oui, la salle à manger est à gauche, et le salon à droite.</t>
   </si>
   <si>
+    <t>Да, слева столовая, справа — гостиная.</t>
+  </si>
+  <si>
     <t>Then that area up ahead must lead to the backyard.</t>
   </si>
   <si>
@@ -242,6 +512,9 @@
     <t>Là, devant, ça doit mener au jardin, non ?</t>
   </si>
   <si>
+    <t>Тогда впереди наверняка выход во двор.</t>
+  </si>
+  <si>
     <t>Yes, how did you know?</t>
   </si>
   <si>
@@ -251,6 +524,9 @@
     <t>Oui, comment le sais-tu ?</t>
   </si>
   <si>
+    <t>Да, откуда ты знаешь?</t>
+  </si>
+  <si>
     <t>The living room here, it's still just like before.</t>
   </si>
   <si>
@@ -260,6 +536,9 @@
     <t>Le salon… toujours pareil.</t>
   </si>
   <si>
+    <t>Гостиная... Всё так же, как и раньше.</t>
+  </si>
+  <si>
     <t>We used to chat here with Mom and Dad all the time.</t>
   </si>
   <si>
@@ -269,6 +548,9 @@
     <t>Nous y discutions souvent avec Papa et Maman.</t>
   </si>
   <si>
+    <t>Раньше мы часто сидели здесь с родителями, разговаривали.</t>
+  </si>
+  <si>
     <t>Dad often listened to the radio and read the newspaper here.</t>
   </si>
   <si>
@@ -278,6 +560,9 @@
     <t>Ton père écoutait souvent la radio et lisait le journal.</t>
   </si>
   <si>
+    <t>Папа часто слушал радио и читал газеты.</t>
+  </si>
+  <si>
     <t>Mom often knitted sweaters here.</t>
   </si>
   <si>
@@ -287,6 +572,9 @@
     <t>Et Maman tricotait ici.</t>
   </si>
   <si>
+    <t>Мама вязала свитера.</t>
+  </si>
+  <si>
     <t>It really does look very cozy, especially during Christmas.</t>
   </si>
   <si>
@@ -296,6 +584,9 @@
     <t>Ça devait être très chaleureux, surtout à Noël.</t>
   </si>
   <si>
+    <t>Здесь действительно очень уютно, особенно на Рождество.</t>
+  </si>
+  <si>
     <t>Yes, during Christmas, we'd decorate the Christmas tree next to the fireplace, with lots of gifts.</t>
   </si>
   <si>
@@ -305,6 +596,9 @@
     <t>Oui, nous décorions un sapin près de la cheminée, avec plein de cadeaux.</t>
   </si>
   <si>
+    <t>Да, на Рождество мы ставили ёлку рядом с камином, было много подарков.</t>
+  </si>
+  <si>
     <t>This is our family's dining room.</t>
   </si>
   <si>
@@ -314,6 +608,9 @@
     <t>Voici notre salle à manger.</t>
   </si>
   <si>
+    <t>Это наша столовая.</t>
+  </si>
+  <si>
     <t>Which one is your designated seat?</t>
   </si>
   <si>
@@ -323,6 +620,9 @@
     <t>Quelle était ta place attitrée ?</t>
   </si>
   <si>
+    <t>Какое место было твоим любимым?</t>
+  </si>
+  <si>
     <t>Eilleen</t>
   </si>
   <si>
@@ -335,6 +635,9 @@
     <t>Celle près de la fenêtre, au fond. J’aimais m’asseoir à côté de Papa.</t>
   </si>
   <si>
+    <t>То, что у окна в глубине комнаты — моё любимое место. Мне нравилось сидеть рядом с папой.</t>
+  </si>
+  <si>
     <t>Then your Dad must have been in the innermost seat in the middle.</t>
   </si>
   <si>
@@ -344,6 +647,9 @@
     <t>Alors ton père devait être au milieu, tout au fond.</t>
   </si>
   <si>
+    <t>Тогда твой папа, наверное, сидел посередине в глубине.</t>
+  </si>
+  <si>
     <t>Yes.</t>
   </si>
   <si>
@@ -353,6 +659,9 @@
     <t>Exactement.</t>
   </si>
   <si>
+    <t>Да.</t>
+  </si>
+  <si>
     <t>The rooms upstairs should be the bedrooms.</t>
   </si>
   <si>
@@ -362,6 +671,9 @@
     <t> À l’étage, ce doivent être les chambres.</t>
   </si>
   <si>
+    <t>На втором этаже, наверное, спальни?</t>
+  </si>
+  <si>
     <t>Yes, and there's also Dad's study—the one in the middle.</t>
   </si>
   <si>
@@ -371,6 +683,9 @@
     <t>Oui, et il y a aussi le bureau de Papa, celle du milieu.</t>
   </si>
   <si>
+    <t>Да, и ещё кабинет папы — вот та комната посередине.</t>
+  </si>
+  <si>
     <t>Then left and right should be bedrooms.</t>
   </si>
   <si>
@@ -380,6 +695,9 @@
     <t>Donc à gauche et à droite, ce sont les chambres ?</t>
   </si>
   <si>
+    <t>Тогда слева и справа, наверное, спальни?</t>
+  </si>
+  <si>
     <t>Yes. Want to guess which one is my bedroom?</t>
   </si>
   <si>
@@ -389,6 +707,9 @@
     <t>Oui, devine laquelle était la mienne.</t>
   </si>
   <si>
+    <t>Да, угадаешь, какая была моя?</t>
+  </si>
+  <si>
     <t>Haha, I’m not really sure. Maybe we should look at the left bedroom first.</t>
   </si>
   <si>
@@ -398,6 +719,9 @@
     <t>Haha, je ne suis pas sûr. Commençons par regarder celle de gauche.</t>
   </si>
   <si>
+    <t>Ха-ха, я не уверен. Думаю, сначала посмотрим, что в левой спальне.</t>
+  </si>
+  <si>
     <t>This should be your parents' bedroom.</t>
   </si>
   <si>
@@ -407,6 +731,9 @@
     <t>Ça devait être la chambre de tes parents.</t>
   </si>
   <si>
+    <t>Это, наверное, спальня твоих родителей.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Yes, Mom and Dad used to live here. </t>
   </si>
   <si>
@@ -416,6 +743,9 @@
     <t>Oui, ils vivaient ici.</t>
   </si>
   <si>
+    <t>Да, раньше здесь жили мама и папа.</t>
+  </si>
+  <si>
     <t>Dad used to come back from Edinburgh every week.</t>
   </si>
   <si>
@@ -425,6 +755,9 @@
     <t>Ton père revenait chaque semaine d’Édimbourg…</t>
   </si>
   <si>
+    <t>Папа приезжал из Эдинбурга каждую неделю.</t>
+  </si>
+  <si>
     <t>This should be your bedroom.</t>
   </si>
   <si>
@@ -434,6 +767,9 @@
     <t>Et ça, c’était sûrement ta chambre.</t>
   </si>
   <si>
+    <t>А это, должно быть, твоя спальня.</t>
+  </si>
+  <si>
     <t>Yes. This room holds so many memories... and secrets.</t>
   </si>
   <si>
@@ -443,6 +779,9 @@
     <t>Oui… Tant de souvenirs et de secrets ici.</t>
   </si>
   <si>
+    <t>Да, здесь столько воспоминаний... и секретов.</t>
+  </si>
+  <si>
     <t>Oh, this must be your Dad's study.</t>
   </si>
   <si>
@@ -452,6 +791,9 @@
     <t>Oh, ça doit être le bureau de ton père.</t>
   </si>
   <si>
+    <t>О, это, наверное, кабинет твоего папы.</t>
+  </si>
+  <si>
     <t>Yes, Dad often studied here late into the night.</t>
   </si>
   <si>
@@ -461,6 +803,9 @@
     <t>Oui, il y travaillait souvent tard dans la nuit.</t>
   </si>
   <si>
+    <t>Да, папа часто засиживался здесь допоздна за книгами.</t>
+  </si>
+  <si>
     <t>So this is how hard professors at the University of Edinburgh work.</t>
   </si>
   <si>
@@ -470,25 +815,43 @@
     <t>Les professeurs de l’Université d’Édimbourg étaient vraiment travailleurs…</t>
   </si>
   <si>
+    <t>Профессора Эдинбургского университета, оказывается, так трудолюбивы.</t>
+  </si>
+  <si>
     <t>Eillen, what did you all used to do in the backyard?</t>
   </si>
   <si>
+    <t>Eillen 你们以前经常在后院做什么</t>
+  </si>
+  <si>
+    <t>Eillen, que faisiez-vous dans le jardin avant ?</t>
+  </si>
+  <si>
+    <t>Эйлин, чем вы обычно занимались во дворе?</t>
+  </si>
+  <si>
     <t>In the summer, we’d often enjoy the cool breeze together in the backyard.</t>
   </si>
   <si>
-    <t>Eillen 你们以前经常在后院做什么</t>
-  </si>
-  <si>
-    <t>Eillen, que faisiez-vous dans le jardin avant ?</t>
+    <t>我们夏天的时候经常在后院以前乘凉</t>
+  </si>
+  <si>
+    <t>En été, nous nous y reposions souvent à l’ombre.</t>
+  </si>
+  <si>
+    <t>Летом мы часто отдыхали во дворе, наслаждались прохладой.</t>
   </si>
   <si>
     <t>And of course, afternoon tea—tea.</t>
   </si>
   <si>
-    <t>我们夏天的时候经常在后院以前乘凉</t>
-  </si>
-  <si>
-    <t>En été, nous nous y reposions souvent à l’ombre.</t>
+    <t>当然还有下午茶--茶</t>
+  </si>
+  <si>
+    <t>Bien sûr, il y a le thé de l'après-midi - le thé、</t>
+  </si>
+  <si>
+    <t>Конечно, есть послеобеденный чай - чай.</t>
   </si>
   <si>
     <t>Finally made it downtown.</t>
@@ -500,6 +863,9 @@
     <t>Enfin arrivés en ville…</t>
   </si>
   <si>
+    <t>Наконец-то в городе.</t>
+  </si>
+  <si>
     <t>It's been years since we graduated, yet coming back, everything feels so familiar.</t>
   </si>
   <si>
@@ -509,6 +875,9 @@
     <t>Cela fait des années que nous avons obtenu notre diplôme, mais tout est toujours aussi familier.</t>
   </si>
   <si>
+    <t>Мы закончили учёбу несколько лет назад, но, вернувшись, чувствуем, что всё так же знакомо.</t>
+  </si>
+  <si>
     <t>Professor Catherine—we should visit her at the university today.</t>
   </si>
   <si>
@@ -518,6 +887,9 @@
     <t>Professeure Katherine, nous devrions lui rendre visite à l’université aujourd’hui.</t>
   </si>
   <si>
+    <t>Профессор Кэтрин, сегодня нам стоит навестить её в университете.</t>
+  </si>
+  <si>
     <t>Okay. I heard Professor Catherine and your Dad were both professors in the Physics Department?</t>
   </si>
   <si>
@@ -527,6 +899,9 @@
     <t>Oui, j’ai entendu qu’elle et ton père étaient tous deux professeurs de physique.</t>
   </si>
   <si>
+    <t>Хорошо. Говорят, профессор Кэтрин и твой папа были профессорами на физическом факультете.</t>
+  </si>
+  <si>
     <t>Yes, they collaborated on many research projects together.</t>
   </si>
   <si>
@@ -536,6 +911,9 @@
     <t>Oui, ils ont collaboré sur plusieurs recherches.</t>
   </si>
   <si>
+    <t>Да, они вместе участвовали во многих исследованиях.</t>
+  </si>
+  <si>
     <t>Professor Catherine isn't here today either.</t>
   </si>
   <si>
@@ -545,15 +923,18 @@
     <t>La professeure Katherine n’est pas là non plus aujourd’hui…</t>
   </si>
   <si>
+    <t>Сегодня профессора Кэтрин тоже нет.</t>
+  </si>
+  <si>
     <t xml:space="preserve"> I heard Professor Danny is also missing. All the professors who participated in the Antarctic expedition have disappeared together.</t>
   </si>
   <si>
-    <t>听说丹尼教授也没在，一起参与南极科考的教授都集体失踪了</t>
-  </si>
-  <si>
     <t>On dit que le professeur Danny est aussi absent. Tous les professeurs ayant participé à l’expédition en Antarctique ont disparu.</t>
   </si>
   <si>
+    <t>Говорят, профессор Дэнни тоже исчез. Все профессора, участвовавшие в антарктической экспедиции, пропали.</t>
+  </si>
+  <si>
     <t>Maybe we should go inside the teaching building to check.</t>
   </si>
   <si>
@@ -563,6 +944,9 @@
     <t>Peut-être devrions-nous entrer dans le bâtiment pour chercher des indices.</t>
   </si>
   <si>
+    <t>Может, нам стоит заглянуть внутрь здания?</t>
+  </si>
+  <si>
     <t>Alright... I just hope we don't run into anyone familiar.</t>
   </si>
   <si>
@@ -572,6 +956,9 @@
     <t>D’accord… J’espère ne croiser personne de connu.</t>
   </si>
   <si>
+    <t>Ладно, надеюсь, не встретим знакомых.</t>
+  </si>
+  <si>
     <t>This place still feels so familiar.</t>
   </si>
   <si>
@@ -581,6 +968,9 @@
     <t>Tout est si familier ici.</t>
   </si>
   <si>
+    <t>Здесь всё так знакомо.</t>
+  </si>
+  <si>
     <t>Might need to go check the second floor.</t>
   </si>
   <si>
@@ -590,6 +980,9 @@
     <t>Il faudrait peut-être monter au deuxième étage.</t>
   </si>
   <si>
+    <t>Наверное, стоит подняться на второй этаж.</t>
+  </si>
+  <si>
     <t>We’re on the second floor. It’s just like before here too.</t>
   </si>
   <si>
@@ -599,6 +992,9 @@
     <t>Nous y voilà… Toujours pareil.</t>
   </si>
   <si>
+    <t>Вот и второй этаж, здесь тоже ничего не изменилось.</t>
+  </si>
+  <si>
     <t>Let’s see if we can find any clues.</t>
   </si>
   <si>
@@ -608,6 +1004,9 @@
     <t>Voyons s’il y a des indices.</t>
   </si>
   <si>
+    <t>Посмотрим, есть ли какие-то зацепки.</t>
+  </si>
+  <si>
     <t>Didn’t expect there to be another library here.</t>
   </si>
   <si>
@@ -617,6 +1016,9 @@
     <t>Je ne savais pas qu’il y avait une bibliothèque ici.</t>
   </si>
   <si>
+    <t>Не думал, что здесь ещё есть библиотека.</t>
+  </si>
+  <si>
     <t>See if we can find anything useful.</t>
   </si>
   <si>
@@ -626,16 +1028,31 @@
     <t>Cherchons quelque chose d’utile.</t>
   </si>
   <si>
+    <t>Попробуем найти что-нибудь полезное.</t>
+  </si>
+  <si>
     <t>This should be where the professors hold meetings. It’s my first time here.</t>
   </si>
   <si>
+    <t>这应该是教授们开会的地方，第一次来这里，</t>
+  </si>
+  <si>
+    <t>Ça doit être la salle de réunion des professeurs. Je n’y suis jamais allé.</t>
+  </si>
+  <si>
+    <t>Должно быть, это место, где профессора проводят собрания. Я здесь впервые.</t>
+  </si>
+  <si>
     <t>Probably. I remember my Dad mentioning a conference room with a large oval table.</t>
   </si>
   <si>
-    <t xml:space="preserve">            这应该是教授们开会的地方，第一次来这里，</t>
-  </si>
-  <si>
-    <t>Ça doit être la salle de réunion des professeurs. Je n’y suis jamais allé.</t>
+    <t>可能吧。我记得爸爸提到过一间会议室，里面有一张椭圆形的大桌子。</t>
+  </si>
+  <si>
+    <t>Probablement. Je me souviens que mon père avait parlé d'une salle de conférence avec une grande table ovale.</t>
+  </si>
+  <si>
+    <t>Возможно. Я помню, папа упоминал комнату для совещаний с большим овальным столом.</t>
   </si>
   <si>
     <t>Finally made it to London.</t>
@@ -647,6 +1064,9 @@
     <t>Enfin arrivés à Londres…</t>
   </si>
   <si>
+    <t>Наконец-то в Лондоне.</t>
+  </si>
+  <si>
     <t>That’s Tower Bridge ahead.</t>
   </si>
   <si>
@@ -656,6 +1076,9 @@
     <t>Là-bas, c’est le Tower Bridge.</t>
   </si>
   <si>
+    <t>Впереди Тауэрский мост.</t>
+  </si>
+  <si>
     <t>London’s weather is always rainy—this time is no exception.</t>
   </si>
   <si>
@@ -665,6 +1088,9 @@
     <t>Il pleut toujours à Londres, cette fois ne fait pas exception.</t>
   </si>
   <si>
+    <t>В Лондоне всегда дождь, и в этот раз не исключение.</t>
+  </si>
+  <si>
     <t>Yes. Maybe we should come in winter; it might snow then.</t>
   </si>
   <si>
@@ -674,6 +1100,9 @@
     <t>Oui, peut-être aurions-nous dû venir en hiver, il aurait pu neiger.</t>
   </si>
   <si>
+    <t>Да, может, стоило приехать зимой, возможно, выпал бы снег.</t>
+  </si>
+  <si>
     <t>Tower Bridge at night, no one’s here. I remember it used to be crowded with tourists.</t>
   </si>
   <si>
@@ -683,6 +1112,9 @@
     <t>Le Tower Bridge, la nuit, est désert. Avant, il y avait tant de touristes.</t>
   </si>
   <si>
+    <t>Ночью на мосту никого, раньше здесь было много туристов.</t>
+  </si>
+  <si>
     <t>Probably because of the rain.</t>
   </si>
   <si>
@@ -690,6 +1122,9 @@
   </si>
   <si>
     <t>C’est sûrement à cause de la pluie.</t>
+  </si>
+  <si>
+    <t>Наверное, из-за дождя.</t>
   </si>
 </sst>
 </file>
@@ -702,7 +1137,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -717,15 +1152,15 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF404040"/>
       <name val="Microsoft YaHei UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -738,6 +1173,12 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Microsoft YaHei UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1275,137 +1716,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1427,12 +1868,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1442,23 +1886,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1985,10 +2432,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O114"/>
+  <dimension ref="A1:P157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:C$1048576"/>
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>
@@ -1999,11 +2446,12 @@
     <col min="4" max="4" width="133.181818181818" customWidth="1"/>
     <col min="5" max="5" width="75.1818181818182" customWidth="1"/>
     <col min="6" max="6" width="138.909090909091" customWidth="1"/>
-    <col min="7" max="8" width="23.5" customWidth="1"/>
-    <col min="9" max="10" width="30.5363636363636" customWidth="1"/>
+    <col min="7" max="7" width="137" customWidth="1"/>
+    <col min="8" max="9" width="23.5" customWidth="1"/>
+    <col min="10" max="11" width="30.5363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:13">
+    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2022,23 +2470,26 @@
       <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="16"/>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="16.5" spans="1:13">
+      <c r="L1" s="16"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="16"/>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="16.5" spans="1:14">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -2057,25 +2508,28 @@
       <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="5"/>
+      <c r="K2" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="17.1" customHeight="1" spans="1:14">
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="17.1" customHeight="1" spans="1:15">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="4"/>
@@ -2087,1871 +2541,2924 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="17"/>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="16.5" spans="1:15">
+      <c r="L3" s="5"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="17"/>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="16.5" spans="1:16">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="17"/>
+        <v>27</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="5"/>
       <c r="O4" s="17"/>
-    </row>
-    <row r="5" s="3" customFormat="1" ht="16.5" spans="2:13">
+      <c r="P4" s="17"/>
+    </row>
+    <row r="5" s="3" customFormat="1" ht="16.5" spans="2:14">
       <c r="B5" s="7">
+        <v>2090001</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="18">
+        <v>1</v>
+      </c>
+      <c r="L5" s="8"/>
+      <c r="N5" s="8"/>
+    </row>
+    <row r="6" s="3" customFormat="1" ht="16.5" spans="2:14">
+      <c r="B6" s="7">
+        <v>2090002</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="8"/>
+      <c r="N6" s="8"/>
+    </row>
+    <row r="7" s="3" customFormat="1" ht="16.5" spans="2:14">
+      <c r="B7" s="7">
+        <v>2090003</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="8"/>
+      <c r="N7" s="8"/>
+    </row>
+    <row r="8" s="3" customFormat="1" ht="16.5" spans="2:14">
+      <c r="B8" s="7">
+        <v>2090004</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="8"/>
+      <c r="N8" s="8"/>
+    </row>
+    <row r="9" s="3" customFormat="1" ht="16.5" spans="2:14">
+      <c r="B9" s="7">
+        <v>2090005</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="8"/>
+      <c r="N9" s="8"/>
+    </row>
+    <row r="10" s="3" customFormat="1" ht="16.5" spans="2:14">
+      <c r="B10" s="7">
+        <v>2090006</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="8"/>
+      <c r="N10" s="8"/>
+    </row>
+    <row r="11" s="3" customFormat="1" ht="16.5" spans="2:14">
+      <c r="B11" s="7">
+        <v>2090007</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="8"/>
+      <c r="N11" s="8"/>
+    </row>
+    <row r="12" s="3" customFormat="1" ht="16.5" spans="2:14">
+      <c r="B12" s="7">
+        <v>2090008</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="8"/>
+      <c r="N12" s="8"/>
+    </row>
+    <row r="13" s="3" customFormat="1" ht="16.5" spans="2:14">
+      <c r="B13" s="7">
+        <v>2090009</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="8"/>
+      <c r="N13" s="8"/>
+    </row>
+    <row r="14" s="3" customFormat="1" ht="16.5" spans="2:14">
+      <c r="B14" s="7">
+        <v>2090010</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="8"/>
+      <c r="N14" s="8"/>
+    </row>
+    <row r="15" s="3" customFormat="1" ht="16.5" spans="2:14">
+      <c r="B15" s="7">
+        <v>2090011</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="8"/>
+      <c r="N15" s="8"/>
+    </row>
+    <row r="16" s="3" customFormat="1" ht="16.5" spans="2:14">
+      <c r="B16" s="7">
+        <v>2090012</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="8"/>
+      <c r="N16" s="8"/>
+    </row>
+    <row r="17" s="3" customFormat="1" ht="16.5" spans="2:14">
+      <c r="B17" s="7">
+        <v>2090013</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="8"/>
+      <c r="N17" s="8"/>
+    </row>
+    <row r="18" s="3" customFormat="1" ht="16.5" spans="2:14">
+      <c r="B18" s="7">
+        <v>2090014</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="8"/>
+      <c r="N18" s="8"/>
+    </row>
+    <row r="19" s="3" customFormat="1" ht="16.5" spans="2:14">
+      <c r="B19" s="7">
+        <v>2090015</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="8"/>
+      <c r="N19" s="8"/>
+    </row>
+    <row r="20" s="3" customFormat="1" ht="16.5" spans="2:14">
+      <c r="B20" s="7">
+        <v>2090016</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="8"/>
+      <c r="N20" s="8"/>
+    </row>
+    <row r="21" s="3" customFormat="1" ht="16.5" spans="2:14">
+      <c r="B21" s="7">
+        <v>2090017</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="8"/>
+      <c r="N21" s="8"/>
+    </row>
+    <row r="22" s="3" customFormat="1" ht="16.5" spans="2:14">
+      <c r="B22" s="7">
+        <v>2090018</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="8"/>
+      <c r="N22" s="8"/>
+    </row>
+    <row r="23" s="3" customFormat="1" ht="16.5" spans="2:14">
+      <c r="B23" s="7">
+        <v>2090019</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="8"/>
+      <c r="N23" s="8"/>
+    </row>
+    <row r="24" s="3" customFormat="1" ht="16.5" spans="2:14">
+      <c r="B24" s="7">
+        <v>2090020</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="8"/>
+      <c r="N24" s="8"/>
+    </row>
+    <row r="25" s="3" customFormat="1" ht="16.5" spans="2:14">
+      <c r="B25" s="7">
+        <v>2090021</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="8"/>
+      <c r="N25" s="8"/>
+    </row>
+    <row r="26" s="3" customFormat="1" ht="16.5" spans="2:14">
+      <c r="B26" s="7">
+        <v>2090022</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="8"/>
+      <c r="N26" s="8"/>
+    </row>
+    <row r="27" s="3" customFormat="1" ht="16.5" spans="2:14">
+      <c r="B27" s="7">
+        <v>2090023</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="8"/>
+      <c r="N27" s="8"/>
+    </row>
+    <row r="28" s="3" customFormat="1" ht="16.5" spans="2:14">
+      <c r="B28" s="7">
+        <v>2090024</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="8"/>
+      <c r="N28" s="8"/>
+    </row>
+    <row r="29" s="3" customFormat="1" ht="16.5" spans="2:14">
+      <c r="B29" s="7">
+        <v>2090025</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" s="10"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="8"/>
+      <c r="N29" s="8"/>
+    </row>
+    <row r="30" s="3" customFormat="1" ht="16.5" spans="2:14">
+      <c r="B30" s="7">
+        <v>2090026</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30" s="10"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="8"/>
+      <c r="N30" s="8"/>
+    </row>
+    <row r="31" s="3" customFormat="1" ht="16.5" spans="2:14">
+      <c r="B31" s="7">
+        <v>2090027</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F31" s="10"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="8"/>
+      <c r="N31" s="8"/>
+    </row>
+    <row r="32" s="3" customFormat="1" ht="16.5" spans="2:14">
+      <c r="B32" s="7">
+        <v>2090028</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F32" s="10"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="8"/>
+      <c r="N32" s="8"/>
+    </row>
+    <row r="33" s="3" customFormat="1" ht="16.5" spans="2:14">
+      <c r="B33" s="7">
+        <v>2090029</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F33" s="10"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="8"/>
+      <c r="N33" s="8"/>
+    </row>
+    <row r="34" s="3" customFormat="1" ht="16.5" spans="2:14">
+      <c r="B34" s="7">
+        <v>2090030</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F34" s="10"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="8"/>
+      <c r="N34" s="8"/>
+    </row>
+    <row r="35" s="3" customFormat="1" ht="16.5" spans="2:14">
+      <c r="B35" s="7">
+        <v>2090031</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35" s="10"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="8"/>
+      <c r="N35" s="8"/>
+    </row>
+    <row r="36" s="3" customFormat="1" ht="16.5" spans="2:14">
+      <c r="B36" s="7">
+        <v>2090032</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F36" s="10"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="8"/>
+      <c r="N36" s="8"/>
+    </row>
+    <row r="37" s="3" customFormat="1" ht="16.5" spans="2:14">
+      <c r="B37" s="7">
+        <v>2090033</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F37" s="10"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="8"/>
+      <c r="N37" s="8"/>
+    </row>
+    <row r="38" s="3" customFormat="1" ht="16.5" spans="2:14">
+      <c r="B38" s="7">
+        <v>2090034</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F38" s="10"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="8"/>
+      <c r="N38" s="8"/>
+    </row>
+    <row r="39" s="3" customFormat="1" ht="16.5" spans="2:14">
+      <c r="B39" s="7">
+        <v>2090035</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F39" s="10"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="8"/>
+      <c r="N39" s="8"/>
+    </row>
+    <row r="40" s="3" customFormat="1" ht="16.5" spans="2:14">
+      <c r="B40" s="7">
+        <v>2090036</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F40" s="10"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="8"/>
+      <c r="N40" s="8"/>
+    </row>
+    <row r="41" s="3" customFormat="1" ht="16.5" spans="2:14">
+      <c r="B41" s="7">
+        <v>2090037</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F41" s="10"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="8"/>
+      <c r="N41" s="8"/>
+    </row>
+    <row r="42" s="3" customFormat="1" ht="16.5" spans="2:14">
+      <c r="B42" s="7">
+        <v>2090038</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F42" s="10"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="8"/>
+      <c r="N42" s="8"/>
+    </row>
+    <row r="43" s="3" customFormat="1" ht="16.5" spans="2:14">
+      <c r="B43" s="7">
+        <v>2090039</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F43" s="10"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="8"/>
+      <c r="N43" s="8"/>
+    </row>
+    <row r="44" s="3" customFormat="1" ht="16.5" spans="2:14">
+      <c r="B44" s="7"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="8"/>
+      <c r="N44" s="8"/>
+    </row>
+    <row r="45" s="3" customFormat="1" ht="16.5" spans="2:14">
+      <c r="B45" s="7"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="8"/>
+      <c r="N45" s="8"/>
+    </row>
+    <row r="46" s="3" customFormat="1" ht="16.5" spans="2:14">
+      <c r="B46" s="7"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="8"/>
+      <c r="N46" s="8"/>
+    </row>
+    <row r="47" s="3" customFormat="1" ht="16.5" spans="2:14">
+      <c r="B47" s="7"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="8"/>
+      <c r="N47" s="8"/>
+    </row>
+    <row r="48" s="3" customFormat="1" ht="16.5" spans="2:14">
+      <c r="B48" s="7">
         <v>2000001</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="18">
+      <c r="C48" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I48" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="J48" s="8"/>
+      <c r="K48" s="18">
         <v>1</v>
       </c>
-      <c r="K5" s="8"/>
-      <c r="M5" s="8"/>
-    </row>
-    <row r="6" s="3" customFormat="1" ht="16.5" spans="2:13">
-      <c r="B6" s="7">
+      <c r="L48" s="8"/>
+      <c r="N48" s="8"/>
+    </row>
+    <row r="49" s="3" customFormat="1" ht="16.5" spans="2:14">
+      <c r="B49" s="7">
         <v>2000002</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="8"/>
-      <c r="M6" s="8"/>
-    </row>
-    <row r="7" s="3" customFormat="1" ht="16.5" spans="2:13">
-      <c r="B7" s="7">
+      <c r="C49" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I49" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="J49" s="8"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="8"/>
+      <c r="N49" s="8"/>
+    </row>
+    <row r="50" s="3" customFormat="1" ht="16.5" spans="2:14">
+      <c r="B50" s="7">
         <v>2000003</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="18">
+      <c r="C50" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I50" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="J50" s="8"/>
+      <c r="K50" s="18">
         <v>1</v>
       </c>
-      <c r="K7" s="8"/>
-      <c r="M7" s="8"/>
-    </row>
-    <row r="8" s="3" customFormat="1" ht="16.5" spans="2:13">
-      <c r="B8" s="7">
+      <c r="L50" s="8"/>
+      <c r="N50" s="8"/>
+    </row>
+    <row r="51" s="3" customFormat="1" ht="16.5" spans="2:14">
+      <c r="B51" s="7">
         <v>2000004</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="8"/>
-      <c r="M8" s="8"/>
-    </row>
-    <row r="9" ht="16.5" spans="2:15">
-      <c r="B9" s="7">
+      <c r="C51" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I51" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="J51" s="8"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="8"/>
+      <c r="N51" s="8"/>
+    </row>
+    <row r="52" ht="16.5" spans="2:16">
+      <c r="B52" s="7">
         <v>2000005</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="18">
+      <c r="C52" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I52" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="J52" s="8"/>
+      <c r="K52" s="18">
         <v>1</v>
       </c>
-      <c r="K9" s="8"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-    </row>
-    <row r="10" ht="16.5" spans="2:15">
-      <c r="B10" s="7">
+      <c r="L52" s="8"/>
+      <c r="O52" s="19"/>
+      <c r="P52" s="19"/>
+    </row>
+    <row r="53" ht="16.5" spans="2:16">
+      <c r="B53" s="7">
         <v>2000006</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="18">
+      <c r="C53" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I53" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="J53" s="8"/>
+      <c r="K53" s="18">
         <v>1</v>
       </c>
-      <c r="K10" s="8"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-    </row>
-    <row r="11" ht="16.5" spans="2:15">
-      <c r="B11" s="7">
+      <c r="L53" s="8"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="19"/>
+    </row>
+    <row r="54" ht="16.5" spans="2:16">
+      <c r="B54" s="7">
         <v>2000007</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="8"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-    </row>
-    <row r="12" ht="16.5" spans="2:15">
-      <c r="B12" s="7">
+      <c r="C54" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I54" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="J54" s="8"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="8"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="19"/>
+    </row>
+    <row r="55" ht="16.5" spans="2:16">
+      <c r="B55" s="7">
         <v>2000008</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="18">
+      <c r="C55" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I55" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="J55" s="8"/>
+      <c r="K55" s="18">
         <v>1</v>
       </c>
-      <c r="K12" s="8"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-    </row>
-    <row r="13" ht="16.5" spans="2:15">
-      <c r="B13" s="7">
+      <c r="L55" s="8"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="19"/>
+    </row>
+    <row r="56" ht="16.5" spans="2:16">
+      <c r="B56" s="7">
         <v>2000009</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="8"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-    </row>
-    <row r="14" ht="16.5" spans="2:15">
-      <c r="B14" s="7">
+      <c r="C56" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I56" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="J56" s="8"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="8"/>
+      <c r="O56" s="19"/>
+      <c r="P56" s="19"/>
+    </row>
+    <row r="57" ht="16.5" spans="2:16">
+      <c r="B57" s="7">
         <v>2000010</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="18">
+      <c r="C57" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I57" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="J57" s="8"/>
+      <c r="K57" s="18">
         <v>1</v>
       </c>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-    </row>
-    <row r="15" ht="16.5" spans="2:15">
-      <c r="B15" s="7">
+      <c r="O57" s="19"/>
+      <c r="P57" s="19"/>
+    </row>
+    <row r="58" ht="16.5" spans="2:16">
+      <c r="B58" s="7">
         <v>2000011</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="18"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-    </row>
-    <row r="16" ht="16.5" spans="2:15">
-      <c r="B16" s="7">
+      <c r="C58" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I58" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="J58" s="8"/>
+      <c r="K58" s="18"/>
+      <c r="O58" s="19"/>
+      <c r="P58" s="19"/>
+    </row>
+    <row r="59" ht="16.5" spans="2:16">
+      <c r="B59" s="7">
         <v>2000012</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="18">
+      <c r="C59" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I59" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="J59" s="8"/>
+      <c r="K59" s="18">
         <v>1</v>
       </c>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-    </row>
-    <row r="17" ht="16.5" spans="2:15">
-      <c r="B17" s="7">
+      <c r="O59" s="19"/>
+      <c r="P59" s="19"/>
+    </row>
+    <row r="60" ht="16.5" spans="2:16">
+      <c r="B60" s="7">
         <v>2000013</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="18">
+      <c r="C60" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I60" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="J60" s="8"/>
+      <c r="K60" s="18">
         <v>1</v>
       </c>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-    </row>
-    <row r="18" ht="16.5" spans="2:15">
-      <c r="B18" s="7">
+      <c r="O60" s="19"/>
+      <c r="P60" s="19"/>
+    </row>
+    <row r="61" ht="16.5" spans="2:16">
+      <c r="B61" s="7">
         <v>2000014</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="18">
+      <c r="C61" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I61" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="J61" s="8"/>
+      <c r="K61" s="18">
         <v>1</v>
       </c>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-    </row>
-    <row r="19" ht="16.5" spans="2:15">
-      <c r="B19" s="7">
+      <c r="O61" s="19"/>
+      <c r="P61" s="19"/>
+    </row>
+    <row r="62" ht="16.5" spans="2:16">
+      <c r="B62" s="7">
         <v>2000015</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I19" s="8"/>
-      <c r="J19" s="18">
+      <c r="C62" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I62" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="J62" s="8"/>
+      <c r="K62" s="18">
         <v>1</v>
       </c>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-    </row>
-    <row r="20" ht="16.5" spans="2:15">
-      <c r="B20" s="7">
+      <c r="O62" s="19"/>
+      <c r="P62" s="19"/>
+    </row>
+    <row r="63" ht="16.5" spans="2:16">
+      <c r="B63" s="7">
         <v>2000016</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="18">
+      <c r="C63" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I63" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="J63" s="8"/>
+      <c r="K63" s="18">
         <v>1</v>
       </c>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-    </row>
-    <row r="21" ht="16.5" spans="2:15">
-      <c r="B21" s="7">
+      <c r="O63" s="19"/>
+      <c r="P63" s="19"/>
+    </row>
+    <row r="64" ht="16.5" spans="2:16">
+      <c r="B64" s="7">
         <v>2000017</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I21" s="8"/>
-      <c r="J21" s="18"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-    </row>
-    <row r="22" ht="16.5" spans="2:15">
-      <c r="B22" s="7">
+      <c r="C64" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I64" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="J64" s="8"/>
+      <c r="K64" s="18"/>
+      <c r="O64" s="19"/>
+      <c r="P64" s="19"/>
+    </row>
+    <row r="65" ht="16.5" spans="2:16">
+      <c r="B65" s="7">
         <v>2000018</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="18">
+      <c r="C65" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I65" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="J65" s="8"/>
+      <c r="K65" s="18">
         <v>1</v>
       </c>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-    </row>
-    <row r="23" ht="16.5" spans="2:15">
-      <c r="B23" s="7">
+      <c r="O65" s="19"/>
+      <c r="P65" s="19"/>
+    </row>
+    <row r="66" ht="16.5" spans="2:16">
+      <c r="B66" s="7">
         <v>2000019</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I23" s="8"/>
-      <c r="J23" s="18">
+      <c r="C66" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I66" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="J66" s="8"/>
+      <c r="K66" s="18">
         <v>1</v>
       </c>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-    </row>
-    <row r="24" ht="16.5" spans="2:15">
-      <c r="B24" s="7">
+      <c r="O66" s="19"/>
+      <c r="P66" s="19"/>
+    </row>
+    <row r="67" ht="16.5" spans="2:16">
+      <c r="B67" s="7">
         <v>2000020</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I24" s="8"/>
-      <c r="J24" s="18"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-    </row>
-    <row r="25" ht="16.5" spans="2:15">
-      <c r="B25" s="7">
+      <c r="C67" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I67" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="J67" s="8"/>
+      <c r="K67" s="18"/>
+      <c r="O67" s="19"/>
+      <c r="P67" s="19"/>
+    </row>
+    <row r="68" ht="16.5" spans="2:16">
+      <c r="B68" s="7">
         <v>2000021</v>
       </c>
-      <c r="C25" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I25" s="8"/>
-      <c r="J25" s="18">
+      <c r="C68" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I68" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="J68" s="8"/>
+      <c r="K68" s="18">
         <v>1</v>
       </c>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-    </row>
-    <row r="26" ht="16.5" spans="2:15">
-      <c r="B26" s="7">
+      <c r="O68" s="19"/>
+      <c r="P68" s="19"/>
+    </row>
+    <row r="69" ht="16.5" spans="2:16">
+      <c r="B69" s="7">
         <v>2000022</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I26" s="10"/>
-      <c r="J26" s="18"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-    </row>
-    <row r="27" ht="16.5" spans="2:15">
-      <c r="B27" s="7">
+      <c r="C69" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I69" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="J69" s="15"/>
+      <c r="K69" s="18"/>
+      <c r="O69" s="19"/>
+      <c r="P69" s="19"/>
+    </row>
+    <row r="70" ht="16.5" spans="2:16">
+      <c r="B70" s="7">
         <v>2000023</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I27" s="10"/>
-      <c r="J27" s="18">
+      <c r="C70" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I70" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="J70" s="15"/>
+      <c r="K70" s="18">
         <v>1</v>
       </c>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-    </row>
-    <row r="28" ht="16.5" spans="2:15">
-      <c r="B28" s="7">
+      <c r="O70" s="19"/>
+      <c r="P70" s="19"/>
+    </row>
+    <row r="71" ht="16.5" spans="2:16">
+      <c r="B71" s="7">
         <v>2000024</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I28" s="10"/>
-      <c r="J28" s="18"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-    </row>
-    <row r="29" ht="16.5" spans="2:15">
-      <c r="B29" s="7">
+      <c r="C71" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I71" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="J71" s="15"/>
+      <c r="K71" s="18"/>
+      <c r="O71" s="19"/>
+      <c r="P71" s="19"/>
+    </row>
+    <row r="72" ht="16.5" spans="2:16">
+      <c r="B72" s="7">
         <v>2000025</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I29" s="10"/>
-      <c r="J29" s="18">
+      <c r="C72" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I72" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="J72" s="15"/>
+      <c r="K72" s="18">
         <v>1</v>
       </c>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-    </row>
-    <row r="30" ht="16.5" spans="2:15">
-      <c r="B30" s="7">
+      <c r="O72" s="19"/>
+      <c r="P72" s="19"/>
+    </row>
+    <row r="73" ht="16.5" spans="2:16">
+      <c r="B73" s="7">
         <v>2000026</v>
       </c>
-      <c r="C30" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I30" s="10"/>
-      <c r="J30" s="18"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-    </row>
-    <row r="31" ht="16.5" spans="2:15">
-      <c r="B31" s="7">
+      <c r="C73" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="G73" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I73" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="J73" s="15"/>
+      <c r="K73" s="18"/>
+      <c r="O73" s="19"/>
+      <c r="P73" s="19"/>
+    </row>
+    <row r="74" ht="16.5" spans="2:16">
+      <c r="B74" s="7">
         <v>2000027</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I31" s="10"/>
-      <c r="J31" s="18">
+      <c r="C74" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="H74" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I74" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="J74" s="15"/>
+      <c r="K74" s="18">
         <v>1</v>
       </c>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-    </row>
-    <row r="32" ht="16.5" spans="2:15">
-      <c r="B32" s="7">
+      <c r="O74" s="19"/>
+      <c r="P74" s="19"/>
+    </row>
+    <row r="75" ht="16.5" spans="2:16">
+      <c r="B75" s="7">
         <v>2000028</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I32" s="10"/>
-      <c r="J32" s="18"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-    </row>
-    <row r="33" ht="16.5" spans="2:15">
-      <c r="B33" s="7">
+      <c r="C75" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="G75" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I75" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="J75" s="15"/>
+      <c r="K75" s="18"/>
+      <c r="O75" s="19"/>
+      <c r="P75" s="19"/>
+    </row>
+    <row r="76" ht="16.5" spans="2:16">
+      <c r="B76" s="7">
         <v>2000029</v>
       </c>
-      <c r="C33" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I33" s="10"/>
-      <c r="J33" s="18"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="19"/>
-    </row>
-    <row r="34" ht="16.5" spans="2:15">
-      <c r="B34" s="7">
+      <c r="C76" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="H76" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I76" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="J76" s="15"/>
+      <c r="K76" s="18"/>
+      <c r="O76" s="19"/>
+      <c r="P76" s="19"/>
+    </row>
+    <row r="77" ht="16.5" spans="2:16">
+      <c r="B77" s="7">
         <v>2000030</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I34" s="10"/>
-      <c r="J34" s="18">
+      <c r="C77" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="H77" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I77" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="J77" s="15"/>
+      <c r="K77" s="18">
         <v>1</v>
       </c>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-    </row>
-    <row r="35" ht="16.5" spans="2:15">
-      <c r="B35" s="7">
+      <c r="O77" s="19"/>
+      <c r="P77" s="19"/>
+    </row>
+    <row r="78" ht="16.5" spans="2:16">
+      <c r="B78" s="7">
         <v>2000031</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I35" s="10"/>
-      <c r="J35" s="18">
+      <c r="C78" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="G78" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I78" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="J78" s="15"/>
+      <c r="K78" s="18">
         <v>1</v>
       </c>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
-    </row>
-    <row r="36" ht="16.5" spans="2:15">
-      <c r="B36" s="7">
+      <c r="O78" s="19"/>
+      <c r="P78" s="19"/>
+    </row>
+    <row r="79" ht="16.5" spans="2:16">
+      <c r="B79" s="7">
         <v>2000032</v>
       </c>
-      <c r="C36" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I36" s="10"/>
-      <c r="J36" s="18"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="19"/>
-    </row>
-    <row r="37" ht="16.5" spans="2:15">
-      <c r="B37" s="7">
+      <c r="C79" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="G79" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I79" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="J79" s="15"/>
+      <c r="K79" s="18"/>
+      <c r="O79" s="19"/>
+      <c r="P79" s="19"/>
+    </row>
+    <row r="80" ht="16.5" spans="2:16">
+      <c r="B80" s="7">
         <v>2000033</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H37" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I37" s="10"/>
-      <c r="J37" s="18">
+      <c r="C80" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="H80" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I80" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="J80" s="15"/>
+      <c r="K80" s="18">
         <v>1</v>
       </c>
-      <c r="N37" s="19"/>
-      <c r="O37" s="19"/>
-    </row>
-    <row r="38" ht="16.5" spans="2:15">
-      <c r="B38" s="7">
+      <c r="O80" s="19"/>
+      <c r="P80" s="19"/>
+    </row>
+    <row r="81" ht="16.5" spans="2:16">
+      <c r="B81" s="7">
         <v>2000034</v>
       </c>
-      <c r="C38" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="F38" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I38" s="10"/>
-      <c r="J38" s="18"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="19"/>
-    </row>
-    <row r="39" ht="16.5" spans="2:10">
-      <c r="B39" s="7">
+      <c r="C81" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D81" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="E81" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="F81" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="G81" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="H81" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I81" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="J81" s="15"/>
+      <c r="K81" s="18"/>
+      <c r="O81" s="19"/>
+      <c r="P81" s="19"/>
+    </row>
+    <row r="82" ht="16.5" spans="2:11">
+      <c r="B82" s="7">
         <v>2000035</v>
       </c>
-      <c r="C39" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="F39" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J39" s="18">
+      <c r="C82" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="E82" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="F82" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="G82" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="H82" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I82" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="K82" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="40" ht="16.5" spans="2:10">
-      <c r="B40" s="7">
+    <row r="83" ht="16.5" spans="2:11">
+      <c r="B83" s="7">
         <v>2000036</v>
       </c>
-      <c r="C40" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H40" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J40" s="18"/>
-    </row>
-    <row r="41" ht="16.5" spans="2:10">
-      <c r="B41" s="7">
+      <c r="C83" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D83" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="E83" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="F83" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="G83" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="H83" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I83" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="K83" s="18"/>
+    </row>
+    <row r="84" ht="16.5" spans="2:11">
+      <c r="B84" s="7">
         <v>2000037</v>
       </c>
-      <c r="C41" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="10"/>
-      <c r="J41" s="18"/>
-    </row>
-    <row r="42" ht="16.5" spans="2:10">
-      <c r="B42" s="7">
+      <c r="C84" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D84" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="E84" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="F84" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="G84" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="H84" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I84" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="K84" s="18"/>
+    </row>
+    <row r="85" ht="16.5" spans="2:11">
+      <c r="B85" s="7">
         <v>2000038</v>
       </c>
-      <c r="C42" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="F42" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H42" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J42" s="18">
+      <c r="C85" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D85" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="E85" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="F85" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="G85" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="H85" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I85" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="K85" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="43" ht="16.5" spans="2:10">
-      <c r="B43" s="7">
+    <row r="86" ht="16.5" spans="2:11">
+      <c r="B86" s="7">
         <v>2000039</v>
       </c>
-      <c r="C43" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="F43" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J43" s="18">
+      <c r="C86" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D86" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="E86" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="F86" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="H86" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I86" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="K86" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="44" ht="16.5" spans="2:10">
-      <c r="B44" s="7">
+    <row r="87" ht="16.5" spans="2:11">
+      <c r="B87" s="7">
         <v>2000040</v>
       </c>
-      <c r="C44" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="F44" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H44" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J44" s="18">
+      <c r="C87" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D87" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E87" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="F87" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="G87" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="H87" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I87" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="K87" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="45" ht="16.5" spans="2:10">
-      <c r="B45" s="7">
+    <row r="88" ht="16.5" spans="2:11">
+      <c r="B88" s="7">
         <v>2000041</v>
       </c>
-      <c r="C45" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="F45" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H45" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J45" s="18"/>
-    </row>
-    <row r="46" ht="16.5" spans="2:10">
-      <c r="B46" s="7">
+      <c r="C88" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D88" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="E88" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="F88" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="G88" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="H88" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I88" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="K88" s="18"/>
+    </row>
+    <row r="89" ht="16.5" spans="2:11">
+      <c r="B89" s="7">
         <v>2000042</v>
       </c>
-      <c r="C46" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="F46" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J46" s="18">
+      <c r="C89" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D89" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="E89" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="F89" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="G89" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="H89" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I89" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="K89" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="47" ht="16.5" spans="2:10">
-      <c r="B47" s="7">
+    <row r="90" ht="16.5" spans="2:11">
+      <c r="B90" s="7">
         <v>2000043</v>
       </c>
-      <c r="C47" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="F47" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H47" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J47" s="18"/>
-    </row>
-    <row r="48" ht="16.5" spans="2:10">
-      <c r="B48" s="7">
+      <c r="C90" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D90" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="E90" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="F90" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="G90" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="H90" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I90" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="K90" s="18"/>
+    </row>
+    <row r="91" ht="16.5" spans="2:11">
+      <c r="B91" s="7">
         <v>2000044</v>
       </c>
-      <c r="C48" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="F48" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H48" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J48" s="18">
+      <c r="C91" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D91" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="E91" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="F91" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="G91" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="H91" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I91" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="K91" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="49" ht="16.5" spans="2:10">
-      <c r="B49" s="7">
+    <row r="92" ht="16.5" spans="2:11">
+      <c r="B92" s="7">
         <v>2000045</v>
       </c>
-      <c r="C49" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="F49" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H49" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J49" s="18">
+      <c r="C92" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D92" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="E92" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="F92" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="G92" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="H92" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I92" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="K92" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="50" ht="16.5" spans="2:10">
-      <c r="B50" s="7">
+    <row r="93" ht="16.5" spans="2:11">
+      <c r="B93" s="7">
         <v>2000046</v>
       </c>
-      <c r="C50" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="F50" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H50" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J50" s="18"/>
-    </row>
-    <row r="51" ht="16.5" spans="2:10">
-      <c r="B51" s="7">
+      <c r="C93" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D93" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="E93" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="F93" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="G93" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="H93" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I93" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="K93" s="18"/>
+    </row>
+    <row r="94" ht="16.5" spans="2:11">
+      <c r="B94" s="7">
         <v>2000047</v>
       </c>
-      <c r="C51" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F51" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H51" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J51" s="18">
+      <c r="C94" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D94" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="E94" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="F94" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="G94" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="H94" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I94" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="K94" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="52" ht="16.5" spans="2:10">
-      <c r="B52" s="7">
+    <row r="95" ht="16.5" spans="2:11">
+      <c r="B95" s="7">
         <v>2000048</v>
       </c>
-      <c r="C52" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="F52" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H52" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J52" s="18"/>
-    </row>
-    <row r="53" ht="16.5" spans="2:10">
-      <c r="B53" s="7">
+      <c r="C95" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D95" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="E95" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="F95" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="G95" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="H95" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I95" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="K95" s="18"/>
+    </row>
+    <row r="96" ht="16.5" spans="2:11">
+      <c r="B96" s="7">
         <v>2000049</v>
       </c>
-      <c r="C53" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="F53" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H53" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J53" s="18"/>
-    </row>
-    <row r="54" ht="16.5" spans="2:10">
-      <c r="B54" s="7">
+      <c r="C96" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D96" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="E96" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="F96" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="G96" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="H96" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I96" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="K96" s="18"/>
+    </row>
+    <row r="97" ht="16.5" spans="2:11">
+      <c r="B97" s="7">
         <v>2000050</v>
       </c>
-      <c r="C54" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="F54" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H54" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J54" s="18">
+      <c r="C97" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D97" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="E97" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="F97" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="G97" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="H97" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I97" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="K97" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="55" ht="16.5" spans="2:10">
-      <c r="B55" s="7">
+    <row r="98" ht="16.5" spans="2:11">
+      <c r="B98" s="7">
         <v>2000051</v>
       </c>
-      <c r="C55" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="F55" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H55" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J55" s="18"/>
-    </row>
-    <row r="56" ht="16.5" spans="2:10">
-      <c r="B56" s="7">
+      <c r="C98" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D98" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="E98" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="F98" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="G98" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="H98" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I98" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="K98" s="18"/>
+    </row>
+    <row r="99" ht="16.5" spans="2:11">
+      <c r="B99" s="7">
         <v>2000052</v>
       </c>
-      <c r="C56" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="F56" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H56" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J56" s="18">
+      <c r="C99" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D99" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="F99" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="G99" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="H99" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I99" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="K99" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="57" ht="16.5" spans="2:10">
-      <c r="B57" s="7">
+    <row r="100" ht="16.5" spans="2:11">
+      <c r="B100" s="7">
         <v>2000053</v>
       </c>
-      <c r="C57" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="F57" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H57" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J57" s="18"/>
-    </row>
-    <row r="58" ht="16.5" spans="2:10">
-      <c r="B58" s="7">
+      <c r="C100" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D100" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="E100" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="F100" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="G100" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="H100" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I100" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="K100" s="18"/>
+    </row>
+    <row r="101" ht="16.5" spans="2:11">
+      <c r="B101" s="7">
         <v>2000054</v>
       </c>
-      <c r="C58" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="F58" s="14" t="s">
+      <c r="C101" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="G58" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H58" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J58" s="18">
+      <c r="D101" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="E101" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="F101" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="G101" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="H101" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I101" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="K101" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="59" ht="16.5" spans="2:10">
-      <c r="B59" s="7">
+    <row r="102" ht="16.5" spans="2:11">
+      <c r="B102" s="7">
         <v>2000055</v>
       </c>
-      <c r="C59" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="E59" s="15"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="10"/>
-      <c r="J59" s="18"/>
-    </row>
-    <row r="60" ht="16.5" spans="2:10">
-      <c r="B60" s="7">
+      <c r="C102" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D102" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="E102" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="F102" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="G102" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="H102" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I102" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="K102" s="18"/>
+    </row>
+    <row r="103" ht="16.5" spans="2:11">
+      <c r="B103" s="7">
         <v>2000056</v>
       </c>
-      <c r="C60" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="F60" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="G60" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H60" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J60" s="18">
+      <c r="C103" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D103" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="E103" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="F103" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="G103" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="H103" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I103" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="K103" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="61" ht="16.5" spans="2:10">
-      <c r="B61" s="7">
+    <row r="104" ht="16.5" spans="2:11">
+      <c r="B104" s="7">
         <v>2000057</v>
       </c>
-      <c r="C61" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="F61" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="G61" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H61" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J61" s="18"/>
-    </row>
-    <row r="62" ht="16.5" spans="2:10">
-      <c r="B62" s="7">
+      <c r="C104" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D104" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="E104" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="F104" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="G104" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="H104" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I104" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="K104" s="18"/>
+    </row>
+    <row r="105" ht="16.5" spans="2:11">
+      <c r="B105" s="7">
         <v>2000058</v>
       </c>
-      <c r="C62" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="F62" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="G62" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H62" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J62" s="18">
+      <c r="C105" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D105" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="E105" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="F105" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="G105" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="H105" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I105" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="K105" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="63" ht="16.5" spans="2:10">
-      <c r="B63" s="7">
+    <row r="106" ht="16.5" spans="2:11">
+      <c r="B106" s="7">
         <v>2000059</v>
       </c>
-      <c r="C63" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="F63" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="G63" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H63" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J63" s="18"/>
-    </row>
-    <row r="64" ht="16.5" spans="2:10">
-      <c r="B64" s="7">
+      <c r="C106" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D106" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="E106" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="F106" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="G106" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="H106" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I106" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="K106" s="18"/>
+    </row>
+    <row r="107" ht="16.5" spans="2:11">
+      <c r="B107" s="7">
         <v>2000060</v>
       </c>
-      <c r="C64" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="F64" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="G64" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H64" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J64" s="18">
+      <c r="C107" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D107" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="E107" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="F107" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="G107" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="H107" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I107" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="K107" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="65" ht="16.5" spans="2:10">
-      <c r="B65" s="7">
+    <row r="108" ht="16.5" spans="2:11">
+      <c r="B108" s="7">
         <v>2000061</v>
       </c>
-      <c r="C65" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="E65" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="F65" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="G65" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H65" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J65" s="18"/>
-    </row>
-    <row r="66" ht="16.5" spans="2:10">
-      <c r="B66" s="7">
+      <c r="C108" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D108" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="E108" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="F108" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G108" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="H108" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I108" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="K108" s="18"/>
+    </row>
+    <row r="109" ht="16.5" spans="2:11">
+      <c r="B109" s="7">
         <v>2000062</v>
       </c>
-      <c r="C66" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="F66" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="G66" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H66" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J66" s="18">
+      <c r="C109" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D109" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="E109" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="F109" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="G109" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="H109" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I109" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="K109" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="67" ht="16.5" spans="2:8">
-      <c r="B67" s="7">
+    <row r="110" ht="16.5" spans="2:9">
+      <c r="B110" s="7">
         <v>2000063</v>
       </c>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="10"/>
-    </row>
-    <row r="68" ht="16.5" spans="2:8">
-      <c r="B68" s="7">
+      <c r="D110" s="15"/>
+      <c r="E110" s="15"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="15"/>
+    </row>
+    <row r="111" ht="16.5" spans="2:9">
+      <c r="B111" s="7">
         <v>2000064</v>
       </c>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="10"/>
-    </row>
-    <row r="69" ht="16.5" spans="5:8">
-      <c r="E69" s="10"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="10"/>
-    </row>
-    <row r="70" ht="16.5" spans="5:8">
-      <c r="E70" s="10"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="10"/>
-    </row>
-    <row r="71" ht="16.5" spans="5:8">
-      <c r="E71" s="10"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="10"/>
-    </row>
-    <row r="72" ht="16.5" spans="5:8">
-      <c r="E72" s="10"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="10"/>
-    </row>
-    <row r="73" ht="16.5" spans="5:8">
-      <c r="E73" s="10"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="10"/>
-    </row>
-    <row r="74" ht="16.5" spans="5:8">
-      <c r="E74" s="10"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="10"/>
-    </row>
-    <row r="75" ht="16.5" spans="5:5">
-      <c r="E75" s="10"/>
-    </row>
-    <row r="76" spans="5:5">
-      <c r="E76" s="19"/>
-    </row>
-    <row r="77" spans="5:5">
-      <c r="E77" s="19"/>
-    </row>
-    <row r="78" spans="5:5">
-      <c r="E78" s="19"/>
-    </row>
-    <row r="79" spans="5:5">
-      <c r="E79" s="19"/>
-    </row>
-    <row r="80" spans="5:5">
-      <c r="E80" s="19"/>
-    </row>
-    <row r="81" spans="5:5">
-      <c r="E81" s="19"/>
-    </row>
-    <row r="82" spans="5:5">
-      <c r="E82" s="19"/>
-    </row>
-    <row r="83" spans="5:5">
-      <c r="E83" s="19"/>
-    </row>
-    <row r="84" spans="5:5">
-      <c r="E84" s="19"/>
-    </row>
-    <row r="85" spans="5:5">
-      <c r="E85" s="19"/>
-    </row>
-    <row r="86" spans="5:5">
-      <c r="E86" s="19"/>
-    </row>
-    <row r="87" spans="5:5">
-      <c r="E87" s="19"/>
-    </row>
-    <row r="88" spans="5:5">
-      <c r="E88" s="19"/>
-    </row>
-    <row r="89" spans="5:5">
-      <c r="E89" s="19"/>
-    </row>
-    <row r="90" spans="5:5">
-      <c r="E90" s="19"/>
-    </row>
-    <row r="91" spans="5:5">
-      <c r="E91" s="19"/>
-    </row>
-    <row r="92" spans="5:5">
-      <c r="E92" s="19"/>
-    </row>
-    <row r="93" spans="5:5">
-      <c r="E93" s="19"/>
-    </row>
-    <row r="94" spans="5:5">
-      <c r="E94" s="19"/>
-    </row>
-    <row r="95" spans="5:5">
-      <c r="E95" s="19"/>
-    </row>
-    <row r="96" spans="5:5">
-      <c r="E96" s="19"/>
-    </row>
-    <row r="97" spans="5:5">
-      <c r="E97" s="19"/>
-    </row>
-    <row r="98" spans="5:5">
-      <c r="E98" s="19"/>
-    </row>
-    <row r="99" spans="5:5">
-      <c r="E99" s="19"/>
-    </row>
-    <row r="100" spans="5:5">
-      <c r="E100" s="19"/>
-    </row>
-    <row r="101" spans="5:5">
-      <c r="E101" s="19"/>
-    </row>
-    <row r="102" spans="5:5">
-      <c r="E102" s="19"/>
-    </row>
-    <row r="103" spans="5:5">
-      <c r="E103" s="19"/>
-    </row>
-    <row r="104" spans="5:5">
-      <c r="E104" s="19"/>
-    </row>
-    <row r="105" spans="5:5">
-      <c r="E105" s="19"/>
-    </row>
-    <row r="106" spans="5:5">
-      <c r="E106" s="19"/>
-    </row>
-    <row r="107" spans="5:5">
-      <c r="E107" s="19"/>
-    </row>
-    <row r="108" spans="5:5">
-      <c r="E108" s="19"/>
-    </row>
-    <row r="109" spans="5:5">
-      <c r="E109" s="19"/>
-    </row>
-    <row r="110" spans="5:5">
-      <c r="E110" s="19"/>
-    </row>
-    <row r="111" spans="5:5">
-      <c r="E111" s="19"/>
-    </row>
-    <row r="112" spans="5:5">
-      <c r="E112" s="19"/>
-    </row>
-    <row r="113" spans="5:5">
-      <c r="E113" s="19"/>
-    </row>
-    <row r="114" spans="5:5">
-      <c r="E114" s="19"/>
+      <c r="D111" s="15"/>
+      <c r="E111" s="15"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="8"/>
+      <c r="I111" s="15"/>
+    </row>
+    <row r="112" ht="16.5" spans="5:9">
+      <c r="E112" s="15"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="8"/>
+      <c r="I112" s="15"/>
+    </row>
+    <row r="113" ht="16.5" spans="5:9">
+      <c r="E113" s="15"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="8"/>
+      <c r="I113" s="15"/>
+    </row>
+    <row r="114" ht="16.5" spans="5:9">
+      <c r="E114" s="15"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="8"/>
+      <c r="I114" s="15"/>
+    </row>
+    <row r="115" ht="16.5" spans="5:9">
+      <c r="E115" s="15"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="7"/>
+      <c r="H115" s="8"/>
+      <c r="I115" s="15"/>
+    </row>
+    <row r="116" ht="16.5" spans="5:9">
+      <c r="E116" s="15"/>
+      <c r="F116" s="7"/>
+      <c r="G116" s="7"/>
+      <c r="H116" s="8"/>
+      <c r="I116" s="15"/>
+    </row>
+    <row r="117" ht="16.5" spans="5:9">
+      <c r="E117" s="15"/>
+      <c r="F117" s="7"/>
+      <c r="G117" s="7"/>
+      <c r="H117" s="8"/>
+      <c r="I117" s="15"/>
+    </row>
+    <row r="118" ht="16.5" spans="5:5">
+      <c r="E118" s="15"/>
+    </row>
+    <row r="119" spans="4:5">
+      <c r="D119" s="21"/>
+      <c r="E119" s="19"/>
+    </row>
+    <row r="120" spans="5:5">
+      <c r="E120" s="19"/>
+    </row>
+    <row r="121" spans="5:5">
+      <c r="E121" s="19"/>
+    </row>
+    <row r="122" spans="5:5">
+      <c r="E122" s="19"/>
+    </row>
+    <row r="123" spans="5:5">
+      <c r="E123" s="19"/>
+    </row>
+    <row r="124" spans="5:5">
+      <c r="E124" s="19"/>
+    </row>
+    <row r="125" spans="5:5">
+      <c r="E125" s="19"/>
+    </row>
+    <row r="126" spans="5:5">
+      <c r="E126" s="19"/>
+    </row>
+    <row r="127" spans="5:5">
+      <c r="E127" s="19"/>
+    </row>
+    <row r="128" spans="5:5">
+      <c r="E128" s="19"/>
+    </row>
+    <row r="129" spans="5:5">
+      <c r="E129" s="19"/>
+    </row>
+    <row r="130" spans="5:5">
+      <c r="E130" s="19"/>
+    </row>
+    <row r="131" spans="5:5">
+      <c r="E131" s="19"/>
+    </row>
+    <row r="132" spans="5:5">
+      <c r="E132" s="19"/>
+    </row>
+    <row r="133" spans="5:5">
+      <c r="E133" s="19"/>
+    </row>
+    <row r="134" spans="5:5">
+      <c r="E134" s="19"/>
+    </row>
+    <row r="135" spans="5:5">
+      <c r="E135" s="19"/>
+    </row>
+    <row r="136" spans="5:5">
+      <c r="E136" s="19"/>
+    </row>
+    <row r="137" spans="5:5">
+      <c r="E137" s="19"/>
+    </row>
+    <row r="138" spans="5:5">
+      <c r="E138" s="19"/>
+    </row>
+    <row r="139" spans="5:5">
+      <c r="E139" s="19"/>
+    </row>
+    <row r="140" spans="5:5">
+      <c r="E140" s="19"/>
+    </row>
+    <row r="141" spans="5:5">
+      <c r="E141" s="19"/>
+    </row>
+    <row r="142" spans="5:5">
+      <c r="E142" s="19"/>
+    </row>
+    <row r="143" spans="5:5">
+      <c r="E143" s="19"/>
+    </row>
+    <row r="144" spans="5:5">
+      <c r="E144" s="19"/>
+    </row>
+    <row r="145" spans="5:5">
+      <c r="E145" s="19"/>
+    </row>
+    <row r="146" spans="5:5">
+      <c r="E146" s="19"/>
+    </row>
+    <row r="147" spans="5:5">
+      <c r="E147" s="19"/>
+    </row>
+    <row r="148" spans="5:5">
+      <c r="E148" s="19"/>
+    </row>
+    <row r="149" spans="5:5">
+      <c r="E149" s="19"/>
+    </row>
+    <row r="150" spans="5:5">
+      <c r="E150" s="19"/>
+    </row>
+    <row r="151" spans="5:5">
+      <c r="E151" s="19"/>
+    </row>
+    <row r="152" spans="5:5">
+      <c r="E152" s="19"/>
+    </row>
+    <row r="153" spans="5:5">
+      <c r="E153" s="19"/>
+    </row>
+    <row r="154" spans="5:5">
+      <c r="E154" s="19"/>
+    </row>
+    <row r="155" spans="5:5">
+      <c r="E155" s="19"/>
+    </row>
+    <row r="156" spans="5:5">
+      <c r="E156" s="19"/>
+    </row>
+    <row r="157" spans="5:5">
+      <c r="E157" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
